--- a/nantes-st-nazaire-dev/actifs.xlsx
+++ b/nantes-st-nazaire-dev/actifs.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
-  <workbookProtection/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="600" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="127">
   <si>
     <t>Indicateur</t>
   </si>
@@ -278,43 +277,139 @@
     <t>89.5</t>
   </si>
   <si>
-    <t>                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                        </t>
+    <t>Taux de chômage 2016</t>
+  </si>
+  <si>
+    <t>Zone d'emploi</t>
+  </si>
+  <si>
+    <t>INSEE</t>
+  </si>
+  <si>
+    <t>Evolution annuelle moyenne 2009-2014 de la part des cadres dans pop act.</t>
+  </si>
+  <si>
+    <t>Insee, RGP</t>
+  </si>
+  <si>
+    <t>Evolution annuelle 2011-2016 du Nombre d'établissements 2016</t>
+  </si>
+  <si>
+    <t>Aéroport</t>
+  </si>
+  <si>
+    <t>Temps de connexion à Paris (train)</t>
+  </si>
+  <si>
+    <t>1h56</t>
+  </si>
+  <si>
+    <t>2h31</t>
+  </si>
+  <si>
+    <t>1h57</t>
+  </si>
+  <si>
+    <t>3h05</t>
+  </si>
+  <si>
+    <t>4h17</t>
+  </si>
+  <si>
+    <t>1h01</t>
+  </si>
+  <si>
+    <t>2h04</t>
+  </si>
+  <si>
+    <t>5h33</t>
+  </si>
+  <si>
+    <t>1h46</t>
+  </si>
+  <si>
+    <t>3h01</t>
+  </si>
+  <si>
+    <t>1h25</t>
+  </si>
+  <si>
+    <t>Gare</t>
+  </si>
+  <si>
+    <t>SNCF</t>
+  </si>
+  <si>
+    <t>Nombre de congrès internationaux en 2016</t>
+  </si>
+  <si>
+    <t>ICCA</t>
+  </si>
+  <si>
+    <t>Part des emplois salariés privés dans les industries culturelles et créatives en 2016</t>
+  </si>
+  <si>
+    <t>URSSAF, ACOSS</t>
+  </si>
+  <si>
+    <t>Evolution annuelle moyenne du nombre d'emplois dans les ICC 2011-2016</t>
+  </si>
+  <si>
+    <t>Evolution annuelle moyenne 2009-2014</t>
+  </si>
+  <si>
+    <t>Taux de réussite au baccalauréat général</t>
+  </si>
+  <si>
+    <t>Académie</t>
+  </si>
+  <si>
+    <t>Rectorat</t>
+  </si>
+  <si>
+    <t>Nombre d'emplois dans la l'industrie navale</t>
+  </si>
+  <si>
+    <t>Evolution annuelle moyenne 2011-2016</t>
+  </si>
+  <si>
+    <t>Nombre d'emplois dans l'aéronautique</t>
+  </si>
+  <si>
+    <t>Part des emplois privés dans le numérique en 2016</t>
+  </si>
+  <si>
+    <t>Périmètres French Tech</t>
+  </si>
+  <si>
+    <t>URSSAF, ACOSS ; Insee, Sirene</t>
+  </si>
+  <si>
+    <t>Evolution annuelle moyenne du nombre d'emplois dans le numérique 2011-2016</t>
+  </si>
+  <si>
+    <t>Evolution annuelle de la part des emploi "conception recherche" 2009-2014</t>
+  </si>
+  <si>
+    <t>Qualité de l’air 2016 (Jours avec un indice très bon à bon -1 à 4-)</t>
+  </si>
+  <si>
+    <t>Evolution moyenne annuelle du nombre de passagers 2011-2016 (en pourcentages)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="8">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
-    <numFmt numFmtId="165" formatCode="GENERAL"/>
-    <numFmt numFmtId="166" formatCode="#,##0"/>
-    <numFmt numFmtId="167" formatCode="#,##0.0"/>
-    <numFmt numFmtId="168" formatCode="0.00%"/>
-    <numFmt numFmtId="169" formatCode="0.0%"/>
-    <numFmt numFmtId="170" formatCode="0%"/>
-    <numFmt numFmtId="171" formatCode="0.00"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="#,##0.0"/>
+    <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="21">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="11"/>
@@ -323,48 +418,43 @@
       <family val="2"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="12"/>
       <name val="Klavika light"/>
-      <family val="0"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Klavika light"/>
-      <family val="0"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="9"/>
       <name val="Klavika light"/>
-      <family val="0"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="15"/>
       <name val="Klavika light"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Klavika light"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="11"/>
@@ -372,34 +462,77 @@
       <family val="2"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Klavika light plain"/>
-      <family val="0"/>
     </font>
     <font>
-      <i val="true"/>
+      <i/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Klavika light"/>
-      <family val="0"/>
     </font>
     <font>
-      <i val="true"/>
+      <i/>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Klavika light plain"/>
-      <family val="0"/>
     </font>
     <font>
-      <i val="true"/>
+      <i/>
       <sz val="9"/>
       <name val="Klavika light"/>
-      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Klavika light"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Klavika light plain"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Klavika light"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -430,242 +563,580 @@
         <bgColor rgb="FFFFF2CC"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEAD1DC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4A86E8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE06666"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE69138"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF9CB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF6AA84F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
-    <border diagonalUp="false" diagonalDown="false">
+  <borders count="12">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="21">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="2" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="2" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="9" fillId="3" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="4" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="4" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="9" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="9" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="4" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="9" fillId="3" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="4" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="9" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="9" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="9" fillId="3" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="4" fillId="4" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="13" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="4" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="4" fillId="4" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="14" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="15" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="16" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="4" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="4" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="3" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="3" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="9" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="4" fillId="4" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="9" fillId="5" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="171" fontId="9" fillId="3" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="3" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellXfs count="121">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="13" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="16" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="18" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="18" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="16" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="16" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="16" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="16" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="16" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="16" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="16" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="16" fillId="13" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="19" fillId="14" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Excel Built-in Normal" xfId="20" builtinId="53" customBuiltin="true"/>
+  <cellStyles count="2">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Texte explicatif" xfId="1" builtinId="53" customBuiltin="1"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -724,28 +1195,316 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:Z23"/>
+  <dimension ref="A1:AMK40"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.05"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="1" width="10.7295918367347"/>
+    <col min="1" max="1025" width="10.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="48.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:26" ht="47.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -825,56 +1584,58 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:26" ht="51">
       <c r="A2" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8" t="n">
+      <c r="B2" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="8">
         <v>21847.3</v>
       </c>
-      <c r="D2" s="8" t="n">
+      <c r="D2" s="8">
         <v>19965.7</v>
       </c>
-      <c r="E2" s="8" t="n">
+      <c r="E2" s="8">
         <v>21057.3</v>
       </c>
-      <c r="F2" s="8" t="n">
+      <c r="F2" s="8">
         <v>18792</v>
       </c>
-      <c r="G2" s="8" t="n">
+      <c r="G2" s="8">
         <v>21883.8</v>
       </c>
-      <c r="H2" s="8" t="n">
+      <c r="H2" s="8">
         <v>19308.5</v>
       </c>
-      <c r="I2" s="8" t="n">
+      <c r="I2" s="8">
         <v>21323.5</v>
       </c>
-      <c r="J2" s="8" t="n">
+      <c r="J2" s="8">
         <v>21323.5</v>
       </c>
-      <c r="K2" s="8" t="n">
+      <c r="K2" s="8">
         <v>20054</v>
       </c>
-      <c r="L2" s="8" t="n">
+      <c r="L2" s="8">
         <v>21407.4</v>
       </c>
-      <c r="M2" s="8" t="n">
+      <c r="M2" s="8">
         <v>21908</v>
       </c>
       <c r="N2" s="8"/>
-      <c r="O2" s="8" t="n">
+      <c r="O2" s="8">
         <v>3</v>
       </c>
-      <c r="P2" s="8" t="n">
+      <c r="P2" s="8">
         <v>9</v>
       </c>
       <c r="Q2" s="9"/>
-      <c r="R2" s="8" t="n">
+      <c r="R2" s="8">
         <v>0</v>
       </c>
-      <c r="S2" s="10" t="n">
+      <c r="S2" s="10">
         <v>1</v>
       </c>
       <c r="T2" s="11" t="s">
@@ -883,72 +1644,78 @@
       <c r="U2" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="V2" s="12" t="n">
-        <f aca="false">AVERAGE(C2:M2)</f>
-        <v>20806.4545454545</v>
-      </c>
-      <c r="W2" s="13" t="n">
-        <f aca="false">MEDIAN(C2:M2)</f>
+      <c r="V2" s="12">
+        <f>AVERAGE(C2:M2)</f>
+        <v>20806.454545454544</v>
+      </c>
+      <c r="W2" s="13">
+        <f>MEDIAN(C2:M2)</f>
         <v>21323.5</v>
       </c>
-      <c r="X2" s="13" t="n">
-        <f aca="false">MAX(C2:M2)</f>
+      <c r="X2" s="13">
+        <f>MAX(C2:M2)</f>
         <v>21908</v>
       </c>
-      <c r="Y2" s="13" t="n">
-        <f aca="false">MIN(C2:M2)</f>
+      <c r="Y2" s="13">
+        <f>MIN(C2:M2)</f>
         <v>18792</v>
       </c>
       <c r="Z2" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:26" ht="76.5">
       <c r="A3" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14" t="n">
+      <c r="B3" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="14">
         <v>10.7</v>
       </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14" t="n">
+      <c r="D3" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="14">
         <v>11.1</v>
       </c>
-      <c r="F3" s="14" t="n">
+      <c r="F3" s="14">
         <v>11.8</v>
       </c>
-      <c r="G3" s="14" t="n">
+      <c r="G3" s="14">
         <v>10.5</v>
       </c>
-      <c r="H3" s="14" t="n">
+      <c r="H3" s="14">
         <v>11.1</v>
       </c>
-      <c r="I3" s="14" t="n">
+      <c r="I3" s="14">
         <v>11.1</v>
       </c>
-      <c r="J3" s="14" t="n">
+      <c r="J3" s="14">
         <v>13.5</v>
       </c>
-      <c r="K3" s="14" t="n">
-        <v>9.8</v>
-      </c>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14" t="n">
+      <c r="K3" s="14">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="L3" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="M3" s="14">
         <v>10.4</v>
       </c>
       <c r="N3" s="14"/>
-      <c r="O3" s="8" t="n">
+      <c r="O3" s="8">
         <v>4</v>
       </c>
       <c r="P3" s="14"/>
-      <c r="Q3" s="15" t="n">
+      <c r="Q3" s="15">
         <v>0</v>
       </c>
-      <c r="R3" s="16" t="n">
+      <c r="R3" s="16">
         <v>0</v>
       </c>
-      <c r="S3" s="16" t="n">
+      <c r="S3" s="16">
         <v>0</v>
       </c>
       <c r="T3" s="11" t="s">
@@ -957,76 +1724,78 @@
       <c r="U3" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="V3" s="18" t="n">
-        <f aca="false">AVERAGE(C3,E3,F3,G3,H3,I3,J3,K3,M3)</f>
-        <v>11.1111111111111</v>
-      </c>
-      <c r="W3" s="18" t="n">
-        <f aca="false">MEDIAN(M3,E3:K3,C3)</f>
+      <c r="V3" s="18">
+        <f>AVERAGE(C3,E3,F3,G3,H3,I3,J3,K3,M3)</f>
+        <v>11.111111111111111</v>
+      </c>
+      <c r="W3" s="18">
+        <f>MEDIAN(M3,E3:K3,C3)</f>
         <v>11.1</v>
       </c>
-      <c r="X3" s="18" t="n">
-        <f aca="false">MAX(M3,E3:K3,C3)</f>
+      <c r="X3" s="18">
+        <f>MAX(M3,E3:K3,C3)</f>
         <v>13.5</v>
       </c>
-      <c r="Y3" s="18" t="n">
-        <f aca="false">MIN(C3,M3,E3:K3)</f>
-        <v>9.8</v>
+      <c r="Y3" s="18">
+        <f>MIN(C3,M3,E3:K3)</f>
+        <v>9.8000000000000007</v>
       </c>
       <c r="Z3" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="166.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:26" ht="178.5">
       <c r="A4" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14" t="n">
+      <c r="B4" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="14">
         <v>14</v>
       </c>
       <c r="D4" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="14" t="n">
+      <c r="E4" s="14">
         <v>18.5</v>
       </c>
-      <c r="F4" s="14" t="n">
+      <c r="F4" s="14">
         <v>16.5</v>
       </c>
-      <c r="G4" s="14" t="n">
+      <c r="G4" s="14">
         <v>14</v>
       </c>
-      <c r="H4" s="14" t="n">
+      <c r="H4" s="14">
         <v>17.5</v>
       </c>
-      <c r="I4" s="14" t="n">
+      <c r="I4" s="14">
         <v>17</v>
       </c>
-      <c r="J4" s="14" t="n">
+      <c r="J4" s="14">
         <v>25.5</v>
       </c>
-      <c r="K4" s="14" t="n">
+      <c r="K4" s="14">
         <v>15.5</v>
       </c>
-      <c r="L4" s="14" t="n">
+      <c r="L4" s="14">
         <v>13</v>
       </c>
-      <c r="M4" s="14" t="n">
+      <c r="M4" s="14">
         <v>13</v>
       </c>
       <c r="N4" s="14"/>
-      <c r="O4" s="8" t="n">
+      <c r="O4" s="8">
         <v>3</v>
       </c>
       <c r="P4" s="14"/>
-      <c r="Q4" s="15" t="n">
+      <c r="Q4" s="15">
         <v>0</v>
       </c>
-      <c r="R4" s="16" t="n">
+      <c r="R4" s="16">
         <v>0</v>
       </c>
-      <c r="S4" s="16" t="n">
+      <c r="S4" s="16">
         <v>0</v>
       </c>
       <c r="T4" s="11" t="s">
@@ -1035,76 +1804,78 @@
       <c r="U4" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="V4" s="18" t="n">
-        <f aca="false">AVERAGE(C4,E4,F4,G4,H4,I4,J4,K4,L4,L4:M4)</f>
-        <v>16.1363636363636</v>
-      </c>
-      <c r="W4" s="18" t="n">
-        <f aca="false">MEDIAN(C4,E4:M4)</f>
+      <c r="V4" s="18">
+        <f>AVERAGE(C4,E4,F4,G4,H4,I4,J4,K4,L4,L4:M4)</f>
+        <v>16.136363636363637</v>
+      </c>
+      <c r="W4" s="18">
+        <f>MEDIAN(C4,E4:M4)</f>
         <v>16</v>
       </c>
-      <c r="X4" s="18" t="n">
-        <f aca="false">MAX(E4:M4,C4)</f>
+      <c r="X4" s="18">
+        <f>MAX(E4:M4,C4)</f>
         <v>25.5</v>
       </c>
-      <c r="Y4" s="18" t="n">
-        <f aca="false">MIN(C4,E4:M4)</f>
+      <c r="Y4" s="18">
+        <f>MIN(C4,E4:M4)</f>
         <v>13</v>
       </c>
       <c r="Z4" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:26" ht="38.25">
       <c r="A5" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="14" t="n">
+      <c r="B5" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="14">
         <v>3.3</v>
       </c>
-      <c r="D5" s="14" t="n">
+      <c r="D5" s="14">
         <v>2.9</v>
       </c>
-      <c r="E5" s="14" t="n">
+      <c r="E5" s="14">
         <v>3.9</v>
       </c>
-      <c r="F5" s="14" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="G5" s="14" t="n">
+      <c r="F5" s="14">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="G5" s="14">
         <v>3.9</v>
       </c>
-      <c r="H5" s="14" t="n">
+      <c r="H5" s="14">
         <v>3.7</v>
       </c>
-      <c r="I5" s="14" t="n">
+      <c r="I5" s="14">
         <v>3.6</v>
       </c>
-      <c r="J5" s="14" t="n">
+      <c r="J5" s="14">
         <v>3.9</v>
       </c>
-      <c r="K5" s="14" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="L5" s="14" t="n">
+      <c r="K5" s="14">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="L5" s="14">
         <v>3.5</v>
       </c>
-      <c r="M5" s="14" t="n">
+      <c r="M5" s="14">
         <v>3.5</v>
       </c>
       <c r="N5" s="8"/>
-      <c r="O5" s="8" t="n">
+      <c r="O5" s="8">
         <v>2</v>
       </c>
-      <c r="P5" s="8" t="n">
+      <c r="P5" s="8">
         <v>1</v>
       </c>
       <c r="Q5" s="19"/>
-      <c r="R5" s="20" t="n">
+      <c r="R5" s="20">
         <v>0</v>
       </c>
-      <c r="S5" s="16" t="n">
+      <c r="S5" s="16">
         <v>0</v>
       </c>
       <c r="T5" s="11" t="s">
@@ -1113,73 +1884,73 @@
       <c r="U5" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="V5" s="21" t="n">
-        <f aca="false">AVERAGE(C5:M5)</f>
-        <v>3.67272727272727</v>
-      </c>
-      <c r="W5" s="18" t="n">
-        <f aca="false">MEDIAN(C5:M5)</f>
+      <c r="V5" s="21">
+        <f>AVERAGE(C5:M5)</f>
+        <v>3.6727272727272724</v>
+      </c>
+      <c r="W5" s="18">
+        <f>MEDIAN(C5:M5)</f>
         <v>3.7</v>
       </c>
-      <c r="X5" s="18" t="n">
-        <f aca="false">MAX(C5:M5)</f>
-        <v>4.1</v>
-      </c>
-      <c r="Y5" s="18" t="n">
-        <f aca="false">MIN(C5:M5)</f>
+      <c r="X5" s="18">
+        <f>MAX(C5:M5)</f>
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="Y5" s="18">
+        <f>MIN(C5:M5)</f>
         <v>2.9</v>
       </c>
       <c r="Z5" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:26" ht="76.5">
       <c r="A6" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="22" t="n">
-        <v>0.166486520671753</v>
-      </c>
-      <c r="C6" s="23" t="n">
+      <c r="B6" s="22">
+        <v>0.16648652067175301</v>
+      </c>
+      <c r="C6" s="23">
         <v>0.163519745087334</v>
       </c>
-      <c r="D6" s="23" t="n">
-        <v>0.181744335940949</v>
-      </c>
-      <c r="E6" s="23" t="n">
-        <v>0.200369913686806</v>
-      </c>
-      <c r="F6" s="23" t="n">
-        <v>0.158680446951476</v>
-      </c>
-      <c r="G6" s="23" t="n">
-        <v>0.130151472315254</v>
-      </c>
-      <c r="H6" s="23" t="n">
-        <v>0.230089111365287</v>
-      </c>
-      <c r="I6" s="23" t="n">
+      <c r="D6" s="23">
+        <v>0.18174433594094899</v>
+      </c>
+      <c r="E6" s="23">
+        <v>0.20036991368680601</v>
+      </c>
+      <c r="F6" s="23">
+        <v>0.15868044695147601</v>
+      </c>
+      <c r="G6" s="23">
+        <v>0.13015147231525401</v>
+      </c>
+      <c r="H6" s="23">
+        <v>0.23008911136528701</v>
+      </c>
+      <c r="I6" s="23">
         <v>0.173989785495404</v>
       </c>
-      <c r="J6" s="23" t="n">
-        <v>0.0964176197998521</v>
-      </c>
-      <c r="K6" s="23" t="n">
-        <v>0.196542577517607</v>
-      </c>
-      <c r="L6" s="23" t="n">
-        <v>0.159183294572886</v>
-      </c>
-      <c r="M6" s="23" t="n">
-        <v>0.170952952034073</v>
-      </c>
-      <c r="N6" s="8" t="n">
+      <c r="J6" s="23">
+        <v>9.6417619799852097E-2</v>
+      </c>
+      <c r="K6" s="23">
+        <v>0.19654257751760701</v>
+      </c>
+      <c r="L6" s="23">
+        <v>0.15918329457288599</v>
+      </c>
+      <c r="M6" s="23">
+        <v>0.17095295203407301</v>
+      </c>
+      <c r="N6" s="8">
         <v>6</v>
       </c>
-      <c r="O6" s="8" t="n">
+      <c r="O6" s="8">
         <v>7</v>
       </c>
-      <c r="P6" s="8" t="n">
+      <c r="P6" s="8">
         <v>4</v>
       </c>
       <c r="Q6" s="24"/>
@@ -1191,60 +1962,68 @@
       <c r="U6" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="V6" s="25" t="n">
-        <f aca="false">AVERAGE(B6:M6)</f>
-        <v>0.169010647953223</v>
-      </c>
-      <c r="W6" s="25" t="n">
-        <f aca="false">MEDIAN(B6:M6)</f>
-        <v>0.168719736352913</v>
-      </c>
-      <c r="X6" s="25" t="n">
-        <f aca="false">MAX(B6:M6)</f>
-        <v>0.230089111365287</v>
-      </c>
-      <c r="Y6" s="25" t="n">
-        <f aca="false">MIN(B6:M6)</f>
-        <v>0.0964176197998521</v>
+      <c r="V6" s="25">
+        <f>AVERAGE(B6:M6)</f>
+        <v>0.1690106479532234</v>
+      </c>
+      <c r="W6" s="25">
+        <f>MEDIAN(B6:M6)</f>
+        <v>0.16871973635291301</v>
+      </c>
+      <c r="X6" s="25">
+        <f>MAX(B6:M6)</f>
+        <v>0.23008911136528701</v>
+      </c>
+      <c r="Y6" s="25">
+        <f>MIN(B6:M6)</f>
+        <v>9.6417619799852097E-2</v>
       </c>
       <c r="Z6" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:26" ht="63.75">
       <c r="A7" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="26"/>
-      <c r="C7" s="8" t="n">
+      <c r="B7" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="8">
         <v>22852</v>
       </c>
-      <c r="D7" s="26"/>
-      <c r="E7" s="8" t="n">
+      <c r="D7" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="8">
         <v>43530</v>
       </c>
-      <c r="F7" s="8" t="n">
+      <c r="F7" s="8">
         <v>44823</v>
       </c>
-      <c r="G7" s="8" t="n">
+      <c r="G7" s="8">
         <v>30191</v>
       </c>
-      <c r="H7" s="8" t="n">
+      <c r="H7" s="8">
         <v>54181</v>
       </c>
-      <c r="I7" s="8" t="n">
+      <c r="I7" s="8">
         <v>32572</v>
       </c>
-      <c r="J7" s="8" t="n">
+      <c r="J7" s="8">
         <v>17260</v>
       </c>
-      <c r="K7" s="26"/>
-      <c r="L7" s="26"/>
-      <c r="M7" s="8" t="n">
+      <c r="K7" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="L7" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="M7" s="8">
         <v>21611</v>
       </c>
       <c r="N7" s="14"/>
-      <c r="O7" s="8" t="n">
+      <c r="O7" s="8">
         <v>6</v>
       </c>
       <c r="P7" s="14"/>
@@ -1257,82 +2036,82 @@
       <c r="U7" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="V7" s="13" t="n">
-        <f aca="false">AVERAGE(C7,E7:J7,M7)</f>
+      <c r="V7" s="13">
+        <f>AVERAGE(C7,E7:J7,M7)</f>
         <v>33377.5</v>
       </c>
-      <c r="W7" s="13" t="n">
-        <f aca="false">MEDIAN(M7,E7:J7,C7)</f>
+      <c r="W7" s="13">
+        <f>MEDIAN(M7,E7:J7,C7)</f>
         <v>31381.5</v>
       </c>
-      <c r="X7" s="13" t="n">
-        <f aca="false">MAX(M7,E7:J7,C7)</f>
+      <c r="X7" s="13">
+        <f>MAX(M7,E7:J7,C7)</f>
         <v>54181</v>
       </c>
-      <c r="Y7" s="13" t="n">
-        <f aca="false">MIN(E7:J7,C7,M7)</f>
+      <c r="Y7" s="13">
+        <f>MIN(E7:J7,C7,M7)</f>
         <v>17260</v>
       </c>
       <c r="Z7" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:26" ht="63.75">
       <c r="A8" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B8" s="8" t="n">
+      <c r="B8" s="8">
         <v>5657</v>
       </c>
-      <c r="C8" s="8" t="n">
+      <c r="C8" s="8">
         <v>5033</v>
       </c>
-      <c r="D8" s="8" t="n">
+      <c r="D8" s="8">
         <v>624</v>
       </c>
-      <c r="E8" s="8" t="n">
+      <c r="E8" s="8">
         <v>11834</v>
       </c>
-      <c r="F8" s="8" t="n">
+      <c r="F8" s="8">
         <v>16000</v>
       </c>
-      <c r="G8" s="8" t="n">
+      <c r="G8" s="8">
         <v>8493</v>
       </c>
-      <c r="H8" s="8" t="n">
+      <c r="H8" s="8">
         <v>7381</v>
       </c>
-      <c r="I8" s="8" t="n">
+      <c r="I8" s="8">
         <v>6863</v>
       </c>
-      <c r="J8" s="8" t="n">
+      <c r="J8" s="8">
         <v>4407</v>
       </c>
-      <c r="K8" s="8" t="n">
+      <c r="K8" s="8">
         <v>5494</v>
       </c>
-      <c r="L8" s="8" t="n">
+      <c r="L8" s="8">
         <v>3917</v>
       </c>
-      <c r="M8" s="8" t="n">
+      <c r="M8" s="8">
         <v>2934</v>
       </c>
-      <c r="N8" s="8" t="n">
+      <c r="N8" s="8">
         <v>6</v>
       </c>
-      <c r="O8" s="8" t="n">
+      <c r="O8" s="8">
         <v>7</v>
       </c>
-      <c r="P8" s="8" t="n">
+      <c r="P8" s="8">
         <v>11</v>
       </c>
-      <c r="Q8" s="10" t="n">
+      <c r="Q8" s="10">
         <v>1</v>
       </c>
-      <c r="R8" s="8" t="n">
+      <c r="R8" s="8">
         <v>0</v>
       </c>
-      <c r="S8" s="8" t="n">
+      <c r="S8" s="8">
         <v>0</v>
       </c>
       <c r="T8" s="11" t="s">
@@ -1341,82 +2120,82 @@
       <c r="U8" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="V8" s="12" t="n">
-        <f aca="false">AVERAGE(B8:M8)</f>
-        <v>6553.08333333333</v>
-      </c>
-      <c r="W8" s="13" t="n">
-        <f aca="false">MEDIAN(B8:M8)</f>
+      <c r="V8" s="12">
+        <f>AVERAGE(B8:M8)</f>
+        <v>6553.083333333333</v>
+      </c>
+      <c r="W8" s="13">
+        <f>MEDIAN(B8:M8)</f>
         <v>5575.5</v>
       </c>
-      <c r="X8" s="13" t="n">
-        <f aca="false">MAX(B8:M8)</f>
+      <c r="X8" s="13">
+        <f>MAX(B8:M8)</f>
         <v>16000</v>
       </c>
-      <c r="Y8" s="13" t="n">
-        <f aca="false">MIN(B8:M8)</f>
+      <c r="Y8" s="13">
+        <f>MIN(B8:M8)</f>
         <v>624</v>
       </c>
       <c r="Z8" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:26" ht="63.75">
       <c r="A9" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="14" t="n">
-        <v>76.301077009192</v>
-      </c>
-      <c r="C9" s="14" t="n">
-        <v>81.2770492862218</v>
-      </c>
-      <c r="D9" s="14" t="n">
-        <v>51.0784594605656</v>
-      </c>
-      <c r="E9" s="14" t="n">
-        <v>87.3695805610435</v>
-      </c>
-      <c r="F9" s="14" t="n">
-        <v>94.2878643857646</v>
-      </c>
-      <c r="G9" s="14" t="n">
-        <v>113.707108802963</v>
-      </c>
-      <c r="H9" s="14" t="n">
-        <v>68.6370327525394</v>
-      </c>
-      <c r="I9" s="14" t="n">
-        <v>90.1919091431177</v>
-      </c>
-      <c r="J9" s="14" t="n">
-        <v>84.2091183551802</v>
-      </c>
-      <c r="K9" s="14" t="n">
+      <c r="B9" s="14">
+        <v>76.301077009191999</v>
+      </c>
+      <c r="C9" s="14">
+        <v>81.277049286221796</v>
+      </c>
+      <c r="D9" s="14">
+        <v>51.078459460565597</v>
+      </c>
+      <c r="E9" s="14">
+        <v>87.369580561043506</v>
+      </c>
+      <c r="F9" s="14">
+        <v>94.287864385764607</v>
+      </c>
+      <c r="G9" s="14">
+        <v>113.70710880296301</v>
+      </c>
+      <c r="H9" s="14">
+        <v>68.637032752539398</v>
+      </c>
+      <c r="I9" s="14">
+        <v>90.191909143117698</v>
+      </c>
+      <c r="J9" s="14">
+        <v>84.209118355180195</v>
+      </c>
+      <c r="K9" s="14">
         <v>113.5</v>
       </c>
-      <c r="L9" s="14" t="n">
-        <v>88.2052252081841</v>
-      </c>
-      <c r="M9" s="14" t="n">
+      <c r="L9" s="14">
+        <v>88.205225208184103</v>
+      </c>
+      <c r="M9" s="14">
         <v>67.7778162791504</v>
       </c>
-      <c r="N9" s="8" t="n">
+      <c r="N9" s="8">
         <v>8</v>
       </c>
-      <c r="O9" s="8" t="n">
+      <c r="O9" s="8">
         <v>8</v>
       </c>
-      <c r="P9" s="8" t="n">
+      <c r="P9" s="8">
         <v>11</v>
       </c>
-      <c r="Q9" s="8" t="n">
+      <c r="Q9" s="8">
         <v>0</v>
       </c>
-      <c r="R9" s="10" t="n">
+      <c r="R9" s="10">
         <v>-1</v>
       </c>
-      <c r="S9" s="8" t="n">
+      <c r="S9" s="8">
         <v>0</v>
       </c>
       <c r="T9" s="11" t="s">
@@ -1425,82 +2204,82 @@
       <c r="U9" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="V9" s="27" t="n">
-        <f aca="false">AVERAGE(B9:M9)</f>
-        <v>84.7118534369935</v>
-      </c>
-      <c r="W9" s="27" t="n">
-        <f aca="false">MEDIAN(B9:M9)</f>
-        <v>85.7893494581119</v>
-      </c>
-      <c r="X9" s="27" t="n">
-        <f aca="false">MAX(B9:M9)</f>
-        <v>113.707108802963</v>
-      </c>
-      <c r="Y9" s="27" t="n">
-        <f aca="false">MIN(B9:M9)</f>
-        <v>51.0784594605656</v>
+      <c r="V9" s="27">
+        <f>AVERAGE(B9:M9)</f>
+        <v>84.711853436993522</v>
+      </c>
+      <c r="W9" s="27">
+        <f>MEDIAN(B9:M9)</f>
+        <v>85.789349458111843</v>
+      </c>
+      <c r="X9" s="27">
+        <f>MAX(B9:M9)</f>
+        <v>113.70710880296301</v>
+      </c>
+      <c r="Y9" s="27">
+        <f>MIN(B9:M9)</f>
+        <v>51.078459460565597</v>
       </c>
       <c r="Z9" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="90.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:26" ht="89.25">
       <c r="A10" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B10" s="23" t="n">
+      <c r="B10" s="23">
         <v>0.2208</v>
       </c>
-      <c r="C10" s="23" t="n">
+      <c r="C10" s="23">
         <v>0.222457272436727</v>
       </c>
-      <c r="D10" s="23" t="n">
-        <v>0.215216691032535</v>
-      </c>
-      <c r="E10" s="23" t="n">
-        <v>0.205237800446801</v>
-      </c>
-      <c r="F10" s="23" t="n">
+      <c r="D10" s="23">
+        <v>0.21521669103253499</v>
+      </c>
+      <c r="E10" s="23">
+        <v>0.20523780044680101</v>
+      </c>
+      <c r="F10" s="23">
         <v>0.232138221831097</v>
       </c>
-      <c r="G10" s="23" t="n">
-        <v>0.247960574397061</v>
-      </c>
-      <c r="H10" s="23" t="n">
-        <v>0.215216691032535</v>
-      </c>
-      <c r="I10" s="23" t="n">
-        <v>0.228059332509271</v>
-      </c>
-      <c r="J10" s="23" t="n">
-        <v>0.20341890910215</v>
-      </c>
-      <c r="K10" s="23" t="n">
-        <v>0.216552946389012</v>
-      </c>
-      <c r="L10" s="23" t="n">
-        <v>0.244529991750795</v>
-      </c>
-      <c r="M10" s="23" t="n">
+      <c r="G10" s="23">
+        <v>0.24796057439706101</v>
+      </c>
+      <c r="H10" s="23">
+        <v>0.21521669103253499</v>
+      </c>
+      <c r="I10" s="23">
+        <v>0.22805933250927099</v>
+      </c>
+      <c r="J10" s="23">
+        <v>0.20341890910214999</v>
+      </c>
+      <c r="K10" s="23">
+        <v>0.21655294638901201</v>
+      </c>
+      <c r="L10" s="23">
+        <v>0.24452999175079501</v>
+      </c>
+      <c r="M10" s="23">
         <v>0.232138221831097</v>
       </c>
-      <c r="N10" s="8" t="n">
+      <c r="N10" s="8">
         <v>6</v>
       </c>
-      <c r="O10" s="8" t="n">
+      <c r="O10" s="8">
         <v>6</v>
       </c>
-      <c r="P10" s="8" t="n">
+      <c r="P10" s="8">
         <v>8</v>
       </c>
-      <c r="Q10" s="8" t="n">
+      <c r="Q10" s="8">
         <v>0</v>
       </c>
-      <c r="R10" s="8" t="n">
+      <c r="R10" s="8">
         <v>0</v>
       </c>
-      <c r="S10" s="10" t="n">
+      <c r="S10" s="10">
         <v>1</v>
       </c>
       <c r="T10" s="11" t="s">
@@ -1509,73 +2288,73 @@
       <c r="U10" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="V10" s="28" t="n">
-        <f aca="false">AVERAGE(B10:M10)</f>
-        <v>0.223643887729923</v>
-      </c>
-      <c r="W10" s="28" t="n">
-        <f aca="false">MEDIAN(B10:M10)</f>
-        <v>0.221628636218364</v>
-      </c>
-      <c r="X10" s="28" t="n">
-        <f aca="false">MAX(B10:M10)</f>
-        <v>0.247960574397061</v>
-      </c>
-      <c r="Y10" s="28" t="n">
-        <f aca="false">MIN(B10:M10)</f>
-        <v>0.20341890910215</v>
+      <c r="V10" s="28">
+        <f>AVERAGE(B10:M10)</f>
+        <v>0.22364388772992341</v>
+      </c>
+      <c r="W10" s="28">
+        <f>MEDIAN(B10:M10)</f>
+        <v>0.22162863621836348</v>
+      </c>
+      <c r="X10" s="28">
+        <f>MAX(B10:M10)</f>
+        <v>0.24796057439706101</v>
+      </c>
+      <c r="Y10" s="28">
+        <f>MIN(B10:M10)</f>
+        <v>0.20341890910214999</v>
       </c>
       <c r="Z10" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="115.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:26" ht="127.5">
       <c r="A11" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="B11" s="30" t="n">
-        <v>0.0723168597812449</v>
-      </c>
-      <c r="C11" s="30" t="n">
-        <v>0.0758169048728132</v>
-      </c>
-      <c r="D11" s="30" t="n">
-        <v>0.0579340289461772</v>
-      </c>
-      <c r="E11" s="30" t="n">
-        <v>0.0719178581521662</v>
-      </c>
-      <c r="F11" s="30" t="n">
-        <v>0.048912556596499</v>
-      </c>
-      <c r="G11" s="30" t="n">
-        <v>0.0660622732402922</v>
-      </c>
-      <c r="H11" s="30" t="n">
-        <v>0.0667517532486153</v>
-      </c>
-      <c r="I11" s="30" t="n">
-        <v>0.0793665246088975</v>
-      </c>
-      <c r="J11" s="30" t="n">
-        <v>0.0522852570293126</v>
-      </c>
-      <c r="K11" s="30" t="n">
-        <v>0.0664246930962458</v>
-      </c>
-      <c r="L11" s="30" t="n">
-        <v>0.0596213198187883</v>
-      </c>
-      <c r="M11" s="30" t="n">
-        <v>0.0663579556867724</v>
-      </c>
-      <c r="N11" s="8" t="n">
+      <c r="B11" s="30">
+        <v>7.2316859781244899E-2</v>
+      </c>
+      <c r="C11" s="30">
+        <v>7.5816904872813201E-2</v>
+      </c>
+      <c r="D11" s="30">
+        <v>5.7934028946177198E-2</v>
+      </c>
+      <c r="E11" s="30">
+        <v>7.1917858152166197E-2</v>
+      </c>
+      <c r="F11" s="30">
+        <v>4.8912556596498999E-2</v>
+      </c>
+      <c r="G11" s="30">
+        <v>6.6062273240292194E-2</v>
+      </c>
+      <c r="H11" s="30">
+        <v>6.6751753248615306E-2</v>
+      </c>
+      <c r="I11" s="30">
+        <v>7.9366524608897496E-2</v>
+      </c>
+      <c r="J11" s="30">
+        <v>5.2285257029312603E-2</v>
+      </c>
+      <c r="K11" s="30">
+        <v>6.6424693096245796E-2</v>
+      </c>
+      <c r="L11" s="30">
+        <v>5.96213198187883E-2</v>
+      </c>
+      <c r="M11" s="30">
+        <v>6.6357955686772399E-2</v>
+      </c>
+      <c r="N11" s="8">
         <v>2</v>
       </c>
-      <c r="O11" s="31" t="n">
+      <c r="O11" s="31">
         <v>2</v>
       </c>
-      <c r="P11" s="31" t="n">
+      <c r="P11" s="31">
         <v>9</v>
       </c>
       <c r="Q11" s="24"/>
@@ -1587,78 +2366,82 @@
       <c r="U11" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="V11" s="32" t="n">
-        <f aca="false">AVERAGE(B11:M11)</f>
-        <v>0.0653139987564854</v>
-      </c>
-      <c r="W11" s="32" t="n">
-        <f aca="false">MEDIAN(B11:M11)</f>
-        <v>0.0663913243915091</v>
-      </c>
-      <c r="X11" s="32" t="n">
-        <f aca="false">MAX(B11:M11)</f>
-        <v>0.0793665246088975</v>
-      </c>
-      <c r="Y11" s="32" t="n">
-        <f aca="false">MIN(B11:M11)</f>
-        <v>0.048912556596499</v>
+      <c r="V11" s="32">
+        <f>AVERAGE(B11:M11)</f>
+        <v>6.5313998756485372E-2</v>
+      </c>
+      <c r="W11" s="32">
+        <f>MEDIAN(B11:M11)</f>
+        <v>6.6391324391509104E-2</v>
+      </c>
+      <c r="X11" s="32">
+        <f>MAX(B11:M11)</f>
+        <v>7.9366524608897496E-2</v>
+      </c>
+      <c r="Y11" s="32">
+        <f>MIN(B11:M11)</f>
+        <v>4.8912556596498999E-2</v>
       </c>
       <c r="Z11" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="102.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:26" ht="114.75">
       <c r="A12" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B12" s="8" t="n">
+      <c r="B12" s="8">
         <v>397</v>
       </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8" t="n">
+      <c r="C12" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="8">
         <v>256</v>
       </c>
-      <c r="F12" s="8" t="n">
+      <c r="F12" s="8">
         <v>215</v>
       </c>
-      <c r="G12" s="8" t="n">
+      <c r="G12" s="8">
         <v>289</v>
       </c>
-      <c r="H12" s="8" t="n">
+      <c r="H12" s="8">
         <v>351</v>
       </c>
-      <c r="I12" s="8" t="n">
+      <c r="I12" s="8">
         <v>275</v>
       </c>
-      <c r="J12" s="8" t="n">
+      <c r="J12" s="8">
         <v>219</v>
       </c>
-      <c r="K12" s="8" t="n">
+      <c r="K12" s="8">
         <v>443</v>
       </c>
-      <c r="L12" s="8" t="n">
+      <c r="L12" s="8">
         <v>301</v>
       </c>
-      <c r="M12" s="8" t="n">
+      <c r="M12" s="8">
         <v>438</v>
       </c>
-      <c r="N12" s="20" t="n">
+      <c r="N12" s="20">
         <v>3</v>
       </c>
-      <c r="O12" s="16" t="n">
+      <c r="O12" s="16">
         <v>3</v>
       </c>
-      <c r="P12" s="16" t="n">
+      <c r="P12" s="16">
         <v>3</v>
       </c>
-      <c r="Q12" s="20" t="n">
+      <c r="Q12" s="20">
         <v>0</v>
       </c>
-      <c r="R12" s="16" t="n">
+      <c r="R12" s="16">
         <v>0</v>
       </c>
-      <c r="S12" s="16" t="n">
+      <c r="S12" s="16">
         <v>0</v>
       </c>
       <c r="T12" s="11" t="s">
@@ -1667,69 +2450,73 @@
       <c r="U12" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="V12" s="33" t="n">
-        <f aca="false">AVERAGE(E12:M12,B12)</f>
-        <v>318.4</v>
-      </c>
-      <c r="W12" s="33" t="n">
-        <f aca="false">MEDIAN(E12:M12,B12)</f>
+      <c r="V12" s="33">
+        <f>AVERAGE(E12:M12,B12)</f>
+        <v>318.39999999999998</v>
+      </c>
+      <c r="W12" s="33">
+        <f>MEDIAN(E12:M12,B12)</f>
         <v>295</v>
       </c>
-      <c r="X12" s="33" t="n">
-        <f aca="false">MAX(E12:M12,B12)</f>
+      <c r="X12" s="33">
+        <f>MAX(E12:M12,B12)</f>
         <v>443</v>
       </c>
-      <c r="Y12" s="33" t="n">
-        <f aca="false">MIN(E12:M12,B12)</f>
+      <c r="Y12" s="33">
+        <f>MIN(E12:M12,B12)</f>
         <v>215</v>
       </c>
       <c r="Z12" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:26" ht="76.5">
       <c r="A13" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="B13" s="9" t="n">
+      <c r="B13" s="9">
         <v>4231</v>
       </c>
-      <c r="C13" s="9" t="n">
+      <c r="C13" s="9">
         <v>4185</v>
       </c>
-      <c r="D13" s="9" t="n">
+      <c r="D13" s="9">
         <v>846</v>
       </c>
-      <c r="E13" s="9" t="n">
+      <c r="E13" s="9">
         <v>6624</v>
       </c>
-      <c r="F13" s="9" t="n">
+      <c r="F13" s="9">
         <v>7605</v>
       </c>
-      <c r="G13" s="9" t="n">
+      <c r="G13" s="9">
         <v>6080</v>
       </c>
-      <c r="H13" s="9" t="n">
+      <c r="H13" s="9">
         <v>11066</v>
       </c>
-      <c r="I13" s="9" t="n">
+      <c r="I13" s="9">
         <v>6365</v>
       </c>
-      <c r="J13" s="9" t="n">
+      <c r="J13" s="9">
         <v>3193</v>
       </c>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9" t="n">
+      <c r="K13" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="L13" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="M13" s="9">
         <v>4406</v>
       </c>
-      <c r="N13" s="9" t="n">
+      <c r="N13" s="9">
         <v>7</v>
       </c>
-      <c r="O13" s="9" t="n">
+      <c r="O13" s="9">
         <v>7</v>
       </c>
-      <c r="P13" s="9" t="n">
+      <c r="P13" s="9">
         <v>9</v>
       </c>
       <c r="Q13" s="9"/>
@@ -1741,78 +2528,82 @@
       <c r="U13" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="V13" s="33" t="n">
-        <f aca="false">AVERAGE(B13:J13,M13)</f>
+      <c r="V13" s="33">
+        <f>AVERAGE(B13:J13,M13)</f>
         <v>5460.1</v>
       </c>
-      <c r="W13" s="33" t="n">
-        <f aca="false">MEDIAN(M13,B13:J13)</f>
+      <c r="W13" s="33">
+        <f>MEDIAN(M13,B13:J13)</f>
         <v>5243</v>
       </c>
-      <c r="X13" s="33" t="n">
-        <f aca="false">MAX(M13,B13:J13)</f>
+      <c r="X13" s="33">
+        <f>MAX(M13,B13:J13)</f>
         <v>11066</v>
       </c>
-      <c r="Y13" s="33" t="n">
-        <f aca="false">MIN(M13,B13:J13)</f>
+      <c r="Y13" s="33">
+        <f>MIN(M13,B13:J13)</f>
         <v>846</v>
       </c>
       <c r="Z13" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="90.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:26" ht="89.25">
       <c r="A14" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B14" s="36"/>
-      <c r="C14" s="36" t="n">
-        <v>0.808743169</v>
-      </c>
-      <c r="D14" s="36" t="n">
-        <f aca="false">302/366</f>
-        <v>0.825136612021858</v>
-      </c>
-      <c r="E14" s="36" t="n">
-        <f aca="false">246/366</f>
-        <v>0.672131147540984</v>
-      </c>
-      <c r="F14" s="36"/>
-      <c r="G14" s="36" t="n">
+      <c r="B14" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="36">
+        <v>0.80874316899999998</v>
+      </c>
+      <c r="D14" s="36">
+        <f>302/366</f>
+        <v>0.82513661202185795</v>
+      </c>
+      <c r="E14" s="36">
+        <f>246/366</f>
+        <v>0.67213114754098358</v>
+      </c>
+      <c r="F14" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="G14" s="36">
         <v>0.78</v>
       </c>
-      <c r="H14" s="36" t="n">
+      <c r="H14" s="36">
         <v>0.74</v>
       </c>
-      <c r="I14" s="36" t="n">
+      <c r="I14" s="36">
         <v>0.76</v>
       </c>
-      <c r="J14" s="36" t="n">
+      <c r="J14" s="36">
         <v>0.54</v>
       </c>
-      <c r="K14" s="36" t="n">
-        <f aca="false">259/366</f>
-        <v>0.707650273224044</v>
-      </c>
-      <c r="L14" s="36" t="n">
-        <f aca="false">232/366</f>
-        <v>0.633879781420765</v>
-      </c>
-      <c r="M14" s="36" t="n">
+      <c r="K14" s="36">
+        <f>259/366</f>
+        <v>0.70765027322404372</v>
+      </c>
+      <c r="L14" s="36">
+        <f>232/366</f>
+        <v>0.63387978142076506</v>
+      </c>
+      <c r="M14" s="36">
         <v>0.75</v>
       </c>
       <c r="N14" s="8"/>
-      <c r="O14" s="8" t="n">
+      <c r="O14" s="8">
         <v>2</v>
       </c>
-      <c r="P14" s="8" t="n">
+      <c r="P14" s="8">
         <v>1</v>
       </c>
       <c r="Q14" s="9"/>
-      <c r="R14" s="8" t="n">
+      <c r="R14" s="8">
         <v>0</v>
       </c>
-      <c r="S14" s="10" t="n">
+      <c r="S14" s="10">
         <v>1</v>
       </c>
       <c r="T14" s="11" t="s">
@@ -1821,39 +2612,45 @@
       <c r="U14" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="V14" s="37" t="n">
-        <f aca="false">AVERAGE(C14:E14,G14:M14)</f>
-        <v>0.721754098320765</v>
-      </c>
-      <c r="W14" s="37" t="n">
-        <f aca="false">MEDIAN(G14:M14,C14:E14)</f>
+      <c r="V14" s="37">
+        <f>AVERAGE(C14:E14,G14:M14)</f>
+        <v>0.72175409832076498</v>
+      </c>
+      <c r="W14" s="37">
+        <f>MEDIAN(G14:M14,C14:E14)</f>
         <v>0.745</v>
       </c>
-      <c r="X14" s="37" t="n">
-        <f aca="false">MAX(G14:M14,C14:E14)</f>
-        <v>0.825136612021858</v>
-      </c>
-      <c r="Y14" s="37" t="n">
-        <f aca="false">MIN(G14:M14,C14:E14)</f>
+      <c r="X14" s="37">
+        <f>MAX(G14:M14,C14:E14)</f>
+        <v>0.82513661202185795</v>
+      </c>
+      <c r="Y14" s="37">
+        <f>MIN(G14:M14,C14:E14)</f>
         <v>0.54</v>
       </c>
       <c r="Z14" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="77.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:26" ht="76.5">
       <c r="A15" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="B15" s="9"/>
+      <c r="B15" s="9" t="s">
+        <v>33</v>
+      </c>
       <c r="C15" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="D15" s="9"/>
+      <c r="D15" s="9" t="s">
+        <v>33</v>
+      </c>
       <c r="E15" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="F15" s="19"/>
+      <c r="F15" s="19" t="s">
+        <v>33</v>
+      </c>
       <c r="G15" s="19" t="s">
         <v>58</v>
       </c>
@@ -1876,7 +2673,7 @@
         <v>64</v>
       </c>
       <c r="N15" s="9"/>
-      <c r="O15" s="9" t="n">
+      <c r="O15" s="9">
         <v>6</v>
       </c>
       <c r="P15" s="9"/>
@@ -1889,73 +2686,73 @@
       <c r="U15" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="V15" s="32" t="n">
-        <f aca="false">0.359</f>
-        <v>0.359</v>
-      </c>
-      <c r="W15" s="32" t="n">
-        <v>0.356</v>
+      <c r="V15" s="32">
+        <f>0.359</f>
+        <v>0.35899999999999999</v>
+      </c>
+      <c r="W15" s="32">
+        <v>0.35599999999999998</v>
       </c>
       <c r="X15" s="32" t="str">
-        <f aca="false">H15</f>
+        <f>H15</f>
         <v>47.2%</v>
       </c>
       <c r="Y15" s="32" t="str">
-        <f aca="false">G15</f>
+        <f>G15</f>
         <v>27.6%</v>
       </c>
       <c r="Z15" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:26" ht="38.25">
       <c r="A16" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="B16" s="38" t="n">
-        <f aca="false">C16+D16</f>
-        <v>3694.06</v>
-      </c>
-      <c r="C16" s="38" t="n">
+      <c r="B16" s="38">
+        <f>C16+D16</f>
+        <v>3694.0600000000004</v>
+      </c>
+      <c r="C16" s="38">
         <v>2823.28</v>
       </c>
-      <c r="D16" s="38" t="n">
+      <c r="D16" s="38">
         <v>870.78</v>
       </c>
-      <c r="E16" s="8" t="n">
+      <c r="E16" s="8">
         <v>3340.4</v>
       </c>
-      <c r="F16" s="8" t="n">
+      <c r="F16" s="8">
         <v>1075.414</v>
       </c>
-      <c r="G16" s="8" t="n">
-        <v>7105.11100000001</v>
-      </c>
-      <c r="H16" s="8" t="n">
-        <v>844.086</v>
-      </c>
-      <c r="I16" s="8" t="n">
-        <v>6278.92800000001</v>
-      </c>
-      <c r="J16" s="8" t="n">
+      <c r="G16" s="8">
+        <v>7105.1110000000099</v>
+      </c>
+      <c r="H16" s="8">
+        <v>844.08600000000001</v>
+      </c>
+      <c r="I16" s="8">
+        <v>6278.9280000000099</v>
+      </c>
+      <c r="J16" s="8">
         <v>1932.425</v>
       </c>
-      <c r="K16" s="8" t="n">
+      <c r="K16" s="8">
         <v>1669.751</v>
       </c>
-      <c r="L16" s="8" t="n">
+      <c r="L16" s="8">
         <v>1685.07</v>
       </c>
-      <c r="M16" s="8" t="n">
-        <v>3402.584</v>
-      </c>
-      <c r="N16" s="8" t="n">
+      <c r="M16" s="8">
+        <v>3402.5839999999998</v>
+      </c>
+      <c r="N16" s="8">
         <v>3</v>
       </c>
-      <c r="O16" s="8" t="n">
+      <c r="O16" s="8">
         <v>5</v>
       </c>
-      <c r="P16" s="8" t="n">
+      <c r="P16" s="8">
         <v>10</v>
       </c>
       <c r="Q16" s="9"/>
@@ -1967,64 +2764,68 @@
       <c r="U16" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="V16" s="33" t="n">
-        <f aca="false">AVERAGE(B16:M16)</f>
-        <v>2893.49075</v>
-      </c>
-      <c r="W16" s="33" t="n">
-        <f aca="false">MEDIAN(B16:P16)</f>
+      <c r="V16" s="33">
+        <f>AVERAGE(B16:M16)</f>
+        <v>2893.4907500000022</v>
+      </c>
+      <c r="W16" s="33">
+        <f>MEDIAN(B16:P16)</f>
         <v>1685.07</v>
       </c>
-      <c r="X16" s="33" t="n">
-        <f aca="false">G16</f>
-        <v>7105.11100000001</v>
-      </c>
-      <c r="Y16" s="33" t="n">
-        <f aca="false">H16</f>
-        <v>844.086</v>
+      <c r="X16" s="33">
+        <f>G16</f>
+        <v>7105.1110000000099</v>
+      </c>
+      <c r="Y16" s="33">
+        <f>H16</f>
+        <v>844.08600000000001</v>
       </c>
       <c r="Z16" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="128.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:26" ht="140.25">
       <c r="A17" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9" t="n">
+      <c r="B17" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="9">
         <v>43</v>
       </c>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9" t="n">
+      <c r="D17" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" s="9">
         <v>42</v>
       </c>
-      <c r="F17" s="9" t="n">
+      <c r="F17" s="9">
         <v>27</v>
       </c>
-      <c r="G17" s="9" t="n">
+      <c r="G17" s="9">
         <v>39</v>
       </c>
-      <c r="H17" s="9" t="n">
+      <c r="H17" s="9">
         <v>39</v>
       </c>
-      <c r="I17" s="9" t="n">
+      <c r="I17" s="9">
         <v>44</v>
       </c>
-      <c r="J17" s="9" t="n">
+      <c r="J17" s="9">
         <v>35</v>
       </c>
-      <c r="K17" s="9" t="n">
+      <c r="K17" s="9">
         <v>37</v>
       </c>
-      <c r="L17" s="9" t="n">
+      <c r="L17" s="9">
         <v>37</v>
       </c>
-      <c r="M17" s="9" t="n">
+      <c r="M17" s="9">
         <v>52</v>
       </c>
       <c r="N17" s="9"/>
-      <c r="O17" s="9" t="n">
+      <c r="O17" s="9">
         <v>3</v>
       </c>
       <c r="P17" s="9"/>
@@ -2037,39 +2838,45 @@
       <c r="U17" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="V17" s="33" t="n">
-        <f aca="false">AVERAGE(E17:M17,C17)</f>
+      <c r="V17" s="33">
+        <f>AVERAGE(E17:M17,C17)</f>
         <v>39.5</v>
       </c>
-      <c r="W17" s="33" t="n">
-        <f aca="false">MEDIAN(E17:M17,C17)</f>
+      <c r="W17" s="33">
+        <f>MEDIAN(E17:M17,C17)</f>
         <v>39</v>
       </c>
-      <c r="X17" s="33" t="n">
-        <f aca="false">M17</f>
+      <c r="X17" s="33">
+        <f>M17</f>
         <v>52</v>
       </c>
-      <c r="Y17" s="33" t="n">
-        <f aca="false">F17</f>
+      <c r="Y17" s="33">
+        <f>F17</f>
         <v>27</v>
       </c>
       <c r="Z17" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:26" ht="63.75">
       <c r="A18" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="B18" s="9"/>
+      <c r="B18" s="9" t="s">
+        <v>33</v>
+      </c>
       <c r="C18" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="D18" s="9"/>
+      <c r="D18" s="9" t="s">
+        <v>33</v>
+      </c>
       <c r="E18" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="F18" s="19"/>
+      <c r="F18" s="19" t="s">
+        <v>33</v>
+      </c>
       <c r="G18" s="19" t="s">
         <v>71</v>
       </c>
@@ -2092,7 +2899,7 @@
         <v>76</v>
       </c>
       <c r="N18" s="9"/>
-      <c r="O18" s="9" t="n">
+      <c r="O18" s="9">
         <v>1</v>
       </c>
       <c r="P18" s="9"/>
@@ -2105,34 +2912,38 @@
       <c r="U18" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="V18" s="32" t="n">
-        <f aca="false">(0.476+0.346+0.238+0.095+0.286+0.19+0.238+0.316+0.25)/9</f>
-        <v>0.270555555555556</v>
-      </c>
-      <c r="W18" s="32" t="n">
+      <c r="V18" s="32">
+        <f>(0.476+0.346+0.238+0.095+0.286+0.19+0.238+0.316+0.25)/9</f>
+        <v>0.27055555555555555</v>
+      </c>
+      <c r="W18" s="32">
         <v>0.25</v>
       </c>
       <c r="X18" s="32" t="str">
-        <f aca="false">C18</f>
+        <f>C18</f>
         <v>47.6%</v>
       </c>
       <c r="Y18" s="32" t="str">
-        <f aca="false">H18</f>
+        <f>H18</f>
         <v>9.5%</v>
       </c>
       <c r="Z18" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:26" ht="37.5" customHeight="1" thickBot="1">
       <c r="A19" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="B19" s="9"/>
+      <c r="B19" s="9" t="s">
+        <v>33</v>
+      </c>
       <c r="C19" s="39" t="s">
         <v>78</v>
       </c>
-      <c r="D19" s="39"/>
+      <c r="D19" s="39" t="s">
+        <v>33</v>
+      </c>
       <c r="E19" s="39" t="s">
         <v>79</v>
       </c>
@@ -2161,7 +2972,7 @@
         <v>86</v>
       </c>
       <c r="N19" s="9"/>
-      <c r="O19" s="9" t="n">
+      <c r="O19" s="9">
         <v>1</v>
       </c>
       <c r="P19" s="9"/>
@@ -2174,223 +2985,1336 @@
       <c r="U19" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="V19" s="27" t="n">
-        <f aca="false">(90.2+86.6+82.1+89.1+84.6+87.8+84.4+85.3+87.8+89.5)/10</f>
-        <v>86.74</v>
-      </c>
-      <c r="W19" s="27" t="n">
-        <f aca="false">(86.6+87.8)/2</f>
-        <v>87.2</v>
+      <c r="V19" s="27">
+        <f>(90.2+86.6+82.1+89.1+84.6+87.8+84.4+85.3+87.8+89.5)/10</f>
+        <v>86.739999999999981</v>
+      </c>
+      <c r="W19" s="27">
+        <f>(86.6+87.8)/2</f>
+        <v>87.199999999999989</v>
       </c>
       <c r="X19" s="33" t="str">
-        <f aca="false">C19</f>
+        <f>C19</f>
         <v>90.2</v>
       </c>
       <c r="Y19" s="27" t="str">
-        <f aca="false">F19</f>
+        <f>F19</f>
         <v>82.1</v>
       </c>
       <c r="Z19" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:26" ht="39" thickBot="1">
       <c r="A20" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="B20" s="41">
+        <v>8.5</v>
+      </c>
+      <c r="C20" s="41">
+        <v>8</v>
+      </c>
+      <c r="D20" s="41">
+        <v>8.9</v>
+      </c>
+      <c r="E20" s="41">
+        <v>9</v>
+      </c>
+      <c r="F20" s="41">
+        <v>12.3</v>
+      </c>
+      <c r="G20" s="41">
+        <v>9.9</v>
+      </c>
+      <c r="H20" s="41">
+        <v>10.6</v>
+      </c>
+      <c r="I20" s="41">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="J20" s="41">
+        <v>10.6</v>
+      </c>
+      <c r="K20" s="41">
+        <v>10.1</v>
+      </c>
+      <c r="L20" s="41">
+        <v>8.1</v>
+      </c>
+      <c r="M20" s="41">
+        <v>7.8</v>
+      </c>
+      <c r="N20" s="42">
+        <v>3</v>
+      </c>
+      <c r="O20" s="41">
+        <v>2</v>
+      </c>
+      <c r="P20" s="41">
+        <v>4</v>
+      </c>
+      <c r="Q20" s="41"/>
+      <c r="R20" s="41">
+        <v>1</v>
+      </c>
+      <c r="S20" s="41">
+        <v>1</v>
+      </c>
+      <c r="T20" s="43" t="s">
+        <v>88</v>
+      </c>
+      <c r="U20" s="43" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" ht="26.25" thickBot="1">
+      <c r="A21" s="44" t="s">
+        <v>90</v>
+      </c>
+      <c r="B21" s="45">
+        <v>3.3700000000000001E-2</v>
+      </c>
+      <c r="C21" s="45">
+        <v>3.4299999999999997E-2</v>
+      </c>
+      <c r="D21" s="45">
+        <v>2.8899999999999999E-2</v>
+      </c>
+      <c r="E21" s="45">
+        <v>2.7300000000000001E-2</v>
+      </c>
+      <c r="F21" s="45">
+        <v>1.84E-2</v>
+      </c>
+      <c r="G21" s="45">
+        <v>2.9100000000000001E-2</v>
+      </c>
+      <c r="H21" s="45">
+        <v>2.5399999999999999E-2</v>
+      </c>
+      <c r="I21" s="45">
+        <v>2.9700000000000001E-2</v>
+      </c>
+      <c r="J21" s="45">
+        <v>1.1900000000000001E-2</v>
+      </c>
+      <c r="K21" s="45">
+        <v>1.46E-2</v>
+      </c>
+      <c r="L21" s="45">
+        <v>1.52E-2</v>
+      </c>
+      <c r="M21" s="45">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="N21" s="46">
+        <v>1</v>
+      </c>
+      <c r="O21" s="46">
+        <v>1</v>
+      </c>
+      <c r="P21" s="46">
+        <v>4</v>
+      </c>
+      <c r="Q21" s="47"/>
+      <c r="R21" s="47"/>
+      <c r="S21" s="47"/>
+      <c r="T21" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="U21" s="48" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" ht="102.75" thickBot="1">
+      <c r="A22" s="40" t="s">
+        <v>92</v>
+      </c>
+      <c r="B22" s="49">
+        <v>5.0799999999999998E-2</v>
+      </c>
+      <c r="C22" s="49">
+        <v>5.5100000000000003E-2</v>
+      </c>
+      <c r="D22" s="49">
+        <v>3.4099999999999998E-2</v>
+      </c>
+      <c r="E22" s="49">
+        <v>4.99E-2</v>
+      </c>
+      <c r="F22" s="49">
+        <v>4.0899999999999999E-2</v>
+      </c>
+      <c r="G22" s="49">
+        <v>4.5900000000000003E-2</v>
+      </c>
+      <c r="H22" s="49">
+        <v>4.7199999999999999E-2</v>
+      </c>
+      <c r="I22" s="49">
+        <v>5.9799999999999999E-2</v>
+      </c>
+      <c r="J22" s="49">
+        <v>3.9E-2</v>
+      </c>
+      <c r="K22" s="49">
+        <v>4.4200000000000003E-2</v>
+      </c>
+      <c r="L22" s="49">
+        <v>4.1500000000000002E-2</v>
+      </c>
+      <c r="M22" s="49">
+        <v>4.6699999999999998E-2</v>
+      </c>
+      <c r="N22" s="50">
+        <v>2</v>
+      </c>
+      <c r="O22" s="50">
+        <v>2</v>
+      </c>
+      <c r="P22" s="50">
+        <v>11</v>
+      </c>
+      <c r="Q22" s="50">
+        <v>1</v>
+      </c>
+      <c r="R22" s="52">
+        <v>0</v>
+      </c>
+      <c r="S22" s="53">
+        <v>0</v>
+      </c>
+      <c r="T22" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="U22" s="51" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" ht="115.5" thickBot="1">
+      <c r="A23" s="54" t="s">
+        <v>126</v>
+      </c>
+      <c r="B23" s="55">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="C23" s="56" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23" s="56" t="s">
+        <v>33</v>
+      </c>
+      <c r="E23" s="55">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="F23" s="55">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="G23" s="55">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="H23" s="55">
+        <v>0.152</v>
+      </c>
+      <c r="I23" s="55">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="J23" s="55">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="K23" s="55">
+        <v>-0.1</v>
+      </c>
+      <c r="L23" s="55">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="M23" s="55">
+        <v>0.188</v>
+      </c>
+      <c r="N23" s="62">
+        <v>4</v>
+      </c>
+      <c r="O23" s="63"/>
+      <c r="P23" s="64"/>
+      <c r="Q23" s="118"/>
+      <c r="R23" s="119"/>
+      <c r="S23" s="120"/>
+      <c r="T23" s="57" t="s">
+        <v>93</v>
+      </c>
+      <c r="U23" s="57" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" ht="141" thickBot="1">
+      <c r="A24" s="58" t="s">
+        <v>68</v>
+      </c>
+      <c r="B24" s="59" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="59">
+        <v>43</v>
+      </c>
+      <c r="D24" s="59" t="s">
+        <v>33</v>
+      </c>
+      <c r="E24" s="59">
+        <v>42</v>
+      </c>
+      <c r="F24" s="59">
+        <v>27</v>
+      </c>
+      <c r="G24" s="59">
+        <v>39</v>
+      </c>
+      <c r="H24" s="59">
+        <v>39</v>
+      </c>
+      <c r="I24" s="59">
+        <v>44</v>
+      </c>
+      <c r="J24" s="59">
+        <v>35</v>
+      </c>
+      <c r="K24" s="59">
+        <v>37</v>
+      </c>
+      <c r="L24" s="59">
+        <v>37</v>
+      </c>
+      <c r="M24" s="59">
+        <v>52</v>
+      </c>
+      <c r="N24" s="59"/>
+      <c r="O24" s="59">
+        <v>3</v>
+      </c>
+      <c r="P24" s="59"/>
+      <c r="Q24" s="60"/>
+      <c r="R24" s="60"/>
+      <c r="S24" s="60"/>
+      <c r="T24" s="60"/>
+      <c r="U24" s="60"/>
+    </row>
+    <row r="25" spans="1:26" ht="39" thickBot="1">
+      <c r="A25" s="61" t="s">
+        <v>94</v>
+      </c>
+      <c r="B25" s="61" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" s="61" t="s">
+        <v>95</v>
+      </c>
+      <c r="D25" s="61" t="s">
+        <v>96</v>
+      </c>
+      <c r="E25" s="61" t="s">
+        <v>97</v>
+      </c>
+      <c r="F25" s="61" t="s">
+        <v>98</v>
+      </c>
+      <c r="G25" s="61" t="s">
+        <v>99</v>
+      </c>
+      <c r="H25" s="61" t="s">
+        <v>100</v>
+      </c>
+      <c r="I25" s="61" t="s">
+        <v>101</v>
+      </c>
+      <c r="J25" s="61" t="s">
+        <v>102</v>
+      </c>
+      <c r="K25" s="61" t="s">
+        <v>103</v>
+      </c>
+      <c r="L25" s="61" t="s">
+        <v>104</v>
+      </c>
+      <c r="M25" s="61" t="s">
+        <v>105</v>
+      </c>
+      <c r="N25" s="61"/>
+      <c r="O25" s="61">
+        <v>4</v>
+      </c>
+      <c r="P25" s="61">
+        <v>7</v>
+      </c>
+      <c r="Q25" s="61"/>
+      <c r="R25" s="61">
+        <v>1</v>
+      </c>
+      <c r="S25" s="61">
+        <v>1</v>
+      </c>
+      <c r="T25" s="61" t="s">
+        <v>106</v>
+      </c>
+      <c r="U25" s="61" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" ht="77.25" thickBot="1">
+      <c r="A26" s="65" t="s">
+        <v>108</v>
+      </c>
+      <c r="B26" s="66" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" s="66">
+        <v>24</v>
+      </c>
+      <c r="D26" s="66" t="s">
+        <v>33</v>
+      </c>
+      <c r="E26" s="66">
+        <v>38</v>
+      </c>
+      <c r="F26" s="66">
+        <v>24</v>
+      </c>
+      <c r="G26" s="66">
+        <v>27</v>
+      </c>
+      <c r="H26" s="66">
+        <v>16</v>
+      </c>
+      <c r="I26" s="66">
         <v>21</v>
       </c>
-      <c r="B20" s="41"/>
-      <c r="C20" s="41"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="41"/>
-      <c r="F20" s="41"/>
-      <c r="G20" s="41"/>
-      <c r="H20" s="41"/>
-      <c r="I20" s="41"/>
-      <c r="J20" s="41"/>
-      <c r="K20" s="41"/>
-      <c r="L20" s="41"/>
-      <c r="M20" s="41"/>
-      <c r="N20" s="42" t="n">
-        <f aca="false">AVERAGE(N16,N13,N12,N11,N10,N9,N8,N6)</f>
-        <v>5.125</v>
-      </c>
-      <c r="O20" s="42" t="n">
-        <f aca="false">AVERAGE(O2:O19)</f>
-        <v>4.22222222222222</v>
-      </c>
-      <c r="P20" s="42" t="n">
-        <f aca="false">AVERAGE(P16,P8:P14,P5:P6,P2)</f>
-        <v>6.90909090909091</v>
-      </c>
-      <c r="Q20" s="42" t="n">
-        <f aca="false">AVERAGE(Q12,Q8:Q10,Q3:Q4)</f>
-        <v>0.166666666666667</v>
-      </c>
-      <c r="R20" s="42" t="n">
-        <f aca="false">AVERAGE(R14,R12,R10,R9,R8,R2:R5)</f>
-        <v>-0.111111111111111</v>
-      </c>
-      <c r="S20" s="42" t="n">
-        <f aca="false">AVERAGE(S14,S12,S8:S10,S2:S5)</f>
-        <v>0.333333333333333</v>
-      </c>
-      <c r="T20" s="41"/>
-      <c r="U20" s="41"/>
-      <c r="V20" s="41"/>
-      <c r="W20" s="41"/>
-      <c r="X20" s="41"/>
-      <c r="Y20" s="41"/>
+      <c r="J26" s="66">
+        <v>24</v>
+      </c>
+      <c r="K26" s="66">
+        <v>18</v>
+      </c>
+      <c r="L26" s="66">
+        <v>11</v>
+      </c>
+      <c r="M26" s="66">
+        <v>7</v>
+      </c>
+      <c r="N26" s="67"/>
+      <c r="O26" s="66">
+        <v>3</v>
+      </c>
+      <c r="P26" s="66"/>
+      <c r="Q26" s="66"/>
+      <c r="R26" s="66">
+        <v>1</v>
+      </c>
+      <c r="S26" s="66"/>
+      <c r="T26" s="68" t="s">
+        <v>27</v>
+      </c>
+      <c r="U26" s="68" t="s">
+        <v>109</v>
+      </c>
     </row>
-    <row r="21" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" s="41"/>
-      <c r="C21" s="41"/>
-      <c r="D21" s="41"/>
-      <c r="E21" s="41"/>
-      <c r="F21" s="41"/>
-      <c r="G21" s="41"/>
-      <c r="H21" s="41"/>
-      <c r="I21" s="41"/>
-      <c r="J21" s="41"/>
-      <c r="K21" s="41"/>
-      <c r="L21" s="41"/>
-      <c r="M21" s="41"/>
-      <c r="N21" s="42" t="n">
-        <f aca="false">MEDIAN(N16,N8:N13,N6)</f>
-        <v>6</v>
-      </c>
-      <c r="O21" s="42" t="n">
-        <f aca="false">MEDIAN(O2:O19)</f>
-        <v>3.5</v>
-      </c>
-      <c r="P21" s="42" t="n">
-        <f aca="false">MEDIAN(P16,P8:P14,P5:P6,P2)</f>
-        <v>9</v>
-      </c>
-      <c r="Q21" s="42" t="n">
-        <f aca="false">MEDIAN(Q12,Q8:Q10,Q3:Q4)</f>
+    <row r="27" spans="1:26" ht="115.5" thickBot="1">
+      <c r="A27" s="69" t="s">
+        <v>110</v>
+      </c>
+      <c r="B27" s="70">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="C27" s="70">
+        <v>0.1</v>
+      </c>
+      <c r="D27" s="70">
+        <v>3.9E-2</v>
+      </c>
+      <c r="E27" s="70">
+        <v>7.8E-2</v>
+      </c>
+      <c r="F27" s="70">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="G27" s="70">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="H27" s="70">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="I27" s="70">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="J27" s="70">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="K27" s="70">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="L27" s="70">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="M27" s="70">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="N27" s="71">
+        <v>5</v>
+      </c>
+      <c r="O27" s="71">
+        <v>3</v>
+      </c>
+      <c r="P27" s="71">
+        <v>11</v>
+      </c>
+      <c r="Q27" s="71">
+        <v>-1</v>
+      </c>
+      <c r="R27" s="73">
         <v>0</v>
       </c>
-      <c r="R21" s="42" t="n">
-        <f aca="false">MEDIAN(R14,R12,R10,R9,R8,R2:R5)</f>
+      <c r="S27" s="74"/>
+      <c r="T27" s="71" t="s">
+        <v>46</v>
+      </c>
+      <c r="U27" s="71" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" ht="90" thickBot="1">
+      <c r="A28" s="69" t="s">
+        <v>112</v>
+      </c>
+      <c r="B28" s="70">
+        <v>2.5600000000000001E-2</v>
+      </c>
+      <c r="C28" s="70">
+        <v>3.0800000000000001E-2</v>
+      </c>
+      <c r="D28" s="70">
+        <v>-2.9399999999999999E-2</v>
+      </c>
+      <c r="E28" s="70">
+        <v>1.2200000000000001E-2</v>
+      </c>
+      <c r="F28" s="70">
+        <v>6.1000000000000004E-3</v>
+      </c>
+      <c r="G28" s="70">
+        <v>1.7600000000000001E-2</v>
+      </c>
+      <c r="H28" s="70">
+        <v>2.3999999999999998E-3</v>
+      </c>
+      <c r="I28" s="70">
+        <v>1.21E-2</v>
+      </c>
+      <c r="J28" s="70">
+        <v>1.5100000000000001E-2</v>
+      </c>
+      <c r="K28" s="70">
+        <v>-7.0000000000000001E-3</v>
+      </c>
+      <c r="L28" s="70">
+        <v>-5.9999999999999995E-4</v>
+      </c>
+      <c r="M28" s="70">
+        <v>1.6199999999999999E-2</v>
+      </c>
+      <c r="N28" s="71">
+        <v>1</v>
+      </c>
+      <c r="O28" s="71">
+        <v>1</v>
+      </c>
+      <c r="P28" s="71">
+        <v>11</v>
+      </c>
+      <c r="Q28" s="72"/>
+      <c r="R28" s="72"/>
+      <c r="S28" s="72"/>
+      <c r="T28" s="71" t="s">
+        <v>46</v>
+      </c>
+      <c r="U28" s="71" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" ht="51.75" thickBot="1">
+      <c r="A29" s="75" t="s">
+        <v>113</v>
+      </c>
+      <c r="B29" s="76">
+        <v>0.23300000000000001</v>
+      </c>
+      <c r="C29" s="76">
+        <v>0.224</v>
+      </c>
+      <c r="D29" s="76">
+        <v>0.26700000000000002</v>
+      </c>
+      <c r="E29" s="76">
+        <v>0.27900000000000003</v>
+      </c>
+      <c r="F29" s="76">
+        <v>0.318</v>
+      </c>
+      <c r="G29" s="76">
+        <v>0.22800000000000001</v>
+      </c>
+      <c r="H29" s="76">
+        <v>0.312</v>
+      </c>
+      <c r="I29" s="76">
+        <v>0.251</v>
+      </c>
+      <c r="J29" s="76">
+        <v>0.314</v>
+      </c>
+      <c r="K29" s="76">
+        <v>0.251</v>
+      </c>
+      <c r="L29" s="76">
+        <v>0.26</v>
+      </c>
+      <c r="M29" s="76">
+        <v>0.24299999999999999</v>
+      </c>
+      <c r="N29" s="77">
+        <v>2</v>
+      </c>
+      <c r="O29" s="77">
+        <v>1</v>
+      </c>
+      <c r="P29" s="77">
+        <v>7</v>
+      </c>
+      <c r="Q29" s="90">
         <v>0</v>
       </c>
-      <c r="S21" s="42" t="n">
-        <f aca="false">MEDIAN(S14,S12,S8:S10,S2:S5)</f>
+      <c r="R29" s="91">
         <v>0</v>
       </c>
-      <c r="T21" s="41"/>
-      <c r="U21" s="41"/>
-      <c r="V21" s="41"/>
-      <c r="W21" s="41"/>
-      <c r="X21" s="41"/>
-      <c r="Y21" s="41"/>
+      <c r="S29" s="92">
+        <v>0</v>
+      </c>
+      <c r="T29" s="78" t="s">
+        <v>46</v>
+      </c>
+      <c r="U29" s="78" t="s">
+        <v>91</v>
+      </c>
+      <c r="V29" s="78"/>
+      <c r="W29" s="78"/>
+      <c r="X29" s="78"/>
+      <c r="Y29" s="78"/>
     </row>
-    <row r="22" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" s="41"/>
-      <c r="C22" s="41"/>
-      <c r="D22" s="41"/>
-      <c r="E22" s="41"/>
-      <c r="F22" s="41"/>
-      <c r="G22" s="41"/>
-      <c r="H22" s="41"/>
-      <c r="I22" s="41"/>
-      <c r="J22" s="41"/>
-      <c r="K22" s="41"/>
-      <c r="L22" s="41"/>
-      <c r="M22" s="41"/>
-      <c r="N22" s="42" t="n">
-        <f aca="false">MIN(N16,N8:N13,N6)</f>
+    <row r="30" spans="1:26" ht="51.75" thickBot="1">
+      <c r="A30" s="79" t="s">
+        <v>113</v>
+      </c>
+      <c r="B30" s="80">
+        <v>-2.01E-2</v>
+      </c>
+      <c r="C30" s="80">
+        <v>-1.9900000000000001E-2</v>
+      </c>
+      <c r="D30" s="80">
+        <v>-2.06E-2</v>
+      </c>
+      <c r="E30" s="80">
+        <v>-1.67E-2</v>
+      </c>
+      <c r="F30" s="80">
+        <v>-1.9199999999999998E-2</v>
+      </c>
+      <c r="G30" s="80">
+        <v>-1.7500000000000002E-2</v>
+      </c>
+      <c r="H30" s="80">
+        <v>-2.3400000000000001E-2</v>
+      </c>
+      <c r="I30" s="80">
+        <v>-1.6899999999999998E-2</v>
+      </c>
+      <c r="J30" s="80">
+        <v>-2.1499999999999998E-2</v>
+      </c>
+      <c r="K30" s="80">
+        <v>-1.6899999999999998E-2</v>
+      </c>
+      <c r="L30" s="80">
+        <v>-2.23E-2</v>
+      </c>
+      <c r="M30" s="80">
+        <v>-1.78E-2</v>
+      </c>
+      <c r="N30" s="81">
+        <v>4</v>
+      </c>
+      <c r="O30" s="81">
+        <v>5</v>
+      </c>
+      <c r="P30" s="82">
+        <v>4</v>
+      </c>
+      <c r="Q30" s="83"/>
+      <c r="R30" s="83"/>
+      <c r="S30" s="83"/>
+      <c r="T30" s="84" t="s">
+        <v>46</v>
+      </c>
+      <c r="U30" s="84" t="s">
+        <v>91</v>
+      </c>
+      <c r="V30" s="85"/>
+      <c r="W30" s="85"/>
+      <c r="X30" s="85"/>
+      <c r="Y30" s="85"/>
+    </row>
+    <row r="31" spans="1:26" ht="51.75" thickBot="1">
+      <c r="A31" s="86" t="s">
+        <v>114</v>
+      </c>
+      <c r="B31" s="87">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="C31" s="88" t="s">
+        <v>33</v>
+      </c>
+      <c r="D31" s="89" t="s">
+        <v>33</v>
+      </c>
+      <c r="E31" s="87">
+        <v>0.90500000000000003</v>
+      </c>
+      <c r="F31" s="87">
+        <v>0.89700000000000002</v>
+      </c>
+      <c r="G31" s="87">
+        <v>0.92100000000000004</v>
+      </c>
+      <c r="H31" s="87">
+        <v>0.89100000000000001</v>
+      </c>
+      <c r="I31" s="87">
+        <v>0.91200000000000003</v>
+      </c>
+      <c r="J31" s="87">
+        <v>0.89900000000000002</v>
+      </c>
+      <c r="K31" s="87">
+        <v>0.93100000000000005</v>
+      </c>
+      <c r="L31" s="87">
+        <v>0.93100000000000005</v>
+      </c>
+      <c r="M31" s="87">
+        <v>0.94199999999999995</v>
+      </c>
+      <c r="N31" s="90">
+        <v>4</v>
+      </c>
+      <c r="O31" s="91">
+        <v>4</v>
+      </c>
+      <c r="P31" s="92">
+        <v>4</v>
+      </c>
+      <c r="Q31" s="90">
+        <v>-1</v>
+      </c>
+      <c r="R31" s="91">
+        <v>-1</v>
+      </c>
+      <c r="S31" s="92">
+        <v>-1</v>
+      </c>
+      <c r="T31" s="88" t="s">
+        <v>115</v>
+      </c>
+      <c r="U31" s="88" t="s">
+        <v>116</v>
+      </c>
+      <c r="V31" s="88"/>
+      <c r="W31" s="88"/>
+      <c r="X31" s="88"/>
+      <c r="Y31" s="88"/>
+    </row>
+    <row r="32" spans="1:26" ht="64.5" thickBot="1">
+      <c r="A32" s="93" t="s">
+        <v>117</v>
+      </c>
+      <c r="B32" s="94">
+        <v>3820</v>
+      </c>
+      <c r="C32" s="94">
+        <v>1043</v>
+      </c>
+      <c r="D32" s="94">
+        <v>2777</v>
+      </c>
+      <c r="E32" s="95">
+        <v>10</v>
+      </c>
+      <c r="F32" s="95">
+        <v>302</v>
+      </c>
+      <c r="G32" s="95">
+        <v>57</v>
+      </c>
+      <c r="H32" s="95">
+        <v>61</v>
+      </c>
+      <c r="I32" s="95">
+        <v>603</v>
+      </c>
+      <c r="J32" s="95">
+        <v>512</v>
+      </c>
+      <c r="K32" s="95">
+        <v>11</v>
+      </c>
+      <c r="L32" s="95">
+        <v>10</v>
+      </c>
+      <c r="M32" s="95">
+        <v>0</v>
+      </c>
+      <c r="N32" s="95">
+        <v>1</v>
+      </c>
+      <c r="O32" s="95">
         <v>2</v>
       </c>
-      <c r="O22" s="42" t="n">
-        <f aca="false">MIN(O2:O19)</f>
+      <c r="P32" s="95">
         <v>1</v>
       </c>
-      <c r="P22" s="42" t="n">
-        <f aca="false">MIN(P16,P8:P14,P5:P6,P2)</f>
+      <c r="Q32" s="103">
+        <v>0</v>
+      </c>
+      <c r="R32" s="104">
+        <v>0</v>
+      </c>
+      <c r="S32" s="105">
+        <v>0</v>
+      </c>
+      <c r="T32" s="95" t="s">
+        <v>46</v>
+      </c>
+      <c r="U32" s="95" t="s">
+        <v>111</v>
+      </c>
+      <c r="V32" s="96"/>
+      <c r="W32" s="96"/>
+      <c r="X32" s="96"/>
+      <c r="Y32" s="96"/>
+    </row>
+    <row r="33" spans="1:25" ht="51.75" thickBot="1">
+      <c r="A33" s="93" t="s">
+        <v>118</v>
+      </c>
+      <c r="B33" s="97">
+        <v>2.3E-2</v>
+      </c>
+      <c r="C33" s="97">
+        <v>4.7E-2</v>
+      </c>
+      <c r="D33" s="97">
+        <v>1.47E-2</v>
+      </c>
+      <c r="E33" s="95" t="s">
+        <v>33</v>
+      </c>
+      <c r="F33" s="97">
+        <v>3.44E-2</v>
+      </c>
+      <c r="G33" s="97">
+        <v>-0.15709999999999999</v>
+      </c>
+      <c r="H33" s="97">
+        <v>3.2399999999999998E-2</v>
+      </c>
+      <c r="I33" s="97">
+        <v>2.7000000000000001E-3</v>
+      </c>
+      <c r="J33" s="97">
+        <v>-4.0000000000000002E-4</v>
+      </c>
+      <c r="K33" s="95" t="s">
+        <v>33</v>
+      </c>
+      <c r="L33" s="95" t="s">
+        <v>33</v>
+      </c>
+      <c r="M33" s="95" t="s">
+        <v>33</v>
+      </c>
+      <c r="N33" s="95">
+        <v>3</v>
+      </c>
+      <c r="O33" s="95">
         <v>1</v>
       </c>
-      <c r="Q22" s="42" t="n">
-        <f aca="false">MIN(Q12,Q8:Q10,Q3:Q4)</f>
+      <c r="P33" s="95">
+        <v>3</v>
+      </c>
+      <c r="Q33" s="98"/>
+      <c r="R33" s="98"/>
+      <c r="S33" s="98"/>
+      <c r="T33" s="95" t="s">
+        <v>46</v>
+      </c>
+      <c r="U33" s="95" t="s">
+        <v>111</v>
+      </c>
+      <c r="V33" s="96"/>
+      <c r="W33" s="96"/>
+      <c r="X33" s="96"/>
+      <c r="Y33" s="96"/>
+    </row>
+    <row r="34" spans="1:25" ht="64.5" thickBot="1">
+      <c r="A34" s="93" t="s">
+        <v>119</v>
+      </c>
+      <c r="B34" s="94">
+        <v>7374</v>
+      </c>
+      <c r="C34" s="94">
+        <v>2665</v>
+      </c>
+      <c r="D34" s="94">
+        <v>4709</v>
+      </c>
+      <c r="E34" s="95">
+        <v>428</v>
+      </c>
+      <c r="F34" s="94">
+        <v>10124</v>
+      </c>
+      <c r="G34" s="94">
+        <v>33739</v>
+      </c>
+      <c r="H34" s="95">
+        <v>297</v>
+      </c>
+      <c r="I34" s="94">
+        <v>6637</v>
+      </c>
+      <c r="J34" s="94">
+        <v>2086</v>
+      </c>
+      <c r="K34" s="94">
+        <v>1015</v>
+      </c>
+      <c r="L34" s="95">
+        <v>21</v>
+      </c>
+      <c r="M34" s="95">
+        <v>4</v>
+      </c>
+      <c r="N34" s="95">
+        <v>3</v>
+      </c>
+      <c r="O34" s="95">
+        <v>5</v>
+      </c>
+      <c r="P34" s="95">
+        <v>4</v>
+      </c>
+      <c r="Q34" s="103">
         <v>0</v>
       </c>
-      <c r="R22" s="42" t="n">
-        <f aca="false">MIN(R14,R12,R10,R9,R8,R2:R5)</f>
-        <v>-1</v>
-      </c>
-      <c r="S22" s="42" t="n">
-        <f aca="false">MIN(S14,S12,S8:S10,S2:S5)</f>
+      <c r="R34" s="104">
         <v>0</v>
       </c>
-      <c r="T22" s="41"/>
-      <c r="U22" s="41"/>
-      <c r="V22" s="41"/>
-      <c r="W22" s="41"/>
-      <c r="X22" s="41"/>
-      <c r="Y22" s="41"/>
+      <c r="S34" s="105">
+        <v>0</v>
+      </c>
+      <c r="T34" s="95" t="s">
+        <v>46</v>
+      </c>
+      <c r="U34" s="95" t="s">
+        <v>111</v>
+      </c>
+      <c r="V34" s="96"/>
+      <c r="W34" s="96"/>
+      <c r="X34" s="96"/>
+      <c r="Y34" s="96"/>
     </row>
-    <row r="23" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="40" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" s="41"/>
-      <c r="C23" s="41" t="s">
-        <v>87</v>
-      </c>
-      <c r="D23" s="41"/>
-      <c r="E23" s="41"/>
-      <c r="F23" s="41"/>
-      <c r="G23" s="41"/>
-      <c r="H23" s="41"/>
-      <c r="I23" s="41"/>
-      <c r="J23" s="41"/>
-      <c r="K23" s="41"/>
-      <c r="L23" s="41"/>
-      <c r="M23" s="41"/>
-      <c r="N23" s="42" t="n">
-        <f aca="false">MAX(N16,N8:N13,N6)</f>
-        <v>8</v>
-      </c>
-      <c r="O23" s="42" t="n">
-        <f aca="false">MAX(O2:O19)</f>
-        <v>8</v>
-      </c>
-      <c r="P23" s="42" t="n">
-        <f aca="false">MAX(P16,P8:P14,P5:P6,P2)</f>
+    <row r="35" spans="1:25" ht="51.75" thickBot="1">
+      <c r="A35" s="99" t="s">
+        <v>118</v>
+      </c>
+      <c r="B35" s="100">
+        <v>4.8500000000000001E-2</v>
+      </c>
+      <c r="C35" s="100">
+        <v>3.2199999999999999E-2</v>
+      </c>
+      <c r="D35" s="100">
+        <v>5.8400000000000001E-2</v>
+      </c>
+      <c r="E35" s="100">
+        <v>1.6199999999999999E-2</v>
+      </c>
+      <c r="F35" s="100">
+        <v>2.2800000000000001E-2</v>
+      </c>
+      <c r="G35" s="100">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="H35" s="100">
+        <v>1.1900000000000001E-2</v>
+      </c>
+      <c r="I35" s="100">
+        <v>1.77E-2</v>
+      </c>
+      <c r="J35" s="100">
+        <v>-4.7000000000000002E-3</v>
+      </c>
+      <c r="K35" s="100">
+        <v>1E-3</v>
+      </c>
+      <c r="L35" s="100">
+        <v>0.2457</v>
+      </c>
+      <c r="M35" s="100">
+        <v>5.9200000000000003E-2</v>
+      </c>
+      <c r="N35" s="101">
+        <v>3</v>
+      </c>
+      <c r="O35" s="101">
+        <v>5</v>
+      </c>
+      <c r="P35" s="101">
+        <v>3</v>
+      </c>
+      <c r="Q35" s="102"/>
+      <c r="R35" s="102"/>
+      <c r="S35" s="102"/>
+      <c r="T35" s="101" t="s">
+        <v>46</v>
+      </c>
+      <c r="U35" s="101" t="s">
+        <v>111</v>
+      </c>
+      <c r="V35" s="102"/>
+      <c r="W35" s="102"/>
+      <c r="X35" s="102"/>
+      <c r="Y35" s="102"/>
+    </row>
+    <row r="36" spans="1:25" ht="77.25" thickBot="1">
+      <c r="A36" s="106" t="s">
+        <v>120</v>
+      </c>
+      <c r="B36" s="107">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="C36" s="107">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="D36" s="107">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="E36" s="107">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="F36" s="107">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="G36" s="107">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="H36" s="107">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="I36" s="107">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="J36" s="107">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="K36" s="107">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="L36" s="107">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="M36" s="107">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="N36" s="108">
+        <v>4</v>
+      </c>
+      <c r="O36" s="108">
+        <v>2</v>
+      </c>
+      <c r="P36" s="108">
         <v>11</v>
       </c>
-      <c r="Q23" s="42" t="n">
-        <f aca="false">MAX(Q12,Q8:Q10,Q3:Q4)</f>
+      <c r="Q36" s="115">
+        <v>0</v>
+      </c>
+      <c r="R36" s="116">
+        <v>0</v>
+      </c>
+      <c r="S36" s="117">
+        <v>0</v>
+      </c>
+      <c r="T36" s="108" t="s">
+        <v>121</v>
+      </c>
+      <c r="U36" s="109" t="s">
+        <v>122</v>
+      </c>
+      <c r="V36" s="110"/>
+      <c r="W36" s="110"/>
+      <c r="X36" s="110"/>
+      <c r="Y36" s="110"/>
+    </row>
+    <row r="37" spans="1:25" ht="102.75" thickBot="1">
+      <c r="A37" s="106" t="s">
+        <v>123</v>
+      </c>
+      <c r="B37" s="107">
+        <v>3.6799999999999999E-2</v>
+      </c>
+      <c r="C37" s="107">
+        <v>3.8600000000000002E-2</v>
+      </c>
+      <c r="D37" s="107">
+        <v>-2.1399999999999999E-2</v>
+      </c>
+      <c r="E37" s="107">
+        <v>2.4299999999999999E-2</v>
+      </c>
+      <c r="F37" s="107">
+        <v>6.7000000000000002E-3</v>
+      </c>
+      <c r="G37" s="107">
+        <v>2.01E-2</v>
+      </c>
+      <c r="H37" s="107">
+        <v>4.0899999999999999E-2</v>
+      </c>
+      <c r="I37" s="107">
+        <v>1.8100000000000002E-2</v>
+      </c>
+      <c r="J37" s="107">
+        <v>2.63E-2</v>
+      </c>
+      <c r="K37" s="107">
+        <v>1.61E-2</v>
+      </c>
+      <c r="L37" s="107">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="M37" s="107">
+        <v>3.0800000000000001E-2</v>
+      </c>
+      <c r="N37" s="108">
+        <v>2</v>
+      </c>
+      <c r="O37" s="108">
+        <v>2</v>
+      </c>
+      <c r="P37" s="108">
+        <v>11</v>
+      </c>
+      <c r="Q37" s="110"/>
+      <c r="R37" s="110"/>
+      <c r="S37" s="110"/>
+      <c r="T37" s="108" t="s">
+        <v>121</v>
+      </c>
+      <c r="U37" s="109" t="s">
+        <v>122</v>
+      </c>
+      <c r="V37" s="110"/>
+      <c r="W37" s="110"/>
+      <c r="X37" s="110"/>
+      <c r="Y37" s="110"/>
+    </row>
+    <row r="38" spans="1:25" ht="90" thickBot="1">
+      <c r="A38" s="106" t="s">
+        <v>124</v>
+      </c>
+      <c r="B38" s="107">
+        <v>3.0099999999999998E-2</v>
+      </c>
+      <c r="C38" s="107">
+        <v>3.2800000000000003E-2</v>
+      </c>
+      <c r="D38" s="107">
+        <v>5.7000000000000002E-3</v>
+      </c>
+      <c r="E38" s="107">
+        <v>1.83E-2</v>
+      </c>
+      <c r="F38" s="107">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="G38" s="107">
+        <v>2.2599999999999999E-2</v>
+      </c>
+      <c r="H38" s="107">
+        <v>2.4799999999999999E-2</v>
+      </c>
+      <c r="I38" s="107">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="J38" s="107">
+        <v>8.8000000000000005E-3</v>
+      </c>
+      <c r="K38" s="107">
+        <v>1.09E-2</v>
+      </c>
+      <c r="L38" s="107">
+        <v>1.04E-2</v>
+      </c>
+      <c r="M38" s="107">
+        <v>0.02</v>
+      </c>
+      <c r="N38" s="108">
         <v>1</v>
       </c>
-      <c r="R23" s="42" t="n">
-        <f aca="false">MAX(R14,R12,R10,R9,R8,R2:R5)</f>
-        <v>0</v>
-      </c>
-      <c r="S23" s="42" t="n">
-        <f aca="false">MAX(S14,S12,S8:S10,S2:S5)</f>
+      <c r="O38" s="108">
         <v>1</v>
       </c>
-      <c r="T23" s="41"/>
-      <c r="U23" s="41"/>
-      <c r="V23" s="41"/>
-      <c r="W23" s="41"/>
-      <c r="X23" s="41"/>
-      <c r="Y23" s="41"/>
+      <c r="P38" s="108">
+        <v>11</v>
+      </c>
+      <c r="Q38" s="110"/>
+      <c r="R38" s="110"/>
+      <c r="S38" s="110"/>
+      <c r="T38" s="108" t="s">
+        <v>46</v>
+      </c>
+      <c r="U38" s="108" t="s">
+        <v>37</v>
+      </c>
+      <c r="V38" s="110"/>
+      <c r="W38" s="110"/>
+      <c r="X38" s="110"/>
+      <c r="Y38" s="110"/>
+    </row>
+    <row r="39" spans="1:25" ht="77.25" thickBot="1">
+      <c r="A39" s="111" t="s">
+        <v>30</v>
+      </c>
+      <c r="B39" s="112" t="s">
+        <v>33</v>
+      </c>
+      <c r="C39" s="112">
+        <v>10.7</v>
+      </c>
+      <c r="D39" s="112" t="s">
+        <v>33</v>
+      </c>
+      <c r="E39" s="112">
+        <v>11.1</v>
+      </c>
+      <c r="F39" s="112">
+        <v>11.8</v>
+      </c>
+      <c r="G39" s="112">
+        <v>10.5</v>
+      </c>
+      <c r="H39" s="112">
+        <v>11.1</v>
+      </c>
+      <c r="I39" s="112">
+        <v>11.1</v>
+      </c>
+      <c r="J39" s="112">
+        <v>13.5</v>
+      </c>
+      <c r="K39" s="112">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="L39" s="112" t="s">
+        <v>33</v>
+      </c>
+      <c r="M39" s="112">
+        <v>10.4</v>
+      </c>
+      <c r="N39" s="112"/>
+      <c r="O39" s="112">
+        <v>4</v>
+      </c>
+      <c r="P39" s="112"/>
+      <c r="Q39" s="113"/>
+      <c r="R39" s="113"/>
+      <c r="S39" s="113"/>
+      <c r="T39" s="113"/>
+      <c r="U39" s="113"/>
+      <c r="V39" s="113"/>
+      <c r="W39" s="113"/>
+      <c r="X39" s="113"/>
+      <c r="Y39" s="113"/>
+    </row>
+    <row r="40" spans="1:25" ht="90" thickBot="1">
+      <c r="A40" s="111" t="s">
+        <v>125</v>
+      </c>
+      <c r="B40" s="114">
+        <v>0.82</v>
+      </c>
+      <c r="C40" s="114">
+        <v>0.81</v>
+      </c>
+      <c r="D40" s="114">
+        <v>0.83</v>
+      </c>
+      <c r="E40" s="114">
+        <v>0.67</v>
+      </c>
+      <c r="F40" s="112" t="s">
+        <v>33</v>
+      </c>
+      <c r="G40" s="114">
+        <v>0.78</v>
+      </c>
+      <c r="H40" s="114">
+        <v>0.74</v>
+      </c>
+      <c r="I40" s="114">
+        <v>0.76</v>
+      </c>
+      <c r="J40" s="114">
+        <v>0.54</v>
+      </c>
+      <c r="K40" s="114">
+        <v>0.71</v>
+      </c>
+      <c r="L40" s="114">
+        <v>0.63</v>
+      </c>
+      <c r="M40" s="114">
+        <v>0.75</v>
+      </c>
+      <c r="N40" s="112"/>
+      <c r="O40" s="112">
+        <v>2</v>
+      </c>
+      <c r="P40" s="112">
+        <v>1</v>
+      </c>
+      <c r="Q40" s="113"/>
+      <c r="R40" s="113"/>
+      <c r="S40" s="113"/>
+      <c r="T40" s="113"/>
+      <c r="U40" s="113"/>
+      <c r="V40" s="113"/>
+      <c r="W40" s="113"/>
+      <c r="X40" s="113"/>
+      <c r="Y40" s="113"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <mergeCells count="1">
+    <mergeCell ref="Q23:S23"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
--- a/nantes-st-nazaire-dev/actifs.xlsx
+++ b/nantes-st-nazaire-dev/actifs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="126">
   <si>
     <t>Indicateur</t>
   </si>
@@ -113,9 +113,6 @@
   </si>
   <si>
     <t>Nombre d'années de revenus nécessaires pour l'achat d'un T3 dans l'ancien en 2013 (* 2015 pour Lyon et Bordeaux)</t>
-  </si>
-  <si>
-    <t>null</t>
   </si>
   <si>
     <t>Observ'agglo</t>
@@ -405,7 +402,7 @@
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="17">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -416,56 +413,6 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <name val="Klavika light"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Klavika light"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <name val="Klavika light"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <name val="Klavika light"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Klavika light"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Klavika light plain"/>
     </font>
     <font>
       <i/>
@@ -485,12 +432,13 @@
       <name val="Klavika light"/>
     </font>
     <font>
+      <i/>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Klavika light"/>
+      <name val="Klavika light plain"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -498,13 +446,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <color theme="1"/>
+      <name val="Klavika light"/>
     </font>
     <font>
+      <i/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -513,23 +461,51 @@
     </font>
     <font>
       <i/>
-      <sz val="10"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Klavika light plain"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="10"/>
-      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
       <name val="Klavika light"/>
     </font>
     <font>
       <i/>
-      <sz val="10"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="15"/>
+      <name val="Klavika light"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Klavika light"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="15">
@@ -782,352 +758,335 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="14" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="1" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="9" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="9" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="13" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="9" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="9" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="16" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="6" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="18" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="13" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="18" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="16" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="16" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="16" fillId="10" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="16" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="16" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="16" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="16" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="16" fillId="13" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="19" fillId="14" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="14" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1495,1930 +1454,1931 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AMK40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection activeCell="A7" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1025" width="10.7109375" style="1"/>
+    <col min="1" max="1025" width="10.7109375" style="14"/>
+    <col min="1026" max="16384" width="9.140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="47.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:26" ht="45">
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="S1" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="T1" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="U1" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="V1" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="5" t="s">
+      <c r="W1" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="5" t="s">
+      <c r="X1" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="5" t="s">
+      <c r="Y1" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="6" t="s">
+      <c r="Z1" s="20" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:26" ht="51">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:26" ht="38.25">
+      <c r="A2" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" s="8">
+      <c r="B2" s="3">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3">
         <v>21847.3</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="3">
         <v>19965.7</v>
       </c>
-      <c r="E2" s="8">
+      <c r="E2" s="3">
         <v>21057.3</v>
       </c>
-      <c r="F2" s="8">
+      <c r="F2" s="3">
         <v>18792</v>
       </c>
-      <c r="G2" s="8">
+      <c r="G2" s="3">
         <v>21883.8</v>
       </c>
-      <c r="H2" s="8">
+      <c r="H2" s="3">
         <v>19308.5</v>
       </c>
-      <c r="I2" s="8">
+      <c r="I2" s="3">
         <v>21323.5</v>
       </c>
-      <c r="J2" s="8">
+      <c r="J2" s="3">
         <v>21323.5</v>
       </c>
-      <c r="K2" s="8">
+      <c r="K2" s="3">
         <v>20054</v>
       </c>
-      <c r="L2" s="8">
+      <c r="L2" s="3">
         <v>21407.4</v>
       </c>
-      <c r="M2" s="8">
+      <c r="M2" s="3">
         <v>21908</v>
       </c>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8">
+      <c r="N2" s="3"/>
+      <c r="O2" s="3">
         <v>3</v>
       </c>
-      <c r="P2" s="8">
+      <c r="P2" s="3">
         <v>9</v>
       </c>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="8">
-        <v>0</v>
-      </c>
-      <c r="S2" s="10">
+      <c r="Q2" s="22"/>
+      <c r="R2" s="3">
+        <v>0</v>
+      </c>
+      <c r="S2" s="23">
         <v>1</v>
       </c>
-      <c r="T2" s="11" t="s">
+      <c r="T2" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="U2" s="11" t="s">
+      <c r="U2" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="V2" s="12">
+      <c r="V2" s="25">
         <f>AVERAGE(C2:M2)</f>
         <v>20806.454545454544</v>
       </c>
-      <c r="W2" s="13">
+      <c r="W2" s="26">
         <f>MEDIAN(C2:M2)</f>
         <v>21323.5</v>
       </c>
-      <c r="X2" s="13">
+      <c r="X2" s="26">
         <f>MAX(C2:M2)</f>
         <v>21908</v>
       </c>
-      <c r="Y2" s="13">
+      <c r="Y2" s="26">
         <f>MIN(C2:M2)</f>
         <v>18792</v>
       </c>
-      <c r="Z2" s="1" t="s">
+      <c r="Z2" s="14" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="76.5">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" s="14">
+      <c r="B3" s="27">
+        <v>0</v>
+      </c>
+      <c r="C3" s="27">
         <v>10.7</v>
       </c>
-      <c r="D3" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="E3" s="14">
+      <c r="D3" s="27">
+        <v>0</v>
+      </c>
+      <c r="E3" s="27">
         <v>11.1</v>
       </c>
-      <c r="F3" s="14">
+      <c r="F3" s="27">
         <v>11.8</v>
       </c>
-      <c r="G3" s="14">
+      <c r="G3" s="27">
         <v>10.5</v>
       </c>
-      <c r="H3" s="14">
+      <c r="H3" s="27">
         <v>11.1</v>
       </c>
-      <c r="I3" s="14">
+      <c r="I3" s="27">
         <v>11.1</v>
       </c>
-      <c r="J3" s="14">
+      <c r="J3" s="27">
         <v>13.5</v>
       </c>
-      <c r="K3" s="14">
+      <c r="K3" s="27">
         <v>9.8000000000000007</v>
       </c>
-      <c r="L3" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="M3" s="14">
+      <c r="L3" s="27">
+        <v>0</v>
+      </c>
+      <c r="M3" s="27">
         <v>10.4</v>
       </c>
-      <c r="N3" s="14"/>
-      <c r="O3" s="8">
+      <c r="N3" s="27"/>
+      <c r="O3" s="3">
         <v>4</v>
       </c>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="15">
-        <v>0</v>
-      </c>
-      <c r="R3" s="16">
-        <v>0</v>
-      </c>
-      <c r="S3" s="16">
-        <v>0</v>
-      </c>
-      <c r="T3" s="11" t="s">
+      <c r="P3" s="27"/>
+      <c r="Q3" s="28">
+        <v>0</v>
+      </c>
+      <c r="R3" s="29">
+        <v>0</v>
+      </c>
+      <c r="S3" s="29">
+        <v>0</v>
+      </c>
+      <c r="T3" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="U3" s="17" t="s">
+      <c r="U3" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="V3" s="18">
+      <c r="V3" s="31">
         <f>AVERAGE(C3,E3,F3,G3,H3,I3,J3,K3,M3)</f>
         <v>11.111111111111111</v>
       </c>
-      <c r="W3" s="18">
+      <c r="W3" s="31">
         <f>MEDIAN(M3,E3:K3,C3)</f>
         <v>11.1</v>
       </c>
-      <c r="X3" s="18">
+      <c r="X3" s="31">
         <f>MAX(M3,E3:K3,C3)</f>
         <v>13.5</v>
       </c>
-      <c r="Y3" s="18">
+      <c r="Y3" s="31">
         <f>MIN(C3,M3,E3:K3)</f>
         <v>9.8000000000000007</v>
       </c>
-      <c r="Z3" s="1" t="s">
+      <c r="Z3" s="14" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="178.5">
-      <c r="A4" s="7" t="s">
+    <row r="4" spans="1:26" ht="153">
+      <c r="A4" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="27">
+        <v>0</v>
+      </c>
+      <c r="C4" s="27">
+        <v>14</v>
+      </c>
+      <c r="D4" s="27">
+        <v>0</v>
+      </c>
+      <c r="E4" s="27">
+        <v>18.5</v>
+      </c>
+      <c r="F4" s="27">
+        <v>16.5</v>
+      </c>
+      <c r="G4" s="27">
+        <v>14</v>
+      </c>
+      <c r="H4" s="27">
+        <v>17.5</v>
+      </c>
+      <c r="I4" s="27">
+        <v>17</v>
+      </c>
+      <c r="J4" s="27">
+        <v>25.5</v>
+      </c>
+      <c r="K4" s="27">
+        <v>15.5</v>
+      </c>
+      <c r="L4" s="27">
+        <v>13</v>
+      </c>
+      <c r="M4" s="27">
+        <v>13</v>
+      </c>
+      <c r="N4" s="27"/>
+      <c r="O4" s="3">
+        <v>3</v>
+      </c>
+      <c r="P4" s="27"/>
+      <c r="Q4" s="28">
+        <v>0</v>
+      </c>
+      <c r="R4" s="29">
+        <v>0</v>
+      </c>
+      <c r="S4" s="29">
+        <v>0</v>
+      </c>
+      <c r="T4" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="U4" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="14">
-        <v>14</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="E4" s="14">
-        <v>18.5</v>
-      </c>
-      <c r="F4" s="14">
-        <v>16.5</v>
-      </c>
-      <c r="G4" s="14">
-        <v>14</v>
-      </c>
-      <c r="H4" s="14">
-        <v>17.5</v>
-      </c>
-      <c r="I4" s="14">
-        <v>17</v>
-      </c>
-      <c r="J4" s="14">
-        <v>25.5</v>
-      </c>
-      <c r="K4" s="14">
-        <v>15.5</v>
-      </c>
-      <c r="L4" s="14">
-        <v>13</v>
-      </c>
-      <c r="M4" s="14">
-        <v>13</v>
-      </c>
-      <c r="N4" s="14"/>
-      <c r="O4" s="8">
-        <v>3</v>
-      </c>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="15">
-        <v>0</v>
-      </c>
-      <c r="R4" s="16">
-        <v>0</v>
-      </c>
-      <c r="S4" s="16">
-        <v>0</v>
-      </c>
-      <c r="T4" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="U4" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="V4" s="18">
+      <c r="V4" s="31">
         <f>AVERAGE(C4,E4,F4,G4,H4,I4,J4,K4,L4,L4:M4)</f>
         <v>16.136363636363637</v>
       </c>
-      <c r="W4" s="18">
+      <c r="W4" s="31">
         <f>MEDIAN(C4,E4:M4)</f>
         <v>16</v>
       </c>
-      <c r="X4" s="18">
+      <c r="X4" s="31">
         <f>MAX(E4:M4,C4)</f>
         <v>25.5</v>
       </c>
-      <c r="Y4" s="18">
+      <c r="Y4" s="31">
         <f>MIN(C4,E4:M4)</f>
         <v>13</v>
       </c>
-      <c r="Z4" s="1" t="s">
+      <c r="Z4" s="14" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="38.25">
-      <c r="A5" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" s="14">
+      <c r="A5" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0</v>
+      </c>
+      <c r="C5" s="27">
         <v>3.3</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="27">
         <v>2.9</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5" s="27">
         <v>3.9</v>
       </c>
-      <c r="F5" s="14">
+      <c r="F5" s="27">
         <v>4.0999999999999996</v>
       </c>
-      <c r="G5" s="14">
+      <c r="G5" s="27">
         <v>3.9</v>
       </c>
-      <c r="H5" s="14">
+      <c r="H5" s="27">
         <v>3.7</v>
       </c>
-      <c r="I5" s="14">
+      <c r="I5" s="27">
         <v>3.6</v>
       </c>
-      <c r="J5" s="14">
+      <c r="J5" s="27">
         <v>3.9</v>
       </c>
-      <c r="K5" s="14">
+      <c r="K5" s="27">
         <v>4.0999999999999996</v>
       </c>
-      <c r="L5" s="14">
+      <c r="L5" s="27">
         <v>3.5</v>
       </c>
-      <c r="M5" s="14">
+      <c r="M5" s="27">
         <v>3.5</v>
       </c>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8">
+      <c r="N5" s="3"/>
+      <c r="O5" s="3">
         <v>2</v>
       </c>
-      <c r="P5" s="8">
+      <c r="P5" s="3">
         <v>1</v>
       </c>
-      <c r="Q5" s="19"/>
-      <c r="R5" s="20">
-        <v>0</v>
-      </c>
-      <c r="S5" s="16">
-        <v>0</v>
-      </c>
-      <c r="T5" s="11" t="s">
+      <c r="Q5" s="32"/>
+      <c r="R5" s="33">
+        <v>0</v>
+      </c>
+      <c r="S5" s="29">
+        <v>0</v>
+      </c>
+      <c r="T5" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="U5" s="11" t="s">
+      <c r="U5" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="V5" s="21">
+      <c r="V5" s="34">
         <f>AVERAGE(C5:M5)</f>
         <v>3.6727272727272724</v>
       </c>
-      <c r="W5" s="18">
+      <c r="W5" s="31">
         <f>MEDIAN(C5:M5)</f>
         <v>3.7</v>
       </c>
-      <c r="X5" s="18">
+      <c r="X5" s="31">
         <f>MAX(C5:M5)</f>
         <v>4.0999999999999996</v>
       </c>
-      <c r="Y5" s="18">
+      <c r="Y5" s="31">
         <f>MIN(C5:M5)</f>
         <v>2.9</v>
       </c>
-      <c r="Z5" s="1" t="s">
+      <c r="Z5" s="14" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="76.5">
-      <c r="A6" s="7" t="s">
+    <row r="6" spans="1:26" ht="63.75">
+      <c r="A6" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="35">
+        <v>0.16648652067175301</v>
+      </c>
+      <c r="C6" s="36">
+        <v>0.163519745087334</v>
+      </c>
+      <c r="D6" s="36">
+        <v>0.18174433594094899</v>
+      </c>
+      <c r="E6" s="36">
+        <v>0.20036991368680601</v>
+      </c>
+      <c r="F6" s="36">
+        <v>0.15868044695147601</v>
+      </c>
+      <c r="G6" s="36">
+        <v>0.13015147231525401</v>
+      </c>
+      <c r="H6" s="36">
+        <v>0.23008911136528701</v>
+      </c>
+      <c r="I6" s="36">
+        <v>0.173989785495404</v>
+      </c>
+      <c r="J6" s="36">
+        <v>9.6417619799852097E-2</v>
+      </c>
+      <c r="K6" s="36">
+        <v>0.19654257751760701</v>
+      </c>
+      <c r="L6" s="36">
+        <v>0.15918329457288599</v>
+      </c>
+      <c r="M6" s="36">
+        <v>0.17095295203407301</v>
+      </c>
+      <c r="N6" s="3">
+        <v>6</v>
+      </c>
+      <c r="O6" s="3">
+        <v>7</v>
+      </c>
+      <c r="P6" s="3">
+        <v>4</v>
+      </c>
+      <c r="Q6" s="37"/>
+      <c r="R6" s="29"/>
+      <c r="S6" s="29"/>
+      <c r="T6" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="U6" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="22">
-        <v>0.16648652067175301</v>
-      </c>
-      <c r="C6" s="23">
-        <v>0.163519745087334</v>
-      </c>
-      <c r="D6" s="23">
-        <v>0.18174433594094899</v>
-      </c>
-      <c r="E6" s="23">
-        <v>0.20036991368680601</v>
-      </c>
-      <c r="F6" s="23">
-        <v>0.15868044695147601</v>
-      </c>
-      <c r="G6" s="23">
-        <v>0.13015147231525401</v>
-      </c>
-      <c r="H6" s="23">
-        <v>0.23008911136528701</v>
-      </c>
-      <c r="I6" s="23">
-        <v>0.173989785495404</v>
-      </c>
-      <c r="J6" s="23">
-        <v>9.6417619799852097E-2</v>
-      </c>
-      <c r="K6" s="23">
-        <v>0.19654257751760701</v>
-      </c>
-      <c r="L6" s="23">
-        <v>0.15918329457288599</v>
-      </c>
-      <c r="M6" s="23">
-        <v>0.17095295203407301</v>
-      </c>
-      <c r="N6" s="8">
-        <v>6</v>
-      </c>
-      <c r="O6" s="8">
-        <v>7</v>
-      </c>
-      <c r="P6" s="8">
-        <v>4</v>
-      </c>
-      <c r="Q6" s="24"/>
-      <c r="R6" s="16"/>
-      <c r="S6" s="16"/>
-      <c r="T6" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="U6" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="V6" s="25">
+      <c r="V6" s="38">
         <f>AVERAGE(B6:M6)</f>
         <v>0.1690106479532234</v>
       </c>
-      <c r="W6" s="25">
+      <c r="W6" s="38">
         <f>MEDIAN(B6:M6)</f>
         <v>0.16871973635291301</v>
       </c>
-      <c r="X6" s="25">
+      <c r="X6" s="38">
         <f>MAX(B6:M6)</f>
         <v>0.23008911136528701</v>
       </c>
-      <c r="Y6" s="25">
+      <c r="Y6" s="38">
         <f>MIN(B6:M6)</f>
         <v>9.6417619799852097E-2</v>
       </c>
-      <c r="Z6" s="1" t="s">
-        <v>38</v>
+      <c r="Z6" s="14" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="63.75">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="39">
+        <v>0</v>
+      </c>
+      <c r="C7" s="3">
+        <v>22852</v>
+      </c>
+      <c r="D7" s="39">
+        <v>0</v>
+      </c>
+      <c r="E7" s="3">
+        <v>43530</v>
+      </c>
+      <c r="F7" s="3">
+        <v>44823</v>
+      </c>
+      <c r="G7" s="3">
+        <v>30191</v>
+      </c>
+      <c r="H7" s="3">
+        <v>54181</v>
+      </c>
+      <c r="I7" s="3">
+        <v>32572</v>
+      </c>
+      <c r="J7" s="3">
+        <v>17260</v>
+      </c>
+      <c r="K7" s="39">
+        <v>0</v>
+      </c>
+      <c r="L7" s="39">
+        <v>0</v>
+      </c>
+      <c r="M7" s="3">
+        <v>21611</v>
+      </c>
+      <c r="N7" s="27"/>
+      <c r="O7" s="3">
+        <v>6</v>
+      </c>
+      <c r="P7" s="27"/>
+      <c r="Q7" s="37"/>
+      <c r="R7" s="29"/>
+      <c r="S7" s="29"/>
+      <c r="T7" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" s="8">
-        <v>22852</v>
-      </c>
-      <c r="D7" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" s="8">
-        <v>43530</v>
-      </c>
-      <c r="F7" s="8">
-        <v>44823</v>
-      </c>
-      <c r="G7" s="8">
-        <v>30191</v>
-      </c>
-      <c r="H7" s="8">
-        <v>54181</v>
-      </c>
-      <c r="I7" s="8">
-        <v>32572</v>
-      </c>
-      <c r="J7" s="8">
-        <v>17260</v>
-      </c>
-      <c r="K7" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="L7" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="M7" s="8">
-        <v>21611</v>
-      </c>
-      <c r="N7" s="14"/>
-      <c r="O7" s="8">
-        <v>6</v>
-      </c>
-      <c r="P7" s="14"/>
-      <c r="Q7" s="24"/>
-      <c r="R7" s="16"/>
-      <c r="S7" s="16"/>
-      <c r="T7" s="11" t="s">
+      <c r="U7" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="U7" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="V7" s="13">
+      <c r="V7" s="26">
         <f>AVERAGE(C7,E7:J7,M7)</f>
         <v>33377.5</v>
       </c>
-      <c r="W7" s="13">
+      <c r="W7" s="26">
         <f>MEDIAN(M7,E7:J7,C7)</f>
         <v>31381.5</v>
       </c>
-      <c r="X7" s="13">
+      <c r="X7" s="26">
         <f>MAX(M7,E7:J7,C7)</f>
         <v>54181</v>
       </c>
-      <c r="Y7" s="13">
+      <c r="Y7" s="26">
         <f>MIN(E7:J7,C7,M7)</f>
         <v>17260</v>
       </c>
-      <c r="Z7" s="1" t="s">
+      <c r="Z7" s="14" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="63.75">
-      <c r="A8" s="7" t="s">
+    <row r="8" spans="1:26" ht="51">
+      <c r="A8" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="3">
+        <v>5657</v>
+      </c>
+      <c r="C8" s="3">
+        <v>5033</v>
+      </c>
+      <c r="D8" s="3">
+        <v>624</v>
+      </c>
+      <c r="E8" s="3">
+        <v>11834</v>
+      </c>
+      <c r="F8" s="3">
+        <v>16000</v>
+      </c>
+      <c r="G8" s="3">
+        <v>8493</v>
+      </c>
+      <c r="H8" s="3">
+        <v>7381</v>
+      </c>
+      <c r="I8" s="3">
+        <v>6863</v>
+      </c>
+      <c r="J8" s="3">
+        <v>4407</v>
+      </c>
+      <c r="K8" s="3">
+        <v>5494</v>
+      </c>
+      <c r="L8" s="3">
+        <v>3917</v>
+      </c>
+      <c r="M8" s="3">
+        <v>2934</v>
+      </c>
+      <c r="N8" s="3">
+        <v>6</v>
+      </c>
+      <c r="O8" s="3">
+        <v>7</v>
+      </c>
+      <c r="P8" s="3">
+        <v>11</v>
+      </c>
+      <c r="Q8" s="23">
+        <v>1</v>
+      </c>
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+      <c r="T8" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="U8" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="B8" s="8">
-        <v>5657</v>
-      </c>
-      <c r="C8" s="8">
-        <v>5033</v>
-      </c>
-      <c r="D8" s="8">
-        <v>624</v>
-      </c>
-      <c r="E8" s="8">
-        <v>11834</v>
-      </c>
-      <c r="F8" s="8">
-        <v>16000</v>
-      </c>
-      <c r="G8" s="8">
-        <v>8493</v>
-      </c>
-      <c r="H8" s="8">
-        <v>7381</v>
-      </c>
-      <c r="I8" s="8">
-        <v>6863</v>
-      </c>
-      <c r="J8" s="8">
-        <v>4407</v>
-      </c>
-      <c r="K8" s="8">
-        <v>5494</v>
-      </c>
-      <c r="L8" s="8">
-        <v>3917</v>
-      </c>
-      <c r="M8" s="8">
-        <v>2934</v>
-      </c>
-      <c r="N8" s="8">
-        <v>6</v>
-      </c>
-      <c r="O8" s="8">
-        <v>7</v>
-      </c>
-      <c r="P8" s="8">
-        <v>11</v>
-      </c>
-      <c r="Q8" s="10">
-        <v>1</v>
-      </c>
-      <c r="R8" s="8">
-        <v>0</v>
-      </c>
-      <c r="S8" s="8">
-        <v>0</v>
-      </c>
-      <c r="T8" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="U8" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="V8" s="12">
+      <c r="V8" s="25">
         <f>AVERAGE(B8:M8)</f>
         <v>6553.083333333333</v>
       </c>
-      <c r="W8" s="13">
+      <c r="W8" s="26">
         <f>MEDIAN(B8:M8)</f>
         <v>5575.5</v>
       </c>
-      <c r="X8" s="13">
+      <c r="X8" s="26">
         <f>MAX(B8:M8)</f>
         <v>16000</v>
       </c>
-      <c r="Y8" s="13">
+      <c r="Y8" s="26">
         <f>MIN(B8:M8)</f>
         <v>624</v>
       </c>
-      <c r="Z8" s="1" t="s">
+      <c r="Z8" s="14" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="63.75">
-      <c r="A9" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B9" s="14">
+      <c r="A9" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="27">
         <v>76.301077009191999</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9" s="27">
         <v>81.277049286221796</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D9" s="27">
         <v>51.078459460565597</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E9" s="27">
         <v>87.369580561043506</v>
       </c>
-      <c r="F9" s="14">
+      <c r="F9" s="27">
         <v>94.287864385764607</v>
       </c>
-      <c r="G9" s="14">
+      <c r="G9" s="27">
         <v>113.70710880296301</v>
       </c>
-      <c r="H9" s="14">
+      <c r="H9" s="27">
         <v>68.637032752539398</v>
       </c>
-      <c r="I9" s="14">
+      <c r="I9" s="27">
         <v>90.191909143117698</v>
       </c>
-      <c r="J9" s="14">
+      <c r="J9" s="27">
         <v>84.209118355180195</v>
       </c>
-      <c r="K9" s="14">
+      <c r="K9" s="27">
         <v>113.5</v>
       </c>
-      <c r="L9" s="14">
+      <c r="L9" s="27">
         <v>88.205225208184103</v>
       </c>
-      <c r="M9" s="14">
+      <c r="M9" s="27">
         <v>67.7778162791504</v>
       </c>
-      <c r="N9" s="8">
+      <c r="N9" s="3">
         <v>8</v>
       </c>
-      <c r="O9" s="8">
+      <c r="O9" s="3">
         <v>8</v>
       </c>
-      <c r="P9" s="8">
+      <c r="P9" s="3">
         <v>11</v>
       </c>
-      <c r="Q9" s="8">
-        <v>0</v>
-      </c>
-      <c r="R9" s="10">
+      <c r="Q9" s="3">
+        <v>0</v>
+      </c>
+      <c r="R9" s="23">
         <v>-1</v>
       </c>
-      <c r="S9" s="8">
-        <v>0</v>
-      </c>
-      <c r="T9" s="11" t="s">
+      <c r="S9" s="3">
+        <v>0</v>
+      </c>
+      <c r="T9" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="U9" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="V9" s="27">
+      <c r="U9" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="V9" s="40">
         <f>AVERAGE(B9:M9)</f>
         <v>84.711853436993522</v>
       </c>
-      <c r="W9" s="27">
+      <c r="W9" s="40">
         <f>MEDIAN(B9:M9)</f>
         <v>85.789349458111843</v>
       </c>
-      <c r="X9" s="27">
+      <c r="X9" s="40">
         <f>MAX(B9:M9)</f>
         <v>113.70710880296301</v>
       </c>
-      <c r="Y9" s="27">
+      <c r="Y9" s="40">
         <f>MIN(B9:M9)</f>
         <v>51.078459460565597</v>
       </c>
-      <c r="Z9" s="1" t="s">
+      <c r="Z9" s="14" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="89.25">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="36">
+        <v>0.2208</v>
+      </c>
+      <c r="C10" s="36">
+        <v>0.222457272436727</v>
+      </c>
+      <c r="D10" s="36">
+        <v>0.21521669103253499</v>
+      </c>
+      <c r="E10" s="36">
+        <v>0.20523780044680101</v>
+      </c>
+      <c r="F10" s="36">
+        <v>0.232138221831097</v>
+      </c>
+      <c r="G10" s="36">
+        <v>0.24796057439706101</v>
+      </c>
+      <c r="H10" s="36">
+        <v>0.21521669103253499</v>
+      </c>
+      <c r="I10" s="36">
+        <v>0.22805933250927099</v>
+      </c>
+      <c r="J10" s="36">
+        <v>0.20341890910214999</v>
+      </c>
+      <c r="K10" s="36">
+        <v>0.21655294638901201</v>
+      </c>
+      <c r="L10" s="36">
+        <v>0.24452999175079501</v>
+      </c>
+      <c r="M10" s="36">
+        <v>0.232138221831097</v>
+      </c>
+      <c r="N10" s="3">
+        <v>6</v>
+      </c>
+      <c r="O10" s="3">
+        <v>6</v>
+      </c>
+      <c r="P10" s="3">
+        <v>8</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>0</v>
+      </c>
+      <c r="R10" s="3">
+        <v>0</v>
+      </c>
+      <c r="S10" s="23">
+        <v>1</v>
+      </c>
+      <c r="T10" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="B10" s="23">
-        <v>0.2208</v>
-      </c>
-      <c r="C10" s="23">
-        <v>0.222457272436727</v>
-      </c>
-      <c r="D10" s="23">
-        <v>0.21521669103253499</v>
-      </c>
-      <c r="E10" s="23">
-        <v>0.20523780044680101</v>
-      </c>
-      <c r="F10" s="23">
-        <v>0.232138221831097</v>
-      </c>
-      <c r="G10" s="23">
-        <v>0.24796057439706101</v>
-      </c>
-      <c r="H10" s="23">
-        <v>0.21521669103253499</v>
-      </c>
-      <c r="I10" s="23">
-        <v>0.22805933250927099</v>
-      </c>
-      <c r="J10" s="23">
-        <v>0.20341890910214999</v>
-      </c>
-      <c r="K10" s="23">
-        <v>0.21655294638901201</v>
-      </c>
-      <c r="L10" s="23">
-        <v>0.24452999175079501</v>
-      </c>
-      <c r="M10" s="23">
-        <v>0.232138221831097</v>
-      </c>
-      <c r="N10" s="8">
-        <v>6</v>
-      </c>
-      <c r="O10" s="8">
-        <v>6</v>
-      </c>
-      <c r="P10" s="8">
-        <v>8</v>
-      </c>
-      <c r="Q10" s="8">
-        <v>0</v>
-      </c>
-      <c r="R10" s="8">
-        <v>0</v>
-      </c>
-      <c r="S10" s="10">
-        <v>1</v>
-      </c>
-      <c r="T10" s="11" t="s">
+      <c r="U10" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="U10" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="V10" s="28">
+      <c r="V10" s="41">
         <f>AVERAGE(B10:M10)</f>
         <v>0.22364388772992341</v>
       </c>
-      <c r="W10" s="28">
+      <c r="W10" s="41">
         <f>MEDIAN(B10:M10)</f>
         <v>0.22162863621836348</v>
       </c>
-      <c r="X10" s="28">
+      <c r="X10" s="41">
         <f>MAX(B10:M10)</f>
         <v>0.24796057439706101</v>
       </c>
-      <c r="Y10" s="28">
+      <c r="Y10" s="41">
         <f>MIN(B10:M10)</f>
         <v>0.20341890910214999</v>
       </c>
-      <c r="Z10" s="1" t="s">
-        <v>38</v>
+      <c r="Z10" s="14" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="127.5">
-      <c r="A11" s="29" t="s">
-        <v>48</v>
-      </c>
-      <c r="B11" s="30">
+      <c r="A11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="2">
         <v>7.2316859781244899E-2</v>
       </c>
-      <c r="C11" s="30">
+      <c r="C11" s="2">
         <v>7.5816904872813201E-2</v>
       </c>
-      <c r="D11" s="30">
+      <c r="D11" s="2">
         <v>5.7934028946177198E-2</v>
       </c>
-      <c r="E11" s="30">
+      <c r="E11" s="2">
         <v>7.1917858152166197E-2</v>
       </c>
-      <c r="F11" s="30">
+      <c r="F11" s="2">
         <v>4.8912556596498999E-2</v>
       </c>
-      <c r="G11" s="30">
+      <c r="G11" s="2">
         <v>6.6062273240292194E-2</v>
       </c>
-      <c r="H11" s="30">
+      <c r="H11" s="2">
         <v>6.6751753248615306E-2</v>
       </c>
-      <c r="I11" s="30">
+      <c r="I11" s="2">
         <v>7.9366524608897496E-2</v>
       </c>
-      <c r="J11" s="30">
+      <c r="J11" s="2">
         <v>5.2285257029312603E-2</v>
       </c>
-      <c r="K11" s="30">
+      <c r="K11" s="2">
         <v>6.6424693096245796E-2</v>
       </c>
-      <c r="L11" s="30">
+      <c r="L11" s="2">
         <v>5.96213198187883E-2</v>
       </c>
-      <c r="M11" s="30">
+      <c r="M11" s="2">
         <v>6.6357955686772399E-2</v>
       </c>
-      <c r="N11" s="8">
+      <c r="N11" s="3">
         <v>2</v>
       </c>
-      <c r="O11" s="31">
+      <c r="O11" s="3">
         <v>2</v>
       </c>
-      <c r="P11" s="31">
+      <c r="P11" s="3">
         <v>9</v>
       </c>
-      <c r="Q11" s="24"/>
-      <c r="R11" s="16"/>
-      <c r="S11" s="16"/>
-      <c r="T11" s="11" t="s">
+      <c r="Q11" s="37"/>
+      <c r="R11" s="29"/>
+      <c r="S11" s="29"/>
+      <c r="T11" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="U11" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="U11" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="V11" s="32">
+      <c r="V11" s="42">
         <f>AVERAGE(B11:M11)</f>
         <v>6.5313998756485372E-2</v>
       </c>
-      <c r="W11" s="32">
+      <c r="W11" s="42">
         <f>MEDIAN(B11:M11)</f>
         <v>6.6391324391509104E-2</v>
       </c>
-      <c r="X11" s="32">
+      <c r="X11" s="42">
         <f>MAX(B11:M11)</f>
         <v>7.9366524608897496E-2</v>
       </c>
-      <c r="Y11" s="32">
+      <c r="Y11" s="42">
         <f>MIN(B11:M11)</f>
         <v>4.8912556596498999E-2</v>
       </c>
-      <c r="Z11" s="1" t="s">
-        <v>38</v>
+      <c r="Z11" s="14" t="s">
+        <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:26" ht="114.75">
-      <c r="A12" s="7" t="s">
+    <row r="12" spans="1:26" ht="102">
+      <c r="A12" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="3">
+        <v>397</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0</v>
+      </c>
+      <c r="E12" s="3">
+        <v>256</v>
+      </c>
+      <c r="F12" s="3">
+        <v>215</v>
+      </c>
+      <c r="G12" s="3">
+        <v>289</v>
+      </c>
+      <c r="H12" s="3">
+        <v>351</v>
+      </c>
+      <c r="I12" s="3">
+        <v>275</v>
+      </c>
+      <c r="J12" s="3">
+        <v>219</v>
+      </c>
+      <c r="K12" s="3">
+        <v>443</v>
+      </c>
+      <c r="L12" s="3">
+        <v>301</v>
+      </c>
+      <c r="M12" s="3">
+        <v>438</v>
+      </c>
+      <c r="N12" s="33">
+        <v>3</v>
+      </c>
+      <c r="O12" s="29">
+        <v>3</v>
+      </c>
+      <c r="P12" s="29">
+        <v>3</v>
+      </c>
+      <c r="Q12" s="33">
+        <v>0</v>
+      </c>
+      <c r="R12" s="29">
+        <v>0</v>
+      </c>
+      <c r="S12" s="29">
+        <v>0</v>
+      </c>
+      <c r="T12" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="B12" s="8">
-        <v>397</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E12" s="8">
-        <v>256</v>
-      </c>
-      <c r="F12" s="8">
-        <v>215</v>
-      </c>
-      <c r="G12" s="8">
-        <v>289</v>
-      </c>
-      <c r="H12" s="8">
-        <v>351</v>
-      </c>
-      <c r="I12" s="8">
-        <v>275</v>
-      </c>
-      <c r="J12" s="8">
-        <v>219</v>
-      </c>
-      <c r="K12" s="8">
-        <v>443</v>
-      </c>
-      <c r="L12" s="8">
-        <v>301</v>
-      </c>
-      <c r="M12" s="8">
-        <v>438</v>
-      </c>
-      <c r="N12" s="20">
-        <v>3</v>
-      </c>
-      <c r="O12" s="16">
-        <v>3</v>
-      </c>
-      <c r="P12" s="16">
-        <v>3</v>
-      </c>
-      <c r="Q12" s="20">
-        <v>0</v>
-      </c>
-      <c r="R12" s="16">
-        <v>0</v>
-      </c>
-      <c r="S12" s="16">
-        <v>0</v>
-      </c>
-      <c r="T12" s="11" t="s">
+      <c r="U12" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="U12" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="V12" s="33">
+      <c r="V12" s="43">
         <f>AVERAGE(E12:M12,B12)</f>
         <v>318.39999999999998</v>
       </c>
-      <c r="W12" s="33">
+      <c r="W12" s="43">
         <f>MEDIAN(E12:M12,B12)</f>
         <v>295</v>
       </c>
-      <c r="X12" s="33">
+      <c r="X12" s="43">
         <f>MAX(E12:M12,B12)</f>
         <v>443</v>
       </c>
-      <c r="Y12" s="33">
+      <c r="Y12" s="43">
         <f>MIN(E12:M12,B12)</f>
         <v>215</v>
       </c>
-      <c r="Z12" s="1" t="s">
+      <c r="Z12" s="14" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="76.5">
-      <c r="A13" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="B13" s="9">
+      <c r="A13" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" s="22">
         <v>4231</v>
       </c>
-      <c r="C13" s="9">
+      <c r="C13" s="22">
         <v>4185</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="22">
         <v>846</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E13" s="22">
         <v>6624</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F13" s="22">
         <v>7605</v>
       </c>
-      <c r="G13" s="9">
+      <c r="G13" s="22">
         <v>6080</v>
       </c>
-      <c r="H13" s="9">
+      <c r="H13" s="22">
         <v>11066</v>
       </c>
-      <c r="I13" s="9">
+      <c r="I13" s="22">
         <v>6365</v>
       </c>
-      <c r="J13" s="9">
+      <c r="J13" s="22">
         <v>3193</v>
       </c>
-      <c r="K13" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="L13" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="M13" s="9">
+      <c r="K13" s="22">
+        <v>0</v>
+      </c>
+      <c r="L13" s="22">
+        <v>0</v>
+      </c>
+      <c r="M13" s="22">
         <v>4406</v>
       </c>
-      <c r="N13" s="9">
+      <c r="N13" s="22">
         <v>7</v>
       </c>
-      <c r="O13" s="9">
+      <c r="O13" s="22">
         <v>7</v>
       </c>
-      <c r="P13" s="9">
+      <c r="P13" s="22">
         <v>9</v>
       </c>
-      <c r="Q13" s="9"/>
-      <c r="R13" s="9"/>
-      <c r="S13" s="9"/>
-      <c r="T13" s="35" t="s">
+      <c r="Q13" s="22"/>
+      <c r="R13" s="22"/>
+      <c r="S13" s="22"/>
+      <c r="T13" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="U13" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="U13" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="V13" s="33">
+      <c r="V13" s="43">
         <f>AVERAGE(B13:J13,M13)</f>
         <v>5460.1</v>
       </c>
-      <c r="W13" s="33">
+      <c r="W13" s="43">
         <f>MEDIAN(M13,B13:J13)</f>
         <v>5243</v>
       </c>
-      <c r="X13" s="33">
+      <c r="X13" s="43">
         <f>MAX(M13,B13:J13)</f>
         <v>11066</v>
       </c>
-      <c r="Y13" s="33">
+      <c r="Y13" s="43">
         <f>MIN(M13,B13:J13)</f>
         <v>846</v>
       </c>
-      <c r="Z13" s="1" t="s">
+      <c r="Z13" s="14" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="89.25">
-      <c r="A14" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="B14" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" s="36">
+      <c r="A14" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" s="46">
+        <v>0</v>
+      </c>
+      <c r="C14" s="46">
         <v>0.80874316899999998</v>
       </c>
-      <c r="D14" s="36">
+      <c r="D14" s="46">
         <f>302/366</f>
         <v>0.82513661202185795</v>
       </c>
-      <c r="E14" s="36">
+      <c r="E14" s="46">
         <f>246/366</f>
         <v>0.67213114754098358</v>
       </c>
-      <c r="F14" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="G14" s="36">
+      <c r="F14" s="46">
+        <v>0</v>
+      </c>
+      <c r="G14" s="46">
         <v>0.78</v>
       </c>
-      <c r="H14" s="36">
+      <c r="H14" s="46">
         <v>0.74</v>
       </c>
-      <c r="I14" s="36">
+      <c r="I14" s="46">
         <v>0.76</v>
       </c>
-      <c r="J14" s="36">
+      <c r="J14" s="46">
         <v>0.54</v>
       </c>
-      <c r="K14" s="36">
+      <c r="K14" s="46">
         <f>259/366</f>
         <v>0.70765027322404372</v>
       </c>
-      <c r="L14" s="36">
+      <c r="L14" s="46">
         <f>232/366</f>
         <v>0.63387978142076506</v>
       </c>
-      <c r="M14" s="36">
+      <c r="M14" s="46">
         <v>0.75</v>
       </c>
-      <c r="N14" s="8"/>
-      <c r="O14" s="8">
+      <c r="N14" s="3"/>
+      <c r="O14" s="3">
         <v>2</v>
       </c>
-      <c r="P14" s="8">
+      <c r="P14" s="3">
         <v>1</v>
       </c>
-      <c r="Q14" s="9"/>
-      <c r="R14" s="8">
-        <v>0</v>
-      </c>
-      <c r="S14" s="10">
+      <c r="Q14" s="22"/>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="23">
         <v>1</v>
       </c>
-      <c r="T14" s="11" t="s">
+      <c r="T14" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="U14" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="V14" s="37">
+      <c r="U14" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="V14" s="47">
         <f>AVERAGE(C14:E14,G14:M14)</f>
         <v>0.72175409832076498</v>
       </c>
-      <c r="W14" s="37">
+      <c r="W14" s="47">
         <f>MEDIAN(G14:M14,C14:E14)</f>
         <v>0.745</v>
       </c>
-      <c r="X14" s="37">
+      <c r="X14" s="47">
         <f>MAX(G14:M14,C14:E14)</f>
         <v>0.82513661202185795</v>
       </c>
-      <c r="Y14" s="37">
+      <c r="Y14" s="47">
         <f>MIN(G14:M14,C14:E14)</f>
         <v>0.54</v>
       </c>
-      <c r="Z14" s="1" t="s">
-        <v>38</v>
+      <c r="Z14" s="14" t="s">
+        <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:26" ht="76.5">
-      <c r="A15" s="34" t="s">
+    <row r="15" spans="1:26" ht="63.75">
+      <c r="A15" s="44" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" s="22">
+        <v>0</v>
+      </c>
+      <c r="C15" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="D15" s="22">
+        <v>0</v>
+      </c>
+      <c r="E15" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="F15" s="32">
+        <v>0</v>
+      </c>
+      <c r="G15" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="H15" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="I15" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="J15" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="K15" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="L15" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="M15" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="N15" s="22"/>
+      <c r="O15" s="22">
+        <v>6</v>
+      </c>
+      <c r="P15" s="22"/>
+      <c r="Q15" s="22"/>
+      <c r="R15" s="22"/>
+      <c r="S15" s="22"/>
+      <c r="T15" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="U15" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E15" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="F15" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="G15" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="H15" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="I15" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="J15" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="K15" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="L15" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="M15" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="N15" s="9"/>
-      <c r="O15" s="9">
-        <v>6</v>
-      </c>
-      <c r="P15" s="9"/>
-      <c r="Q15" s="9"/>
-      <c r="R15" s="9"/>
-      <c r="S15" s="9"/>
-      <c r="T15" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="U15" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="V15" s="32">
+      <c r="V15" s="42">
         <f>0.359</f>
         <v>0.35899999999999999</v>
       </c>
-      <c r="W15" s="32">
+      <c r="W15" s="42">
         <v>0.35599999999999998</v>
       </c>
-      <c r="X15" s="32" t="str">
+      <c r="X15" s="42" t="str">
         <f>H15</f>
         <v>47.2%</v>
       </c>
-      <c r="Y15" s="32" t="str">
+      <c r="Y15" s="42" t="str">
         <f>G15</f>
         <v>27.6%</v>
       </c>
-      <c r="Z15" s="1" t="s">
-        <v>38</v>
+      <c r="Z15" s="14" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="38.25">
-      <c r="A16" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="B16" s="38">
+      <c r="A16" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" s="48">
         <f>C16+D16</f>
         <v>3694.0600000000004</v>
       </c>
-      <c r="C16" s="38">
+      <c r="C16" s="48">
         <v>2823.28</v>
       </c>
-      <c r="D16" s="38">
+      <c r="D16" s="48">
         <v>870.78</v>
       </c>
-      <c r="E16" s="8">
+      <c r="E16" s="3">
         <v>3340.4</v>
       </c>
-      <c r="F16" s="8">
+      <c r="F16" s="3">
         <v>1075.414</v>
       </c>
-      <c r="G16" s="8">
+      <c r="G16" s="3">
         <v>7105.1110000000099</v>
       </c>
-      <c r="H16" s="8">
+      <c r="H16" s="3">
         <v>844.08600000000001</v>
       </c>
-      <c r="I16" s="8">
+      <c r="I16" s="3">
         <v>6278.9280000000099</v>
       </c>
-      <c r="J16" s="8">
+      <c r="J16" s="3">
         <v>1932.425</v>
       </c>
-      <c r="K16" s="8">
+      <c r="K16" s="3">
         <v>1669.751</v>
       </c>
-      <c r="L16" s="8">
+      <c r="L16" s="3">
         <v>1685.07</v>
       </c>
-      <c r="M16" s="8">
+      <c r="M16" s="3">
         <v>3402.5839999999998</v>
       </c>
-      <c r="N16" s="8">
+      <c r="N16" s="3">
         <v>3</v>
       </c>
-      <c r="O16" s="8">
+      <c r="O16" s="3">
         <v>5</v>
       </c>
-      <c r="P16" s="8">
+      <c r="P16" s="3">
         <v>10</v>
       </c>
-      <c r="Q16" s="9"/>
-      <c r="R16" s="9"/>
-      <c r="S16" s="9"/>
-      <c r="T16" s="35" t="s">
+      <c r="Q16" s="22"/>
+      <c r="R16" s="22"/>
+      <c r="S16" s="22"/>
+      <c r="T16" s="45" t="s">
+        <v>65</v>
+      </c>
+      <c r="U16" s="45" t="s">
         <v>66</v>
       </c>
-      <c r="U16" s="35" t="s">
-        <v>67</v>
-      </c>
-      <c r="V16" s="33">
+      <c r="V16" s="43">
         <f>AVERAGE(B16:M16)</f>
         <v>2893.4907500000022</v>
       </c>
-      <c r="W16" s="33">
+      <c r="W16" s="43">
         <f>MEDIAN(B16:P16)</f>
         <v>1685.07</v>
       </c>
-      <c r="X16" s="33">
+      <c r="X16" s="43">
         <f>G16</f>
         <v>7105.1110000000099</v>
       </c>
-      <c r="Y16" s="33">
+      <c r="Y16" s="43">
         <f>H16</f>
         <v>844.08600000000001</v>
       </c>
-      <c r="Z16" s="1" t="s">
+      <c r="Z16" s="14" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:26" ht="140.25">
-      <c r="A17" s="34" t="s">
-        <v>68</v>
-      </c>
-      <c r="B17" s="9" t="s">
+    <row r="17" spans="1:26" ht="127.5">
+      <c r="A17" s="44" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" s="22">
+        <v>0</v>
+      </c>
+      <c r="C17" s="22">
+        <v>43</v>
+      </c>
+      <c r="D17" s="22">
+        <v>0</v>
+      </c>
+      <c r="E17" s="22">
+        <v>42</v>
+      </c>
+      <c r="F17" s="22">
+        <v>27</v>
+      </c>
+      <c r="G17" s="22">
+        <v>39</v>
+      </c>
+      <c r="H17" s="22">
+        <v>39</v>
+      </c>
+      <c r="I17" s="22">
+        <v>44</v>
+      </c>
+      <c r="J17" s="22">
+        <v>35</v>
+      </c>
+      <c r="K17" s="22">
+        <v>37</v>
+      </c>
+      <c r="L17" s="22">
+        <v>37</v>
+      </c>
+      <c r="M17" s="22">
+        <v>52</v>
+      </c>
+      <c r="N17" s="22"/>
+      <c r="O17" s="22">
+        <v>3</v>
+      </c>
+      <c r="P17" s="22"/>
+      <c r="Q17" s="22"/>
+      <c r="R17" s="22"/>
+      <c r="S17" s="22"/>
+      <c r="T17" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="U17" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="9">
-        <v>43</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E17" s="9">
-        <v>42</v>
-      </c>
-      <c r="F17" s="9">
-        <v>27</v>
-      </c>
-      <c r="G17" s="9">
-        <v>39</v>
-      </c>
-      <c r="H17" s="9">
-        <v>39</v>
-      </c>
-      <c r="I17" s="9">
-        <v>44</v>
-      </c>
-      <c r="J17" s="9">
-        <v>35</v>
-      </c>
-      <c r="K17" s="9">
-        <v>37</v>
-      </c>
-      <c r="L17" s="9">
-        <v>37</v>
-      </c>
-      <c r="M17" s="9">
-        <v>52</v>
-      </c>
-      <c r="N17" s="9"/>
-      <c r="O17" s="9">
-        <v>3</v>
-      </c>
-      <c r="P17" s="9"/>
-      <c r="Q17" s="9"/>
-      <c r="R17" s="9"/>
-      <c r="S17" s="9"/>
-      <c r="T17" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="U17" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="V17" s="33">
+      <c r="V17" s="43">
         <f>AVERAGE(E17:M17,C17)</f>
         <v>39.5</v>
       </c>
-      <c r="W17" s="33">
+      <c r="W17" s="43">
         <f>MEDIAN(E17:M17,C17)</f>
         <v>39</v>
       </c>
-      <c r="X17" s="33">
+      <c r="X17" s="43">
         <f>M17</f>
         <v>52</v>
       </c>
-      <c r="Y17" s="33">
+      <c r="Y17" s="43">
         <f>F17</f>
         <v>27</v>
       </c>
-      <c r="Z17" s="1" t="s">
+      <c r="Z17" s="14" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:26" ht="63.75">
-      <c r="A18" s="34" t="s">
+    <row r="18" spans="1:26" ht="51">
+      <c r="A18" s="44" t="s">
+        <v>68</v>
+      </c>
+      <c r="B18" s="22">
+        <v>0</v>
+      </c>
+      <c r="C18" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="D18" s="22">
+        <v>0</v>
+      </c>
+      <c r="E18" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="F18" s="32">
+        <v>0</v>
+      </c>
+      <c r="G18" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="H18" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="I18" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="J18" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="K18" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="L18" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="M18" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="N18" s="22"/>
+      <c r="O18" s="22">
+        <v>1</v>
+      </c>
+      <c r="P18" s="22"/>
+      <c r="Q18" s="22"/>
+      <c r="R18" s="22"/>
+      <c r="S18" s="22"/>
+      <c r="T18" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="U18" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E18" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="F18" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="G18" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="H18" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="I18" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="J18" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="K18" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="L18" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="M18" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="N18" s="9"/>
-      <c r="O18" s="9">
-        <v>1</v>
-      </c>
-      <c r="P18" s="9"/>
-      <c r="Q18" s="9"/>
-      <c r="R18" s="9"/>
-      <c r="S18" s="9"/>
-      <c r="T18" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="U18" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="V18" s="32">
+      <c r="V18" s="42">
         <f>(0.476+0.346+0.238+0.095+0.286+0.19+0.238+0.316+0.25)/9</f>
         <v>0.27055555555555555</v>
       </c>
-      <c r="W18" s="32">
+      <c r="W18" s="42">
         <v>0.25</v>
       </c>
-      <c r="X18" s="32" t="str">
+      <c r="X18" s="42" t="str">
         <f>C18</f>
         <v>47.6%</v>
       </c>
-      <c r="Y18" s="32" t="str">
+      <c r="Y18" s="42" t="str">
         <f>H18</f>
         <v>9.5%</v>
       </c>
-      <c r="Z18" s="1" t="s">
-        <v>38</v>
+      <c r="Z18" s="14" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:26" ht="37.5" customHeight="1" thickBot="1">
-      <c r="A19" s="34" t="s">
+      <c r="A19" s="44" t="s">
+        <v>76</v>
+      </c>
+      <c r="B19" s="22">
+        <v>0</v>
+      </c>
+      <c r="C19" s="49" t="s">
         <v>77</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="D19" s="49">
+        <v>0</v>
+      </c>
+      <c r="E19" s="49" t="s">
+        <v>78</v>
+      </c>
+      <c r="F19" s="49" t="s">
+        <v>79</v>
+      </c>
+      <c r="G19" s="49" t="s">
+        <v>80</v>
+      </c>
+      <c r="H19" s="49" t="s">
+        <v>81</v>
+      </c>
+      <c r="I19" s="49" t="s">
+        <v>82</v>
+      </c>
+      <c r="J19" s="49" t="s">
+        <v>83</v>
+      </c>
+      <c r="K19" s="49" t="s">
+        <v>84</v>
+      </c>
+      <c r="L19" s="49" t="s">
+        <v>82</v>
+      </c>
+      <c r="M19" s="49" t="s">
+        <v>85</v>
+      </c>
+      <c r="N19" s="22"/>
+      <c r="O19" s="22">
+        <v>1</v>
+      </c>
+      <c r="P19" s="22"/>
+      <c r="Q19" s="22"/>
+      <c r="R19" s="22"/>
+      <c r="S19" s="22"/>
+      <c r="T19" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="U19" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="39" t="s">
-        <v>78</v>
-      </c>
-      <c r="D19" s="39" t="s">
-        <v>33</v>
-      </c>
-      <c r="E19" s="39" t="s">
-        <v>79</v>
-      </c>
-      <c r="F19" s="39" t="s">
-        <v>80</v>
-      </c>
-      <c r="G19" s="39" t="s">
-        <v>81</v>
-      </c>
-      <c r="H19" s="39" t="s">
-        <v>82</v>
-      </c>
-      <c r="I19" s="39" t="s">
-        <v>83</v>
-      </c>
-      <c r="J19" s="39" t="s">
-        <v>84</v>
-      </c>
-      <c r="K19" s="39" t="s">
-        <v>85</v>
-      </c>
-      <c r="L19" s="39" t="s">
-        <v>83</v>
-      </c>
-      <c r="M19" s="39" t="s">
-        <v>86</v>
-      </c>
-      <c r="N19" s="9"/>
-      <c r="O19" s="9">
-        <v>1</v>
-      </c>
-      <c r="P19" s="9"/>
-      <c r="Q19" s="9"/>
-      <c r="R19" s="9"/>
-      <c r="S19" s="9"/>
-      <c r="T19" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="U19" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="V19" s="27">
+      <c r="V19" s="40">
         <f>(90.2+86.6+82.1+89.1+84.6+87.8+84.4+85.3+87.8+89.5)/10</f>
         <v>86.739999999999981</v>
       </c>
-      <c r="W19" s="27">
+      <c r="W19" s="40">
         <f>(86.6+87.8)/2</f>
         <v>87.199999999999989</v>
       </c>
-      <c r="X19" s="33" t="str">
+      <c r="X19" s="43" t="str">
         <f>C19</f>
         <v>90.2</v>
       </c>
-      <c r="Y19" s="27" t="str">
+      <c r="Y19" s="40" t="str">
         <f>F19</f>
         <v>82.1</v>
       </c>
-      <c r="Z19" s="1" t="s">
-        <v>38</v>
+      <c r="Z19" s="14" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:26" ht="39" thickBot="1">
-      <c r="A20" s="40" t="s">
+      <c r="A20" s="50" t="s">
+        <v>86</v>
+      </c>
+      <c r="B20" s="4">
+        <v>8.5</v>
+      </c>
+      <c r="C20" s="4">
+        <v>8</v>
+      </c>
+      <c r="D20" s="4">
+        <v>8.9</v>
+      </c>
+      <c r="E20" s="4">
+        <v>9</v>
+      </c>
+      <c r="F20" s="4">
+        <v>12.3</v>
+      </c>
+      <c r="G20" s="4">
+        <v>9.9</v>
+      </c>
+      <c r="H20" s="4">
+        <v>10.6</v>
+      </c>
+      <c r="I20" s="4">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="J20" s="4">
+        <v>10.6</v>
+      </c>
+      <c r="K20" s="4">
+        <v>10.1</v>
+      </c>
+      <c r="L20" s="4">
+        <v>8.1</v>
+      </c>
+      <c r="M20" s="4">
+        <v>7.8</v>
+      </c>
+      <c r="N20" s="4">
+        <v>3</v>
+      </c>
+      <c r="O20" s="4">
+        <v>2</v>
+      </c>
+      <c r="P20" s="4">
+        <v>4</v>
+      </c>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="4">
+        <v>1</v>
+      </c>
+      <c r="S20" s="4">
+        <v>1</v>
+      </c>
+      <c r="T20" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="B20" s="41">
-        <v>8.5</v>
-      </c>
-      <c r="C20" s="41">
-        <v>8</v>
-      </c>
-      <c r="D20" s="41">
-        <v>8.9</v>
-      </c>
-      <c r="E20" s="41">
-        <v>9</v>
-      </c>
-      <c r="F20" s="41">
-        <v>12.3</v>
-      </c>
-      <c r="G20" s="41">
-        <v>9.9</v>
-      </c>
-      <c r="H20" s="41">
-        <v>10.6</v>
-      </c>
-      <c r="I20" s="41">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="J20" s="41">
-        <v>10.6</v>
-      </c>
-      <c r="K20" s="41">
-        <v>10.1</v>
-      </c>
-      <c r="L20" s="41">
-        <v>8.1</v>
-      </c>
-      <c r="M20" s="41">
-        <v>7.8</v>
-      </c>
-      <c r="N20" s="42">
-        <v>3</v>
-      </c>
-      <c r="O20" s="41">
+      <c r="U20" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" ht="15.75" thickBot="1">
+      <c r="A21" s="51" t="s">
+        <v>89</v>
+      </c>
+      <c r="B21" s="52">
+        <v>3.3700000000000001E-2</v>
+      </c>
+      <c r="C21" s="52">
+        <v>3.4299999999999997E-2</v>
+      </c>
+      <c r="D21" s="52">
+        <v>2.8899999999999999E-2</v>
+      </c>
+      <c r="E21" s="52">
+        <v>2.7300000000000001E-2</v>
+      </c>
+      <c r="F21" s="52">
+        <v>1.84E-2</v>
+      </c>
+      <c r="G21" s="52">
+        <v>2.9100000000000001E-2</v>
+      </c>
+      <c r="H21" s="52">
+        <v>2.5399999999999999E-2</v>
+      </c>
+      <c r="I21" s="52">
+        <v>2.9700000000000001E-2</v>
+      </c>
+      <c r="J21" s="52">
+        <v>1.1900000000000001E-2</v>
+      </c>
+      <c r="K21" s="52">
+        <v>1.46E-2</v>
+      </c>
+      <c r="L21" s="52">
+        <v>1.52E-2</v>
+      </c>
+      <c r="M21" s="52">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="N21" s="53">
+        <v>1</v>
+      </c>
+      <c r="O21" s="53">
+        <v>1</v>
+      </c>
+      <c r="P21" s="53">
+        <v>4</v>
+      </c>
+      <c r="Q21" s="54"/>
+      <c r="R21" s="54"/>
+      <c r="S21" s="54"/>
+      <c r="T21" s="53" t="s">
+        <v>45</v>
+      </c>
+      <c r="U21" s="51" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" ht="90" thickBot="1">
+      <c r="A22" s="50" t="s">
+        <v>91</v>
+      </c>
+      <c r="B22" s="5">
+        <v>5.0799999999999998E-2</v>
+      </c>
+      <c r="C22" s="5">
+        <v>5.5100000000000003E-2</v>
+      </c>
+      <c r="D22" s="5">
+        <v>3.4099999999999998E-2</v>
+      </c>
+      <c r="E22" s="5">
+        <v>4.99E-2</v>
+      </c>
+      <c r="F22" s="5">
+        <v>4.0899999999999999E-2</v>
+      </c>
+      <c r="G22" s="5">
+        <v>4.5900000000000003E-2</v>
+      </c>
+      <c r="H22" s="5">
+        <v>4.7199999999999999E-2</v>
+      </c>
+      <c r="I22" s="5">
+        <v>5.9799999999999999E-2</v>
+      </c>
+      <c r="J22" s="5">
+        <v>3.9E-2</v>
+      </c>
+      <c r="K22" s="5">
+        <v>4.4200000000000003E-2</v>
+      </c>
+      <c r="L22" s="5">
+        <v>4.1500000000000002E-2</v>
+      </c>
+      <c r="M22" s="5">
+        <v>4.6699999999999998E-2</v>
+      </c>
+      <c r="N22" s="55">
         <v>2</v>
       </c>
-      <c r="P20" s="41">
-        <v>4</v>
-      </c>
-      <c r="Q20" s="41"/>
-      <c r="R20" s="41">
+      <c r="O22" s="55">
+        <v>2</v>
+      </c>
+      <c r="P22" s="55">
+        <v>11</v>
+      </c>
+      <c r="Q22" s="55">
         <v>1</v>
       </c>
-      <c r="S20" s="41">
-        <v>1</v>
-      </c>
-      <c r="T20" s="43" t="s">
-        <v>88</v>
-      </c>
-      <c r="U20" s="43" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="21" spans="1:26" ht="26.25" thickBot="1">
-      <c r="A21" s="44" t="s">
-        <v>90</v>
-      </c>
-      <c r="B21" s="45">
-        <v>3.3700000000000001E-2</v>
-      </c>
-      <c r="C21" s="45">
-        <v>3.4299999999999997E-2</v>
-      </c>
-      <c r="D21" s="45">
-        <v>2.8899999999999999E-2</v>
-      </c>
-      <c r="E21" s="45">
-        <v>2.7300000000000001E-2</v>
-      </c>
-      <c r="F21" s="45">
-        <v>1.84E-2</v>
-      </c>
-      <c r="G21" s="45">
-        <v>2.9100000000000001E-2</v>
-      </c>
-      <c r="H21" s="45">
-        <v>2.5399999999999999E-2</v>
-      </c>
-      <c r="I21" s="45">
-        <v>2.9700000000000001E-2</v>
-      </c>
-      <c r="J21" s="45">
-        <v>1.1900000000000001E-2</v>
-      </c>
-      <c r="K21" s="45">
-        <v>1.46E-2</v>
-      </c>
-      <c r="L21" s="45">
-        <v>1.52E-2</v>
-      </c>
-      <c r="M21" s="45">
-        <v>2.5999999999999999E-2</v>
-      </c>
-      <c r="N21" s="46">
-        <v>1</v>
-      </c>
-      <c r="O21" s="46">
-        <v>1</v>
-      </c>
-      <c r="P21" s="46">
-        <v>4</v>
-      </c>
-      <c r="Q21" s="47"/>
-      <c r="R21" s="47"/>
-      <c r="S21" s="47"/>
-      <c r="T21" s="46" t="s">
+      <c r="R22" s="56">
+        <v>0</v>
+      </c>
+      <c r="S22" s="57">
+        <v>0</v>
+      </c>
+      <c r="T22" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="U22" s="58" t="s">
         <v>46</v>
-      </c>
-      <c r="U21" s="48" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="22" spans="1:26" ht="102.75" thickBot="1">
-      <c r="A22" s="40" t="s">
-        <v>92</v>
-      </c>
-      <c r="B22" s="49">
-        <v>5.0799999999999998E-2</v>
-      </c>
-      <c r="C22" s="49">
-        <v>5.5100000000000003E-2</v>
-      </c>
-      <c r="D22" s="49">
-        <v>3.4099999999999998E-2</v>
-      </c>
-      <c r="E22" s="49">
-        <v>4.99E-2</v>
-      </c>
-      <c r="F22" s="49">
-        <v>4.0899999999999999E-2</v>
-      </c>
-      <c r="G22" s="49">
-        <v>4.5900000000000003E-2</v>
-      </c>
-      <c r="H22" s="49">
-        <v>4.7199999999999999E-2</v>
-      </c>
-      <c r="I22" s="49">
-        <v>5.9799999999999999E-2</v>
-      </c>
-      <c r="J22" s="49">
-        <v>3.9E-2</v>
-      </c>
-      <c r="K22" s="49">
-        <v>4.4200000000000003E-2</v>
-      </c>
-      <c r="L22" s="49">
-        <v>4.1500000000000002E-2</v>
-      </c>
-      <c r="M22" s="49">
-        <v>4.6699999999999998E-2</v>
-      </c>
-      <c r="N22" s="50">
-        <v>2</v>
-      </c>
-      <c r="O22" s="50">
-        <v>2</v>
-      </c>
-      <c r="P22" s="50">
-        <v>11</v>
-      </c>
-      <c r="Q22" s="50">
-        <v>1</v>
-      </c>
-      <c r="R22" s="52">
-        <v>0</v>
-      </c>
-      <c r="S22" s="53">
-        <v>0</v>
-      </c>
-      <c r="T22" s="43" t="s">
-        <v>46</v>
-      </c>
-      <c r="U22" s="51" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:26" ht="115.5" thickBot="1">
-      <c r="A23" s="54" t="s">
-        <v>126</v>
-      </c>
-      <c r="B23" s="55">
+      <c r="A23" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="B23" s="7">
         <v>8.6999999999999994E-2</v>
       </c>
-      <c r="C23" s="56" t="s">
-        <v>33</v>
-      </c>
-      <c r="D23" s="56" t="s">
-        <v>33</v>
-      </c>
-      <c r="E23" s="55">
+      <c r="C23" s="8">
+        <v>0</v>
+      </c>
+      <c r="D23" s="8">
+        <v>0</v>
+      </c>
+      <c r="E23" s="7">
         <v>9.8000000000000004E-2</v>
       </c>
-      <c r="F23" s="55">
+      <c r="F23" s="7">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="G23" s="55">
+      <c r="G23" s="7">
         <v>5.3999999999999999E-2</v>
       </c>
-      <c r="H23" s="55">
+      <c r="H23" s="7">
         <v>0.152</v>
       </c>
-      <c r="I23" s="55">
+      <c r="I23" s="7">
         <v>8.5999999999999993E-2</v>
       </c>
-      <c r="J23" s="55">
+      <c r="J23" s="7">
         <v>3.4000000000000002E-2</v>
       </c>
-      <c r="K23" s="55">
+      <c r="K23" s="7">
         <v>-0.1</v>
       </c>
-      <c r="L23" s="55">
+      <c r="L23" s="7">
         <v>2.9000000000000001E-2</v>
       </c>
-      <c r="M23" s="55">
+      <c r="M23" s="7">
         <v>0.188</v>
       </c>
-      <c r="N23" s="62">
+      <c r="N23" s="59">
         <v>4</v>
       </c>
-      <c r="O23" s="63"/>
-      <c r="P23" s="64"/>
-      <c r="Q23" s="118"/>
-      <c r="R23" s="119"/>
-      <c r="S23" s="120"/>
-      <c r="T23" s="57" t="s">
-        <v>93</v>
-      </c>
-      <c r="U23" s="57" t="s">
-        <v>93</v>
+      <c r="O23" s="60"/>
+      <c r="P23" s="61"/>
+      <c r="Q23" s="62"/>
+      <c r="R23" s="63"/>
+      <c r="S23" s="64"/>
+      <c r="T23" s="65" t="s">
+        <v>92</v>
+      </c>
+      <c r="U23" s="65" t="s">
+        <v>92</v>
       </c>
     </row>
-    <row r="24" spans="1:26" ht="141" thickBot="1">
-      <c r="A24" s="58" t="s">
-        <v>68</v>
-      </c>
-      <c r="B24" s="59" t="s">
-        <v>33</v>
-      </c>
-      <c r="C24" s="59">
+    <row r="24" spans="1:26" ht="128.25" thickBot="1">
+      <c r="A24" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B24" s="12">
+        <v>0</v>
+      </c>
+      <c r="C24" s="12">
         <v>43</v>
       </c>
-      <c r="D24" s="59" t="s">
-        <v>33</v>
-      </c>
-      <c r="E24" s="59">
+      <c r="D24" s="12">
+        <v>0</v>
+      </c>
+      <c r="E24" s="12">
         <v>42</v>
       </c>
-      <c r="F24" s="59">
+      <c r="F24" s="12">
         <v>27</v>
       </c>
-      <c r="G24" s="59">
+      <c r="G24" s="12">
         <v>39</v>
       </c>
-      <c r="H24" s="59">
+      <c r="H24" s="12">
         <v>39</v>
       </c>
-      <c r="I24" s="59">
+      <c r="I24" s="12">
         <v>44</v>
       </c>
-      <c r="J24" s="59">
+      <c r="J24" s="12">
         <v>35</v>
       </c>
-      <c r="K24" s="59">
+      <c r="K24" s="12">
         <v>37</v>
       </c>
-      <c r="L24" s="59">
+      <c r="L24" s="12">
         <v>37</v>
       </c>
-      <c r="M24" s="59">
+      <c r="M24" s="12">
         <v>52</v>
       </c>
-      <c r="N24" s="59"/>
-      <c r="O24" s="59">
+      <c r="N24" s="12"/>
+      <c r="O24" s="12">
         <v>3</v>
       </c>
-      <c r="P24" s="59"/>
-      <c r="Q24" s="60"/>
-      <c r="R24" s="60"/>
-      <c r="S24" s="60"/>
-      <c r="T24" s="60"/>
-      <c r="U24" s="60"/>
+      <c r="P24" s="12"/>
+      <c r="Q24" s="13"/>
+      <c r="R24" s="13"/>
+      <c r="S24" s="13"/>
+      <c r="T24" s="13"/>
+      <c r="U24" s="13"/>
     </row>
     <row r="25" spans="1:26" ht="39" thickBot="1">
-      <c r="A25" s="61" t="s">
+      <c r="A25" s="66" t="s">
+        <v>93</v>
+      </c>
+      <c r="B25" s="66">
+        <v>0</v>
+      </c>
+      <c r="C25" s="66" t="s">
         <v>94</v>
       </c>
-      <c r="B25" s="61" t="s">
-        <v>33</v>
-      </c>
-      <c r="C25" s="61" t="s">
+      <c r="D25" s="66" t="s">
         <v>95</v>
       </c>
-      <c r="D25" s="61" t="s">
+      <c r="E25" s="66" t="s">
         <v>96</v>
       </c>
-      <c r="E25" s="61" t="s">
+      <c r="F25" s="66" t="s">
         <v>97</v>
       </c>
-      <c r="F25" s="61" t="s">
+      <c r="G25" s="66" t="s">
         <v>98</v>
       </c>
-      <c r="G25" s="61" t="s">
+      <c r="H25" s="66" t="s">
         <v>99</v>
       </c>
-      <c r="H25" s="61" t="s">
+      <c r="I25" s="66" t="s">
         <v>100</v>
       </c>
-      <c r="I25" s="61" t="s">
+      <c r="J25" s="66" t="s">
         <v>101</v>
       </c>
-      <c r="J25" s="61" t="s">
+      <c r="K25" s="66" t="s">
         <v>102</v>
       </c>
-      <c r="K25" s="61" t="s">
+      <c r="L25" s="66" t="s">
         <v>103</v>
       </c>
-      <c r="L25" s="61" t="s">
+      <c r="M25" s="66" t="s">
         <v>104</v>
       </c>
-      <c r="M25" s="61" t="s">
+      <c r="N25" s="66"/>
+      <c r="O25" s="66">
+        <v>4</v>
+      </c>
+      <c r="P25" s="66">
+        <v>7</v>
+      </c>
+      <c r="Q25" s="66"/>
+      <c r="R25" s="66">
+        <v>1</v>
+      </c>
+      <c r="S25" s="66">
+        <v>1</v>
+      </c>
+      <c r="T25" s="66" t="s">
         <v>105</v>
       </c>
-      <c r="N25" s="61"/>
-      <c r="O25" s="61">
-        <v>4</v>
-      </c>
-      <c r="P25" s="61">
+      <c r="U25" s="66" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" ht="64.5" thickBot="1">
+      <c r="A26" s="67" t="s">
+        <v>107</v>
+      </c>
+      <c r="B26" s="68">
+        <v>0</v>
+      </c>
+      <c r="C26" s="68">
+        <v>24</v>
+      </c>
+      <c r="D26" s="68">
+        <v>0</v>
+      </c>
+      <c r="E26" s="68">
+        <v>38</v>
+      </c>
+      <c r="F26" s="68">
+        <v>24</v>
+      </c>
+      <c r="G26" s="68">
+        <v>27</v>
+      </c>
+      <c r="H26" s="68">
+        <v>16</v>
+      </c>
+      <c r="I26" s="68">
+        <v>21</v>
+      </c>
+      <c r="J26" s="68">
+        <v>24</v>
+      </c>
+      <c r="K26" s="68">
+        <v>18</v>
+      </c>
+      <c r="L26" s="68">
+        <v>11</v>
+      </c>
+      <c r="M26" s="68">
         <v>7</v>
       </c>
-      <c r="Q25" s="61"/>
-      <c r="R25" s="61">
+      <c r="N26" s="9"/>
+      <c r="O26" s="68">
+        <v>3</v>
+      </c>
+      <c r="P26" s="68"/>
+      <c r="Q26" s="68"/>
+      <c r="R26" s="68">
         <v>1</v>
       </c>
-      <c r="S25" s="61">
-        <v>1</v>
-      </c>
-      <c r="T25" s="61" t="s">
-        <v>106</v>
-      </c>
-      <c r="U25" s="61" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="26" spans="1:26" ht="77.25" thickBot="1">
-      <c r="A26" s="65" t="s">
+      <c r="S26" s="68"/>
+      <c r="T26" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="U26" s="9" t="s">
         <v>108</v>
-      </c>
-      <c r="B26" s="66" t="s">
-        <v>33</v>
-      </c>
-      <c r="C26" s="66">
-        <v>24</v>
-      </c>
-      <c r="D26" s="66" t="s">
-        <v>33</v>
-      </c>
-      <c r="E26" s="66">
-        <v>38</v>
-      </c>
-      <c r="F26" s="66">
-        <v>24</v>
-      </c>
-      <c r="G26" s="66">
-        <v>27</v>
-      </c>
-      <c r="H26" s="66">
-        <v>16</v>
-      </c>
-      <c r="I26" s="66">
-        <v>21</v>
-      </c>
-      <c r="J26" s="66">
-        <v>24</v>
-      </c>
-      <c r="K26" s="66">
-        <v>18</v>
-      </c>
-      <c r="L26" s="66">
-        <v>11</v>
-      </c>
-      <c r="M26" s="66">
-        <v>7</v>
-      </c>
-      <c r="N26" s="67"/>
-      <c r="O26" s="66">
-        <v>3</v>
-      </c>
-      <c r="P26" s="66"/>
-      <c r="Q26" s="66"/>
-      <c r="R26" s="66">
-        <v>1</v>
-      </c>
-      <c r="S26" s="66"/>
-      <c r="T26" s="68" t="s">
-        <v>27</v>
-      </c>
-      <c r="U26" s="68" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="27" spans="1:26" ht="115.5" thickBot="1">
       <c r="A27" s="69" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B27" s="70">
         <v>8.8999999999999996E-2</v>
@@ -3468,20 +3428,20 @@
       <c r="Q27" s="71">
         <v>-1</v>
       </c>
-      <c r="R27" s="73">
-        <v>0</v>
-      </c>
-      <c r="S27" s="74"/>
+      <c r="R27" s="72">
+        <v>0</v>
+      </c>
+      <c r="S27" s="73"/>
       <c r="T27" s="71" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U27" s="71" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="28" spans="1:26" ht="90" thickBot="1">
       <c r="A28" s="69" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B28" s="70">
         <v>2.5600000000000001E-2</v>
@@ -3528,19 +3488,19 @@
       <c r="P28" s="71">
         <v>11</v>
       </c>
-      <c r="Q28" s="72"/>
-      <c r="R28" s="72"/>
-      <c r="S28" s="72"/>
+      <c r="Q28" s="74"/>
+      <c r="R28" s="74"/>
+      <c r="S28" s="74"/>
       <c r="T28" s="71" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U28" s="71" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="29" spans="1:26" ht="51.75" thickBot="1">
       <c r="A29" s="75" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B29" s="76">
         <v>0.23300000000000001</v>
@@ -3587,734 +3547,734 @@
       <c r="P29" s="77">
         <v>7</v>
       </c>
-      <c r="Q29" s="90">
-        <v>0</v>
-      </c>
-      <c r="R29" s="91">
-        <v>0</v>
-      </c>
-      <c r="S29" s="92">
-        <v>0</v>
-      </c>
-      <c r="T29" s="78" t="s">
-        <v>46</v>
-      </c>
-      <c r="U29" s="78" t="s">
-        <v>91</v>
-      </c>
-      <c r="V29" s="78"/>
-      <c r="W29" s="78"/>
-      <c r="X29" s="78"/>
-      <c r="Y29" s="78"/>
+      <c r="Q29" s="78">
+        <v>0</v>
+      </c>
+      <c r="R29" s="79">
+        <v>0</v>
+      </c>
+      <c r="S29" s="80">
+        <v>0</v>
+      </c>
+      <c r="T29" s="81" t="s">
+        <v>45</v>
+      </c>
+      <c r="U29" s="81" t="s">
+        <v>90</v>
+      </c>
+      <c r="V29" s="81"/>
+      <c r="W29" s="81"/>
+      <c r="X29" s="81"/>
+      <c r="Y29" s="81"/>
     </row>
     <row r="30" spans="1:26" ht="51.75" thickBot="1">
-      <c r="A30" s="79" t="s">
-        <v>113</v>
-      </c>
-      <c r="B30" s="80">
+      <c r="A30" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="B30" s="82">
         <v>-2.01E-2</v>
       </c>
-      <c r="C30" s="80">
+      <c r="C30" s="82">
         <v>-1.9900000000000001E-2</v>
       </c>
-      <c r="D30" s="80">
+      <c r="D30" s="82">
         <v>-2.06E-2</v>
       </c>
-      <c r="E30" s="80">
+      <c r="E30" s="82">
         <v>-1.67E-2</v>
       </c>
-      <c r="F30" s="80">
+      <c r="F30" s="82">
         <v>-1.9199999999999998E-2</v>
       </c>
-      <c r="G30" s="80">
+      <c r="G30" s="82">
         <v>-1.7500000000000002E-2</v>
       </c>
-      <c r="H30" s="80">
+      <c r="H30" s="82">
         <v>-2.3400000000000001E-2</v>
       </c>
-      <c r="I30" s="80">
+      <c r="I30" s="82">
         <v>-1.6899999999999998E-2</v>
       </c>
-      <c r="J30" s="80">
+      <c r="J30" s="82">
         <v>-2.1499999999999998E-2</v>
       </c>
-      <c r="K30" s="80">
+      <c r="K30" s="82">
         <v>-1.6899999999999998E-2</v>
       </c>
-      <c r="L30" s="80">
+      <c r="L30" s="82">
         <v>-2.23E-2</v>
       </c>
-      <c r="M30" s="80">
+      <c r="M30" s="82">
         <v>-1.78E-2</v>
       </c>
-      <c r="N30" s="81">
+      <c r="N30" s="83">
         <v>4</v>
       </c>
-      <c r="O30" s="81">
+      <c r="O30" s="83">
         <v>5</v>
       </c>
-      <c r="P30" s="82">
+      <c r="P30" s="84">
         <v>4</v>
       </c>
-      <c r="Q30" s="83"/>
-      <c r="R30" s="83"/>
-      <c r="S30" s="83"/>
-      <c r="T30" s="84" t="s">
-        <v>46</v>
-      </c>
-      <c r="U30" s="84" t="s">
-        <v>91</v>
-      </c>
-      <c r="V30" s="85"/>
-      <c r="W30" s="85"/>
-      <c r="X30" s="85"/>
-      <c r="Y30" s="85"/>
+      <c r="Q30" s="85"/>
+      <c r="R30" s="85"/>
+      <c r="S30" s="85"/>
+      <c r="T30" s="86" t="s">
+        <v>45</v>
+      </c>
+      <c r="U30" s="86" t="s">
+        <v>90</v>
+      </c>
+      <c r="V30" s="87"/>
+      <c r="W30" s="87"/>
+      <c r="X30" s="87"/>
+      <c r="Y30" s="87"/>
     </row>
     <row r="31" spans="1:26" ht="51.75" thickBot="1">
-      <c r="A31" s="86" t="s">
+      <c r="A31" s="88" t="s">
+        <v>113</v>
+      </c>
+      <c r="B31" s="89">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="C31" s="90">
+        <v>0</v>
+      </c>
+      <c r="D31" s="91">
+        <v>0</v>
+      </c>
+      <c r="E31" s="89">
+        <v>0.90500000000000003</v>
+      </c>
+      <c r="F31" s="89">
+        <v>0.89700000000000002</v>
+      </c>
+      <c r="G31" s="89">
+        <v>0.92100000000000004</v>
+      </c>
+      <c r="H31" s="89">
+        <v>0.89100000000000001</v>
+      </c>
+      <c r="I31" s="89">
+        <v>0.91200000000000003</v>
+      </c>
+      <c r="J31" s="89">
+        <v>0.89900000000000002</v>
+      </c>
+      <c r="K31" s="89">
+        <v>0.93100000000000005</v>
+      </c>
+      <c r="L31" s="89">
+        <v>0.93100000000000005</v>
+      </c>
+      <c r="M31" s="89">
+        <v>0.94199999999999995</v>
+      </c>
+      <c r="N31" s="78">
+        <v>4</v>
+      </c>
+      <c r="O31" s="79">
+        <v>4</v>
+      </c>
+      <c r="P31" s="80">
+        <v>4</v>
+      </c>
+      <c r="Q31" s="78">
+        <v>-1</v>
+      </c>
+      <c r="R31" s="79">
+        <v>-1</v>
+      </c>
+      <c r="S31" s="80">
+        <v>-1</v>
+      </c>
+      <c r="T31" s="90" t="s">
         <v>114</v>
       </c>
-      <c r="B31" s="87">
-        <v>0.92600000000000005</v>
-      </c>
-      <c r="C31" s="88" t="s">
-        <v>33</v>
-      </c>
-      <c r="D31" s="89" t="s">
-        <v>33</v>
-      </c>
-      <c r="E31" s="87">
-        <v>0.90500000000000003</v>
-      </c>
-      <c r="F31" s="87">
-        <v>0.89700000000000002</v>
-      </c>
-      <c r="G31" s="87">
-        <v>0.92100000000000004</v>
-      </c>
-      <c r="H31" s="87">
-        <v>0.89100000000000001</v>
-      </c>
-      <c r="I31" s="87">
-        <v>0.91200000000000003</v>
-      </c>
-      <c r="J31" s="87">
-        <v>0.89900000000000002</v>
-      </c>
-      <c r="K31" s="87">
-        <v>0.93100000000000005</v>
-      </c>
-      <c r="L31" s="87">
-        <v>0.93100000000000005</v>
-      </c>
-      <c r="M31" s="87">
-        <v>0.94199999999999995</v>
-      </c>
-      <c r="N31" s="90">
-        <v>4</v>
-      </c>
-      <c r="O31" s="91">
-        <v>4</v>
-      </c>
-      <c r="P31" s="92">
-        <v>4</v>
-      </c>
-      <c r="Q31" s="90">
-        <v>-1</v>
-      </c>
-      <c r="R31" s="91">
-        <v>-1</v>
-      </c>
-      <c r="S31" s="92">
-        <v>-1</v>
-      </c>
-      <c r="T31" s="88" t="s">
+      <c r="U31" s="90" t="s">
         <v>115</v>
       </c>
-      <c r="U31" s="88" t="s">
-        <v>116</v>
-      </c>
-      <c r="V31" s="88"/>
-      <c r="W31" s="88"/>
-      <c r="X31" s="88"/>
-      <c r="Y31" s="88"/>
+      <c r="V31" s="90"/>
+      <c r="W31" s="90"/>
+      <c r="X31" s="90"/>
+      <c r="Y31" s="90"/>
     </row>
     <row r="32" spans="1:26" ht="64.5" thickBot="1">
-      <c r="A32" s="93" t="s">
-        <v>117</v>
-      </c>
-      <c r="B32" s="94">
+      <c r="A32" s="92" t="s">
+        <v>116</v>
+      </c>
+      <c r="B32" s="93">
         <v>3820</v>
       </c>
-      <c r="C32" s="94">
+      <c r="C32" s="93">
         <v>1043</v>
       </c>
-      <c r="D32" s="94">
+      <c r="D32" s="93">
         <v>2777</v>
       </c>
-      <c r="E32" s="95">
+      <c r="E32" s="94">
         <v>10</v>
       </c>
-      <c r="F32" s="95">
+      <c r="F32" s="94">
         <v>302</v>
       </c>
-      <c r="G32" s="95">
+      <c r="G32" s="94">
         <v>57</v>
       </c>
-      <c r="H32" s="95">
+      <c r="H32" s="94">
         <v>61</v>
       </c>
-      <c r="I32" s="95">
+      <c r="I32" s="94">
         <v>603</v>
       </c>
-      <c r="J32" s="95">
+      <c r="J32" s="94">
         <v>512</v>
       </c>
-      <c r="K32" s="95">
+      <c r="K32" s="94">
         <v>11</v>
       </c>
-      <c r="L32" s="95">
+      <c r="L32" s="94">
         <v>10</v>
       </c>
-      <c r="M32" s="95">
-        <v>0</v>
-      </c>
-      <c r="N32" s="95">
+      <c r="M32" s="94">
+        <v>0</v>
+      </c>
+      <c r="N32" s="94">
         <v>1</v>
       </c>
-      <c r="O32" s="95">
+      <c r="O32" s="94">
         <v>2</v>
       </c>
-      <c r="P32" s="95">
+      <c r="P32" s="94">
         <v>1</v>
       </c>
-      <c r="Q32" s="103">
-        <v>0</v>
-      </c>
-      <c r="R32" s="104">
-        <v>0</v>
-      </c>
-      <c r="S32" s="105">
-        <v>0</v>
-      </c>
-      <c r="T32" s="95" t="s">
-        <v>46</v>
-      </c>
-      <c r="U32" s="95" t="s">
-        <v>111</v>
-      </c>
-      <c r="V32" s="96"/>
-      <c r="W32" s="96"/>
-      <c r="X32" s="96"/>
-      <c r="Y32" s="96"/>
+      <c r="Q32" s="95">
+        <v>0</v>
+      </c>
+      <c r="R32" s="96">
+        <v>0</v>
+      </c>
+      <c r="S32" s="97">
+        <v>0</v>
+      </c>
+      <c r="T32" s="94" t="s">
+        <v>45</v>
+      </c>
+      <c r="U32" s="94" t="s">
+        <v>110</v>
+      </c>
+      <c r="V32" s="98"/>
+      <c r="W32" s="98"/>
+      <c r="X32" s="98"/>
+      <c r="Y32" s="98"/>
     </row>
     <row r="33" spans="1:25" ht="51.75" thickBot="1">
-      <c r="A33" s="93" t="s">
-        <v>118</v>
-      </c>
-      <c r="B33" s="97">
+      <c r="A33" s="92" t="s">
+        <v>117</v>
+      </c>
+      <c r="B33" s="99">
         <v>2.3E-2</v>
       </c>
-      <c r="C33" s="97">
+      <c r="C33" s="99">
         <v>4.7E-2</v>
       </c>
-      <c r="D33" s="97">
+      <c r="D33" s="99">
         <v>1.47E-2</v>
       </c>
-      <c r="E33" s="95" t="s">
-        <v>33</v>
-      </c>
-      <c r="F33" s="97">
+      <c r="E33" s="94">
+        <v>0</v>
+      </c>
+      <c r="F33" s="99">
         <v>3.44E-2</v>
       </c>
-      <c r="G33" s="97">
+      <c r="G33" s="99">
         <v>-0.15709999999999999</v>
       </c>
-      <c r="H33" s="97">
+      <c r="H33" s="99">
         <v>3.2399999999999998E-2</v>
       </c>
-      <c r="I33" s="97">
+      <c r="I33" s="99">
         <v>2.7000000000000001E-3</v>
       </c>
-      <c r="J33" s="97">
+      <c r="J33" s="99">
         <v>-4.0000000000000002E-4</v>
       </c>
-      <c r="K33" s="95" t="s">
-        <v>33</v>
-      </c>
-      <c r="L33" s="95" t="s">
-        <v>33</v>
-      </c>
-      <c r="M33" s="95" t="s">
-        <v>33</v>
-      </c>
-      <c r="N33" s="95">
+      <c r="K33" s="94">
+        <v>0</v>
+      </c>
+      <c r="L33" s="94">
+        <v>0</v>
+      </c>
+      <c r="M33" s="94">
+        <v>0</v>
+      </c>
+      <c r="N33" s="94">
         <v>3</v>
       </c>
-      <c r="O33" s="95">
+      <c r="O33" s="94">
         <v>1</v>
       </c>
-      <c r="P33" s="95">
+      <c r="P33" s="94">
         <v>3</v>
       </c>
-      <c r="Q33" s="98"/>
-      <c r="R33" s="98"/>
-      <c r="S33" s="98"/>
-      <c r="T33" s="95" t="s">
-        <v>46</v>
-      </c>
-      <c r="U33" s="95" t="s">
-        <v>111</v>
-      </c>
-      <c r="V33" s="96"/>
-      <c r="W33" s="96"/>
-      <c r="X33" s="96"/>
-      <c r="Y33" s="96"/>
+      <c r="Q33" s="100"/>
+      <c r="R33" s="100"/>
+      <c r="S33" s="100"/>
+      <c r="T33" s="94" t="s">
+        <v>45</v>
+      </c>
+      <c r="U33" s="94" t="s">
+        <v>110</v>
+      </c>
+      <c r="V33" s="98"/>
+      <c r="W33" s="98"/>
+      <c r="X33" s="98"/>
+      <c r="Y33" s="98"/>
     </row>
     <row r="34" spans="1:25" ht="64.5" thickBot="1">
-      <c r="A34" s="93" t="s">
-        <v>119</v>
-      </c>
-      <c r="B34" s="94">
+      <c r="A34" s="92" t="s">
+        <v>118</v>
+      </c>
+      <c r="B34" s="93">
         <v>7374</v>
       </c>
-      <c r="C34" s="94">
+      <c r="C34" s="93">
         <v>2665</v>
       </c>
-      <c r="D34" s="94">
+      <c r="D34" s="93">
         <v>4709</v>
       </c>
-      <c r="E34" s="95">
+      <c r="E34" s="94">
         <v>428</v>
       </c>
-      <c r="F34" s="94">
+      <c r="F34" s="93">
         <v>10124</v>
       </c>
-      <c r="G34" s="94">
+      <c r="G34" s="93">
         <v>33739</v>
       </c>
-      <c r="H34" s="95">
+      <c r="H34" s="94">
         <v>297</v>
       </c>
-      <c r="I34" s="94">
+      <c r="I34" s="93">
         <v>6637</v>
       </c>
-      <c r="J34" s="94">
+      <c r="J34" s="93">
         <v>2086</v>
       </c>
-      <c r="K34" s="94">
+      <c r="K34" s="93">
         <v>1015</v>
       </c>
-      <c r="L34" s="95">
+      <c r="L34" s="94">
         <v>21</v>
       </c>
-      <c r="M34" s="95">
+      <c r="M34" s="94">
         <v>4</v>
       </c>
-      <c r="N34" s="95">
+      <c r="N34" s="94">
         <v>3</v>
       </c>
-      <c r="O34" s="95">
+      <c r="O34" s="94">
         <v>5</v>
       </c>
-      <c r="P34" s="95">
+      <c r="P34" s="94">
         <v>4</v>
       </c>
-      <c r="Q34" s="103">
-        <v>0</v>
-      </c>
-      <c r="R34" s="104">
-        <v>0</v>
-      </c>
-      <c r="S34" s="105">
-        <v>0</v>
-      </c>
-      <c r="T34" s="95" t="s">
-        <v>46</v>
-      </c>
-      <c r="U34" s="95" t="s">
-        <v>111</v>
-      </c>
-      <c r="V34" s="96"/>
-      <c r="W34" s="96"/>
-      <c r="X34" s="96"/>
-      <c r="Y34" s="96"/>
+      <c r="Q34" s="95">
+        <v>0</v>
+      </c>
+      <c r="R34" s="96">
+        <v>0</v>
+      </c>
+      <c r="S34" s="97">
+        <v>0</v>
+      </c>
+      <c r="T34" s="94" t="s">
+        <v>45</v>
+      </c>
+      <c r="U34" s="94" t="s">
+        <v>110</v>
+      </c>
+      <c r="V34" s="98"/>
+      <c r="W34" s="98"/>
+      <c r="X34" s="98"/>
+      <c r="Y34" s="98"/>
     </row>
     <row r="35" spans="1:25" ht="51.75" thickBot="1">
-      <c r="A35" s="99" t="s">
-        <v>118</v>
-      </c>
-      <c r="B35" s="100">
+      <c r="A35" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="B35" s="101">
         <v>4.8500000000000001E-2</v>
       </c>
-      <c r="C35" s="100">
+      <c r="C35" s="101">
         <v>3.2199999999999999E-2</v>
       </c>
-      <c r="D35" s="100">
+      <c r="D35" s="101">
         <v>5.8400000000000001E-2</v>
       </c>
-      <c r="E35" s="100">
+      <c r="E35" s="101">
         <v>1.6199999999999999E-2</v>
       </c>
-      <c r="F35" s="100">
+      <c r="F35" s="101">
         <v>2.2800000000000001E-2</v>
       </c>
-      <c r="G35" s="100">
+      <c r="G35" s="101">
         <v>3.7999999999999999E-2</v>
       </c>
-      <c r="H35" s="100">
+      <c r="H35" s="101">
         <v>1.1900000000000001E-2</v>
       </c>
-      <c r="I35" s="100">
+      <c r="I35" s="101">
         <v>1.77E-2</v>
       </c>
-      <c r="J35" s="100">
+      <c r="J35" s="101">
         <v>-4.7000000000000002E-3</v>
       </c>
-      <c r="K35" s="100">
+      <c r="K35" s="101">
         <v>1E-3</v>
       </c>
-      <c r="L35" s="100">
+      <c r="L35" s="101">
         <v>0.2457</v>
       </c>
-      <c r="M35" s="100">
+      <c r="M35" s="101">
         <v>5.9200000000000003E-2</v>
       </c>
-      <c r="N35" s="101">
+      <c r="N35" s="102">
         <v>3</v>
       </c>
-      <c r="O35" s="101">
+      <c r="O35" s="102">
         <v>5</v>
       </c>
-      <c r="P35" s="101">
+      <c r="P35" s="102">
         <v>3</v>
       </c>
-      <c r="Q35" s="102"/>
-      <c r="R35" s="102"/>
-      <c r="S35" s="102"/>
-      <c r="T35" s="101" t="s">
-        <v>46</v>
-      </c>
-      <c r="U35" s="101" t="s">
-        <v>111</v>
-      </c>
-      <c r="V35" s="102"/>
-      <c r="W35" s="102"/>
-      <c r="X35" s="102"/>
-      <c r="Y35" s="102"/>
+      <c r="Q35" s="103"/>
+      <c r="R35" s="103"/>
+      <c r="S35" s="103"/>
+      <c r="T35" s="102" t="s">
+        <v>45</v>
+      </c>
+      <c r="U35" s="102" t="s">
+        <v>110</v>
+      </c>
+      <c r="V35" s="103"/>
+      <c r="W35" s="103"/>
+      <c r="X35" s="103"/>
+      <c r="Y35" s="103"/>
     </row>
     <row r="36" spans="1:25" ht="77.25" thickBot="1">
-      <c r="A36" s="106" t="s">
+      <c r="A36" s="104" t="s">
+        <v>119</v>
+      </c>
+      <c r="B36" s="105">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="C36" s="105">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="D36" s="105">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="E36" s="105">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="F36" s="105">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="G36" s="105">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="H36" s="105">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="I36" s="105">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="J36" s="105">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="K36" s="105">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="L36" s="105">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="M36" s="105">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="N36" s="106">
+        <v>4</v>
+      </c>
+      <c r="O36" s="106">
+        <v>2</v>
+      </c>
+      <c r="P36" s="106">
+        <v>11</v>
+      </c>
+      <c r="Q36" s="107">
+        <v>0</v>
+      </c>
+      <c r="R36" s="108">
+        <v>0</v>
+      </c>
+      <c r="S36" s="109">
+        <v>0</v>
+      </c>
+      <c r="T36" s="106" t="s">
         <v>120</v>
       </c>
-      <c r="B36" s="107">
-        <v>7.1999999999999995E-2</v>
-      </c>
-      <c r="C36" s="107">
-        <v>8.5000000000000006E-2</v>
-      </c>
-      <c r="D36" s="107">
-        <v>1.0999999999999999E-2</v>
-      </c>
-      <c r="E36" s="107">
-        <v>5.7000000000000002E-2</v>
-      </c>
-      <c r="F36" s="107">
-        <v>4.9000000000000002E-2</v>
-      </c>
-      <c r="G36" s="107">
-        <v>7.6999999999999999E-2</v>
-      </c>
-      <c r="H36" s="107">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="I36" s="107">
-        <v>5.8000000000000003E-2</v>
-      </c>
-      <c r="J36" s="107">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="K36" s="107">
-        <v>4.2000000000000003E-2</v>
-      </c>
-      <c r="L36" s="107">
-        <v>0.11700000000000001</v>
-      </c>
-      <c r="M36" s="107">
-        <v>8.3000000000000004E-2</v>
-      </c>
-      <c r="N36" s="108">
-        <v>4</v>
-      </c>
-      <c r="O36" s="108">
-        <v>2</v>
-      </c>
-      <c r="P36" s="108">
-        <v>11</v>
-      </c>
-      <c r="Q36" s="115">
-        <v>0</v>
-      </c>
-      <c r="R36" s="116">
-        <v>0</v>
-      </c>
-      <c r="S36" s="117">
-        <v>0</v>
-      </c>
-      <c r="T36" s="108" t="s">
+      <c r="U36" s="110" t="s">
         <v>121</v>
       </c>
-      <c r="U36" s="109" t="s">
-        <v>122</v>
-      </c>
-      <c r="V36" s="110"/>
-      <c r="W36" s="110"/>
-      <c r="X36" s="110"/>
-      <c r="Y36" s="110"/>
+      <c r="V36" s="111"/>
+      <c r="W36" s="111"/>
+      <c r="X36" s="111"/>
+      <c r="Y36" s="111"/>
     </row>
     <row r="37" spans="1:25" ht="102.75" thickBot="1">
-      <c r="A37" s="106" t="s">
-        <v>123</v>
-      </c>
-      <c r="B37" s="107">
+      <c r="A37" s="104" t="s">
+        <v>122</v>
+      </c>
+      <c r="B37" s="105">
         <v>3.6799999999999999E-2</v>
       </c>
-      <c r="C37" s="107">
+      <c r="C37" s="105">
         <v>3.8600000000000002E-2</v>
       </c>
-      <c r="D37" s="107">
+      <c r="D37" s="105">
         <v>-2.1399999999999999E-2</v>
       </c>
-      <c r="E37" s="107">
+      <c r="E37" s="105">
         <v>2.4299999999999999E-2</v>
       </c>
-      <c r="F37" s="107">
+      <c r="F37" s="105">
         <v>6.7000000000000002E-3</v>
       </c>
-      <c r="G37" s="107">
+      <c r="G37" s="105">
         <v>2.01E-2</v>
       </c>
-      <c r="H37" s="107">
+      <c r="H37" s="105">
         <v>4.0899999999999999E-2</v>
       </c>
-      <c r="I37" s="107">
+      <c r="I37" s="105">
         <v>1.8100000000000002E-2</v>
       </c>
-      <c r="J37" s="107">
+      <c r="J37" s="105">
         <v>2.63E-2</v>
       </c>
-      <c r="K37" s="107">
+      <c r="K37" s="105">
         <v>1.61E-2</v>
       </c>
-      <c r="L37" s="107">
+      <c r="L37" s="105">
         <v>1.1999999999999999E-3</v>
       </c>
-      <c r="M37" s="107">
+      <c r="M37" s="105">
         <v>3.0800000000000001E-2</v>
       </c>
-      <c r="N37" s="108">
+      <c r="N37" s="106">
         <v>2</v>
       </c>
-      <c r="O37" s="108">
+      <c r="O37" s="106">
         <v>2</v>
       </c>
-      <c r="P37" s="108">
+      <c r="P37" s="106">
         <v>11</v>
       </c>
-      <c r="Q37" s="110"/>
-      <c r="R37" s="110"/>
-      <c r="S37" s="110"/>
-      <c r="T37" s="108" t="s">
+      <c r="Q37" s="111"/>
+      <c r="R37" s="111"/>
+      <c r="S37" s="111"/>
+      <c r="T37" s="106" t="s">
+        <v>120</v>
+      </c>
+      <c r="U37" s="110" t="s">
         <v>121</v>
       </c>
-      <c r="U37" s="109" t="s">
-        <v>122</v>
-      </c>
-      <c r="V37" s="110"/>
-      <c r="W37" s="110"/>
-      <c r="X37" s="110"/>
-      <c r="Y37" s="110"/>
+      <c r="V37" s="111"/>
+      <c r="W37" s="111"/>
+      <c r="X37" s="111"/>
+      <c r="Y37" s="111"/>
     </row>
     <row r="38" spans="1:25" ht="90" thickBot="1">
-      <c r="A38" s="106" t="s">
-        <v>124</v>
-      </c>
-      <c r="B38" s="107">
+      <c r="A38" s="104" t="s">
+        <v>123</v>
+      </c>
+      <c r="B38" s="105">
         <v>3.0099999999999998E-2</v>
       </c>
-      <c r="C38" s="107">
+      <c r="C38" s="105">
         <v>3.2800000000000003E-2</v>
       </c>
-      <c r="D38" s="107">
+      <c r="D38" s="105">
         <v>5.7000000000000002E-3</v>
       </c>
-      <c r="E38" s="107">
+      <c r="E38" s="105">
         <v>1.83E-2</v>
       </c>
-      <c r="F38" s="107">
+      <c r="F38" s="105">
         <v>1.2500000000000001E-2</v>
       </c>
-      <c r="G38" s="107">
+      <c r="G38" s="105">
         <v>2.2599999999999999E-2</v>
       </c>
-      <c r="H38" s="107">
+      <c r="H38" s="105">
         <v>2.4799999999999999E-2</v>
       </c>
-      <c r="I38" s="107">
+      <c r="I38" s="105">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="J38" s="107">
+      <c r="J38" s="105">
         <v>8.8000000000000005E-3</v>
       </c>
-      <c r="K38" s="107">
+      <c r="K38" s="105">
         <v>1.09E-2</v>
       </c>
-      <c r="L38" s="107">
+      <c r="L38" s="105">
         <v>1.04E-2</v>
       </c>
-      <c r="M38" s="107">
+      <c r="M38" s="105">
         <v>0.02</v>
       </c>
-      <c r="N38" s="108">
+      <c r="N38" s="106">
         <v>1</v>
       </c>
-      <c r="O38" s="108">
+      <c r="O38" s="106">
         <v>1</v>
       </c>
-      <c r="P38" s="108">
+      <c r="P38" s="106">
         <v>11</v>
       </c>
-      <c r="Q38" s="110"/>
-      <c r="R38" s="110"/>
-      <c r="S38" s="110"/>
-      <c r="T38" s="108" t="s">
-        <v>46</v>
-      </c>
-      <c r="U38" s="108" t="s">
-        <v>37</v>
-      </c>
-      <c r="V38" s="110"/>
-      <c r="W38" s="110"/>
-      <c r="X38" s="110"/>
-      <c r="Y38" s="110"/>
+      <c r="Q38" s="111"/>
+      <c r="R38" s="111"/>
+      <c r="S38" s="111"/>
+      <c r="T38" s="106" t="s">
+        <v>45</v>
+      </c>
+      <c r="U38" s="106" t="s">
+        <v>36</v>
+      </c>
+      <c r="V38" s="111"/>
+      <c r="W38" s="111"/>
+      <c r="X38" s="111"/>
+      <c r="Y38" s="111"/>
     </row>
     <row r="39" spans="1:25" ht="77.25" thickBot="1">
-      <c r="A39" s="111" t="s">
+      <c r="A39" s="112" t="s">
         <v>30</v>
       </c>
-      <c r="B39" s="112" t="s">
-        <v>33</v>
-      </c>
-      <c r="C39" s="112">
+      <c r="B39" s="113">
+        <v>0</v>
+      </c>
+      <c r="C39" s="113">
         <v>10.7</v>
       </c>
-      <c r="D39" s="112" t="s">
-        <v>33</v>
-      </c>
-      <c r="E39" s="112">
+      <c r="D39" s="113">
+        <v>0</v>
+      </c>
+      <c r="E39" s="113">
         <v>11.1</v>
       </c>
-      <c r="F39" s="112">
+      <c r="F39" s="113">
         <v>11.8</v>
       </c>
-      <c r="G39" s="112">
+      <c r="G39" s="113">
         <v>10.5</v>
       </c>
-      <c r="H39" s="112">
+      <c r="H39" s="113">
         <v>11.1</v>
       </c>
-      <c r="I39" s="112">
+      <c r="I39" s="113">
         <v>11.1</v>
       </c>
-      <c r="J39" s="112">
+      <c r="J39" s="113">
         <v>13.5</v>
       </c>
-      <c r="K39" s="112">
+      <c r="K39" s="113">
         <v>9.8000000000000007</v>
       </c>
-      <c r="L39" s="112" t="s">
-        <v>33</v>
-      </c>
-      <c r="M39" s="112">
+      <c r="L39" s="113">
+        <v>0</v>
+      </c>
+      <c r="M39" s="113">
         <v>10.4</v>
       </c>
-      <c r="N39" s="112"/>
-      <c r="O39" s="112">
+      <c r="N39" s="113"/>
+      <c r="O39" s="113">
         <v>4</v>
       </c>
-      <c r="P39" s="112"/>
-      <c r="Q39" s="113"/>
-      <c r="R39" s="113"/>
-      <c r="S39" s="113"/>
-      <c r="T39" s="113"/>
-      <c r="U39" s="113"/>
-      <c r="V39" s="113"/>
-      <c r="W39" s="113"/>
-      <c r="X39" s="113"/>
-      <c r="Y39" s="113"/>
+      <c r="P39" s="113"/>
+      <c r="Q39" s="114"/>
+      <c r="R39" s="114"/>
+      <c r="S39" s="114"/>
+      <c r="T39" s="114"/>
+      <c r="U39" s="114"/>
+      <c r="V39" s="114"/>
+      <c r="W39" s="114"/>
+      <c r="X39" s="114"/>
+      <c r="Y39" s="114"/>
     </row>
     <row r="40" spans="1:25" ht="90" thickBot="1">
-      <c r="A40" s="111" t="s">
-        <v>125</v>
-      </c>
-      <c r="B40" s="114">
+      <c r="A40" s="112" t="s">
+        <v>124</v>
+      </c>
+      <c r="B40" s="115">
         <v>0.82</v>
       </c>
-      <c r="C40" s="114">
+      <c r="C40" s="115">
         <v>0.81</v>
       </c>
-      <c r="D40" s="114">
+      <c r="D40" s="115">
         <v>0.83</v>
       </c>
-      <c r="E40" s="114">
+      <c r="E40" s="115">
         <v>0.67</v>
       </c>
-      <c r="F40" s="112" t="s">
-        <v>33</v>
-      </c>
-      <c r="G40" s="114">
+      <c r="F40" s="113">
+        <v>0</v>
+      </c>
+      <c r="G40" s="115">
         <v>0.78</v>
       </c>
-      <c r="H40" s="114">
+      <c r="H40" s="115">
         <v>0.74</v>
       </c>
-      <c r="I40" s="114">
+      <c r="I40" s="115">
         <v>0.76</v>
       </c>
-      <c r="J40" s="114">
+      <c r="J40" s="115">
         <v>0.54</v>
       </c>
-      <c r="K40" s="114">
+      <c r="K40" s="115">
         <v>0.71</v>
       </c>
-      <c r="L40" s="114">
+      <c r="L40" s="115">
         <v>0.63</v>
       </c>
-      <c r="M40" s="114">
+      <c r="M40" s="115">
         <v>0.75</v>
       </c>
-      <c r="N40" s="112"/>
-      <c r="O40" s="112">
+      <c r="N40" s="113"/>
+      <c r="O40" s="113">
         <v>2</v>
       </c>
-      <c r="P40" s="112">
+      <c r="P40" s="113">
         <v>1</v>
       </c>
-      <c r="Q40" s="113"/>
-      <c r="R40" s="113"/>
-      <c r="S40" s="113"/>
-      <c r="T40" s="113"/>
-      <c r="U40" s="113"/>
-      <c r="V40" s="113"/>
-      <c r="W40" s="113"/>
-      <c r="X40" s="113"/>
-      <c r="Y40" s="113"/>
+      <c r="Q40" s="114"/>
+      <c r="R40" s="114"/>
+      <c r="S40" s="114"/>
+      <c r="T40" s="114"/>
+      <c r="U40" s="114"/>
+      <c r="V40" s="114"/>
+      <c r="W40" s="114"/>
+      <c r="X40" s="114"/>
+      <c r="Y40" s="114"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="Q23:S23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/nantes-st-nazaire-dev/actifs.xlsx
+++ b/nantes-st-nazaire-dev/actifs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="117">
   <si>
     <t>Indicateur</t>
   </si>
@@ -289,48 +289,12 @@
     <t>Insee, RGP</t>
   </si>
   <si>
-    <t>Evolution annuelle 2011-2016 du Nombre d'établissements 2016</t>
-  </si>
-  <si>
     <t>Aéroport</t>
   </si>
   <si>
     <t>Temps de connexion à Paris (train)</t>
   </si>
   <si>
-    <t>1h56</t>
-  </si>
-  <si>
-    <t>2h31</t>
-  </si>
-  <si>
-    <t>1h57</t>
-  </si>
-  <si>
-    <t>3h05</t>
-  </si>
-  <si>
-    <t>4h17</t>
-  </si>
-  <si>
-    <t>1h01</t>
-  </si>
-  <si>
-    <t>2h04</t>
-  </si>
-  <si>
-    <t>5h33</t>
-  </si>
-  <si>
-    <t>1h46</t>
-  </si>
-  <si>
-    <t>3h01</t>
-  </si>
-  <si>
-    <t>1h25</t>
-  </si>
-  <si>
     <t>Gare</t>
   </si>
   <si>
@@ -392,6 +356,15 @@
   </si>
   <si>
     <t>Evolution moyenne annuelle du nombre de passagers 2011-2016 (en pourcentages)</t>
+  </si>
+  <si>
+    <t>Evolution annuelle 2011-2016 du Nombre d'établissements</t>
+  </si>
+  <si>
+    <t>Loyer mensuel médian au m2 (parc privé) - 2016</t>
+  </si>
+  <si>
+    <t>Evolution annuelle moyenne de la part des diplômés de l’enseignement supérieur dans la population (2009-2014)</t>
   </si>
 </sst>
 </file>
@@ -508,7 +481,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -593,8 +566,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBFBFBF"/>
+        <bgColor rgb="FFBFBFBF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -753,12 +732,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -927,15 +921,6 @@
     <xf numFmtId="0" fontId="7" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1087,6 +1072,33 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="7" fillId="14" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="15" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="15" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1452,10 +1464,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AMK40"/>
+  <dimension ref="A1:AMK44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection activeCell="A7" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -2973,10 +2985,10 @@
         <v>8.5</v>
       </c>
       <c r="C20" s="4">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D20" s="4">
-        <v>8.9</v>
+        <v>0</v>
       </c>
       <c r="E20" s="4">
         <v>9</v>
@@ -3036,10 +3048,10 @@
         <v>3.3700000000000001E-2</v>
       </c>
       <c r="C21" s="52">
-        <v>3.4299999999999997E-2</v>
+        <v>0</v>
       </c>
       <c r="D21" s="52">
-        <v>2.8899999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="E21" s="52">
         <v>2.7300000000000001E-2</v>
@@ -3087,18 +3099,18 @@
         <v>90</v>
       </c>
     </row>
-    <row r="22" spans="1:26" ht="90" thickBot="1">
+    <row r="22" spans="1:26" ht="77.25" thickBot="1">
       <c r="A22" s="50" t="s">
-        <v>91</v>
+        <v>114</v>
       </c>
       <c r="B22" s="5">
         <v>5.0799999999999998E-2</v>
       </c>
       <c r="C22" s="5">
-        <v>5.5100000000000003E-2</v>
+        <v>0</v>
       </c>
       <c r="D22" s="5">
-        <v>3.4099999999999998E-2</v>
+        <v>0</v>
       </c>
       <c r="E22" s="5">
         <v>4.99E-2</v>
@@ -3154,7 +3166,7 @@
     </row>
     <row r="23" spans="1:26" ht="115.5" thickBot="1">
       <c r="A23" s="6" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="B23" s="7">
         <v>8.6999999999999994E-2</v>
@@ -3197,14 +3209,14 @@
       </c>
       <c r="O23" s="60"/>
       <c r="P23" s="61"/>
-      <c r="Q23" s="62"/>
-      <c r="R23" s="63"/>
-      <c r="S23" s="64"/>
-      <c r="T23" s="65" t="s">
-        <v>92</v>
-      </c>
-      <c r="U23" s="65" t="s">
-        <v>92</v>
+      <c r="Q23" s="113"/>
+      <c r="R23" s="114"/>
+      <c r="S23" s="115"/>
+      <c r="T23" s="62" t="s">
+        <v>91</v>
+      </c>
+      <c r="U23" s="62" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="24" spans="1:26" ht="128.25" thickBot="1">
@@ -3259,1016 +3271,1097 @@
       <c r="U24" s="13"/>
     </row>
     <row r="25" spans="1:26" ht="39" thickBot="1">
-      <c r="A25" s="66" t="s">
+      <c r="A25" s="63" t="s">
+        <v>92</v>
+      </c>
+      <c r="B25" s="63">
+        <v>0</v>
+      </c>
+      <c r="C25" s="63">
+        <v>116</v>
+      </c>
+      <c r="D25" s="63">
+        <v>151</v>
+      </c>
+      <c r="E25" s="63">
+        <v>117</v>
+      </c>
+      <c r="F25" s="63">
+        <v>185</v>
+      </c>
+      <c r="G25" s="63">
+        <v>257</v>
+      </c>
+      <c r="H25" s="63">
+        <v>61</v>
+      </c>
+      <c r="I25" s="63">
+        <v>124</v>
+      </c>
+      <c r="J25" s="63">
+        <v>333</v>
+      </c>
+      <c r="K25" s="63">
+        <v>106</v>
+      </c>
+      <c r="L25" s="63">
+        <v>181</v>
+      </c>
+      <c r="M25" s="63">
+        <v>85</v>
+      </c>
+      <c r="N25" s="63"/>
+      <c r="O25" s="63">
+        <v>4</v>
+      </c>
+      <c r="P25" s="63">
+        <v>7</v>
+      </c>
+      <c r="Q25" s="63"/>
+      <c r="R25" s="63">
+        <v>1</v>
+      </c>
+      <c r="S25" s="63">
+        <v>1</v>
+      </c>
+      <c r="T25" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="B25" s="66">
-        <v>0</v>
-      </c>
-      <c r="C25" s="66" t="s">
+      <c r="U25" s="63" t="s">
         <v>94</v>
-      </c>
-      <c r="D25" s="66" t="s">
-        <v>95</v>
-      </c>
-      <c r="E25" s="66" t="s">
-        <v>96</v>
-      </c>
-      <c r="F25" s="66" t="s">
-        <v>97</v>
-      </c>
-      <c r="G25" s="66" t="s">
-        <v>98</v>
-      </c>
-      <c r="H25" s="66" t="s">
-        <v>99</v>
-      </c>
-      <c r="I25" s="66" t="s">
-        <v>100</v>
-      </c>
-      <c r="J25" s="66" t="s">
-        <v>101</v>
-      </c>
-      <c r="K25" s="66" t="s">
-        <v>102</v>
-      </c>
-      <c r="L25" s="66" t="s">
-        <v>103</v>
-      </c>
-      <c r="M25" s="66" t="s">
-        <v>104</v>
-      </c>
-      <c r="N25" s="66"/>
-      <c r="O25" s="66">
-        <v>4</v>
-      </c>
-      <c r="P25" s="66">
-        <v>7</v>
-      </c>
-      <c r="Q25" s="66"/>
-      <c r="R25" s="66">
-        <v>1</v>
-      </c>
-      <c r="S25" s="66">
-        <v>1</v>
-      </c>
-      <c r="T25" s="66" t="s">
-        <v>105</v>
-      </c>
-      <c r="U25" s="66" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="26" spans="1:26" ht="64.5" thickBot="1">
-      <c r="A26" s="67" t="s">
-        <v>107</v>
-      </c>
-      <c r="B26" s="68">
-        <v>0</v>
-      </c>
-      <c r="C26" s="68">
+      <c r="A26" s="64" t="s">
+        <v>95</v>
+      </c>
+      <c r="B26" s="65">
+        <v>0</v>
+      </c>
+      <c r="C26" s="65">
         <v>24</v>
       </c>
-      <c r="D26" s="68">
-        <v>0</v>
-      </c>
-      <c r="E26" s="68">
+      <c r="D26" s="65">
+        <v>0</v>
+      </c>
+      <c r="E26" s="65">
         <v>38</v>
       </c>
-      <c r="F26" s="68">
+      <c r="F26" s="65">
         <v>24</v>
       </c>
-      <c r="G26" s="68">
+      <c r="G26" s="65">
         <v>27</v>
       </c>
-      <c r="H26" s="68">
+      <c r="H26" s="65">
         <v>16</v>
       </c>
-      <c r="I26" s="68">
+      <c r="I26" s="65">
         <v>21</v>
       </c>
-      <c r="J26" s="68">
+      <c r="J26" s="65">
         <v>24</v>
       </c>
-      <c r="K26" s="68">
+      <c r="K26" s="65">
         <v>18</v>
       </c>
-      <c r="L26" s="68">
+      <c r="L26" s="65">
         <v>11</v>
       </c>
-      <c r="M26" s="68">
+      <c r="M26" s="65">
         <v>7</v>
       </c>
       <c r="N26" s="9"/>
-      <c r="O26" s="68">
+      <c r="O26" s="65">
         <v>3</v>
       </c>
-      <c r="P26" s="68"/>
-      <c r="Q26" s="68"/>
-      <c r="R26" s="68">
+      <c r="P26" s="65"/>
+      <c r="Q26" s="65"/>
+      <c r="R26" s="65">
         <v>1</v>
       </c>
-      <c r="S26" s="68"/>
+      <c r="S26" s="65"/>
       <c r="T26" s="9" t="s">
         <v>27</v>
       </c>
       <c r="U26" s="9" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
     </row>
     <row r="27" spans="1:26" ht="115.5" thickBot="1">
-      <c r="A27" s="69" t="s">
-        <v>109</v>
-      </c>
-      <c r="B27" s="70">
+      <c r="A27" s="66" t="s">
+        <v>97</v>
+      </c>
+      <c r="B27" s="67">
         <v>8.8999999999999996E-2</v>
       </c>
-      <c r="C27" s="70">
-        <v>0.1</v>
-      </c>
-      <c r="D27" s="70">
-        <v>3.9E-2</v>
-      </c>
-      <c r="E27" s="70">
+      <c r="C27" s="67">
+        <v>0</v>
+      </c>
+      <c r="D27" s="67">
+        <v>0</v>
+      </c>
+      <c r="E27" s="67">
         <v>7.8E-2</v>
       </c>
-      <c r="F27" s="70">
+      <c r="F27" s="67">
         <v>7.5999999999999998E-2</v>
       </c>
-      <c r="G27" s="70">
+      <c r="G27" s="67">
         <v>8.6999999999999994E-2</v>
       </c>
-      <c r="H27" s="70">
+      <c r="H27" s="67">
         <v>9.2999999999999999E-2</v>
       </c>
-      <c r="I27" s="70">
+      <c r="I27" s="67">
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="J27" s="70">
+      <c r="J27" s="67">
         <v>0.10100000000000001</v>
       </c>
-      <c r="K27" s="70">
+      <c r="K27" s="67">
         <v>7.3999999999999996E-2</v>
       </c>
-      <c r="L27" s="70">
+      <c r="L27" s="67">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="M27" s="70">
+      <c r="M27" s="67">
         <v>0.10100000000000001</v>
       </c>
-      <c r="N27" s="71">
+      <c r="N27" s="68">
         <v>5</v>
       </c>
-      <c r="O27" s="71">
+      <c r="O27" s="68">
         <v>3</v>
       </c>
-      <c r="P27" s="71">
+      <c r="P27" s="68">
         <v>11</v>
       </c>
-      <c r="Q27" s="71">
+      <c r="Q27" s="68">
         <v>-1</v>
       </c>
-      <c r="R27" s="72">
-        <v>0</v>
-      </c>
-      <c r="S27" s="73"/>
-      <c r="T27" s="71" t="s">
+      <c r="R27" s="69">
+        <v>0</v>
+      </c>
+      <c r="S27" s="70"/>
+      <c r="T27" s="68" t="s">
         <v>45</v>
       </c>
-      <c r="U27" s="71" t="s">
-        <v>110</v>
+      <c r="U27" s="68" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="28" spans="1:26" ht="90" thickBot="1">
-      <c r="A28" s="69" t="s">
-        <v>111</v>
-      </c>
-      <c r="B28" s="70">
+      <c r="A28" s="66" t="s">
+        <v>99</v>
+      </c>
+      <c r="B28" s="67">
         <v>2.5600000000000001E-2</v>
       </c>
-      <c r="C28" s="70">
+      <c r="C28" s="67">
         <v>3.0800000000000001E-2</v>
       </c>
-      <c r="D28" s="70">
+      <c r="D28" s="67">
         <v>-2.9399999999999999E-2</v>
       </c>
-      <c r="E28" s="70">
+      <c r="E28" s="67">
         <v>1.2200000000000001E-2</v>
       </c>
-      <c r="F28" s="70">
+      <c r="F28" s="67">
         <v>6.1000000000000004E-3</v>
       </c>
-      <c r="G28" s="70">
+      <c r="G28" s="67">
         <v>1.7600000000000001E-2</v>
       </c>
-      <c r="H28" s="70">
+      <c r="H28" s="67">
         <v>2.3999999999999998E-3</v>
       </c>
-      <c r="I28" s="70">
+      <c r="I28" s="67">
         <v>1.21E-2</v>
       </c>
-      <c r="J28" s="70">
+      <c r="J28" s="67">
         <v>1.5100000000000001E-2</v>
       </c>
-      <c r="K28" s="70">
+      <c r="K28" s="67">
         <v>-7.0000000000000001E-3</v>
       </c>
-      <c r="L28" s="70">
+      <c r="L28" s="67">
         <v>-5.9999999999999995E-4</v>
       </c>
-      <c r="M28" s="70">
+      <c r="M28" s="67">
         <v>1.6199999999999999E-2</v>
       </c>
-      <c r="N28" s="71">
+      <c r="N28" s="68">
         <v>1</v>
       </c>
-      <c r="O28" s="71">
+      <c r="O28" s="68">
         <v>1</v>
       </c>
-      <c r="P28" s="71">
+      <c r="P28" s="68">
         <v>11</v>
       </c>
-      <c r="Q28" s="74"/>
-      <c r="R28" s="74"/>
-      <c r="S28" s="74"/>
-      <c r="T28" s="71" t="s">
+      <c r="Q28" s="71"/>
+      <c r="R28" s="71"/>
+      <c r="S28" s="71"/>
+      <c r="T28" s="68" t="s">
         <v>45</v>
       </c>
-      <c r="U28" s="71" t="s">
-        <v>110</v>
+      <c r="U28" s="68" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="29" spans="1:26" ht="51.75" thickBot="1">
-      <c r="A29" s="75" t="s">
-        <v>112</v>
-      </c>
-      <c r="B29" s="76">
+      <c r="A29" s="72" t="s">
+        <v>100</v>
+      </c>
+      <c r="B29" s="73">
         <v>0.23300000000000001</v>
       </c>
-      <c r="C29" s="76">
+      <c r="C29" s="73">
         <v>0.224</v>
       </c>
-      <c r="D29" s="76">
+      <c r="D29" s="73">
         <v>0.26700000000000002</v>
       </c>
-      <c r="E29" s="76">
+      <c r="E29" s="73">
         <v>0.27900000000000003</v>
       </c>
-      <c r="F29" s="76">
+      <c r="F29" s="73">
         <v>0.318</v>
       </c>
-      <c r="G29" s="76">
+      <c r="G29" s="73">
         <v>0.22800000000000001</v>
       </c>
-      <c r="H29" s="76">
+      <c r="H29" s="73">
         <v>0.312</v>
       </c>
-      <c r="I29" s="76">
+      <c r="I29" s="73">
         <v>0.251</v>
       </c>
-      <c r="J29" s="76">
+      <c r="J29" s="73">
         <v>0.314</v>
       </c>
-      <c r="K29" s="76">
+      <c r="K29" s="73">
         <v>0.251</v>
       </c>
-      <c r="L29" s="76">
+      <c r="L29" s="73">
         <v>0.26</v>
       </c>
-      <c r="M29" s="76">
+      <c r="M29" s="73">
         <v>0.24299999999999999</v>
       </c>
-      <c r="N29" s="77">
+      <c r="N29" s="74">
         <v>2</v>
       </c>
-      <c r="O29" s="77">
+      <c r="O29" s="74">
         <v>1</v>
       </c>
-      <c r="P29" s="77">
+      <c r="P29" s="74">
         <v>7</v>
       </c>
-      <c r="Q29" s="78">
-        <v>0</v>
-      </c>
-      <c r="R29" s="79">
-        <v>0</v>
-      </c>
-      <c r="S29" s="80">
-        <v>0</v>
-      </c>
-      <c r="T29" s="81" t="s">
+      <c r="Q29" s="75">
+        <v>0</v>
+      </c>
+      <c r="R29" s="76">
+        <v>0</v>
+      </c>
+      <c r="S29" s="77">
+        <v>0</v>
+      </c>
+      <c r="T29" s="78" t="s">
         <v>45</v>
       </c>
-      <c r="U29" s="81" t="s">
+      <c r="U29" s="78" t="s">
         <v>90</v>
       </c>
-      <c r="V29" s="81"/>
-      <c r="W29" s="81"/>
-      <c r="X29" s="81"/>
-      <c r="Y29" s="81"/>
+      <c r="V29" s="78"/>
+      <c r="W29" s="78"/>
+      <c r="X29" s="78"/>
+      <c r="Y29" s="78"/>
     </row>
     <row r="30" spans="1:26" ht="51.75" thickBot="1">
       <c r="A30" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="B30" s="82">
+        <v>100</v>
+      </c>
+      <c r="B30" s="79">
         <v>-2.01E-2</v>
       </c>
-      <c r="C30" s="82">
-        <v>-1.9900000000000001E-2</v>
-      </c>
-      <c r="D30" s="82">
-        <v>-2.06E-2</v>
-      </c>
-      <c r="E30" s="82">
+      <c r="C30" s="79">
+        <v>0</v>
+      </c>
+      <c r="D30" s="79">
+        <v>0</v>
+      </c>
+      <c r="E30" s="79">
         <v>-1.67E-2</v>
       </c>
-      <c r="F30" s="82">
+      <c r="F30" s="79">
         <v>-1.9199999999999998E-2</v>
       </c>
-      <c r="G30" s="82">
+      <c r="G30" s="79">
         <v>-1.7500000000000002E-2</v>
       </c>
-      <c r="H30" s="82">
+      <c r="H30" s="79">
         <v>-2.3400000000000001E-2</v>
       </c>
-      <c r="I30" s="82">
+      <c r="I30" s="79">
         <v>-1.6899999999999998E-2</v>
       </c>
-      <c r="J30" s="82">
+      <c r="J30" s="79">
         <v>-2.1499999999999998E-2</v>
       </c>
-      <c r="K30" s="82">
+      <c r="K30" s="79">
         <v>-1.6899999999999998E-2</v>
       </c>
-      <c r="L30" s="82">
+      <c r="L30" s="79">
         <v>-2.23E-2</v>
       </c>
-      <c r="M30" s="82">
+      <c r="M30" s="79">
         <v>-1.78E-2</v>
       </c>
-      <c r="N30" s="83">
+      <c r="N30" s="80">
         <v>4</v>
       </c>
-      <c r="O30" s="83">
+      <c r="O30" s="80">
         <v>5</v>
       </c>
-      <c r="P30" s="84">
+      <c r="P30" s="81">
         <v>4</v>
       </c>
-      <c r="Q30" s="85"/>
-      <c r="R30" s="85"/>
-      <c r="S30" s="85"/>
-      <c r="T30" s="86" t="s">
+      <c r="Q30" s="82"/>
+      <c r="R30" s="82"/>
+      <c r="S30" s="82"/>
+      <c r="T30" s="83" t="s">
         <v>45</v>
       </c>
-      <c r="U30" s="86" t="s">
+      <c r="U30" s="83" t="s">
         <v>90</v>
       </c>
-      <c r="V30" s="87"/>
-      <c r="W30" s="87"/>
-      <c r="X30" s="87"/>
-      <c r="Y30" s="87"/>
+      <c r="V30" s="84"/>
+      <c r="W30" s="84"/>
+      <c r="X30" s="84"/>
+      <c r="Y30" s="84"/>
     </row>
     <row r="31" spans="1:26" ht="51.75" thickBot="1">
-      <c r="A31" s="88" t="s">
-        <v>113</v>
-      </c>
-      <c r="B31" s="89">
+      <c r="A31" s="85" t="s">
+        <v>101</v>
+      </c>
+      <c r="B31" s="86">
         <v>0.92600000000000005</v>
       </c>
-      <c r="C31" s="90">
-        <v>0</v>
-      </c>
-      <c r="D31" s="91">
-        <v>0</v>
-      </c>
-      <c r="E31" s="89">
+      <c r="C31" s="87">
+        <v>0</v>
+      </c>
+      <c r="D31" s="88">
+        <v>0</v>
+      </c>
+      <c r="E31" s="86">
         <v>0.90500000000000003</v>
       </c>
-      <c r="F31" s="89">
+      <c r="F31" s="86">
         <v>0.89700000000000002</v>
       </c>
-      <c r="G31" s="89">
+      <c r="G31" s="86">
         <v>0.92100000000000004</v>
       </c>
-      <c r="H31" s="89">
+      <c r="H31" s="86">
         <v>0.89100000000000001</v>
       </c>
-      <c r="I31" s="89">
+      <c r="I31" s="86">
         <v>0.91200000000000003</v>
       </c>
-      <c r="J31" s="89">
+      <c r="J31" s="86">
         <v>0.89900000000000002</v>
       </c>
-      <c r="K31" s="89">
+      <c r="K31" s="86">
         <v>0.93100000000000005</v>
       </c>
-      <c r="L31" s="89">
+      <c r="L31" s="86">
         <v>0.93100000000000005</v>
       </c>
-      <c r="M31" s="89">
+      <c r="M31" s="86">
         <v>0.94199999999999995</v>
       </c>
-      <c r="N31" s="78">
+      <c r="N31" s="75">
         <v>4</v>
       </c>
-      <c r="O31" s="79">
+      <c r="O31" s="76">
         <v>4</v>
       </c>
-      <c r="P31" s="80">
+      <c r="P31" s="77">
         <v>4</v>
       </c>
-      <c r="Q31" s="78">
+      <c r="Q31" s="75">
         <v>-1</v>
       </c>
-      <c r="R31" s="79">
+      <c r="R31" s="76">
         <v>-1</v>
       </c>
-      <c r="S31" s="80">
+      <c r="S31" s="77">
         <v>-1</v>
       </c>
-      <c r="T31" s="90" t="s">
-        <v>114</v>
-      </c>
-      <c r="U31" s="90" t="s">
-        <v>115</v>
-      </c>
-      <c r="V31" s="90"/>
-      <c r="W31" s="90"/>
-      <c r="X31" s="90"/>
-      <c r="Y31" s="90"/>
+      <c r="T31" s="87" t="s">
+        <v>102</v>
+      </c>
+      <c r="U31" s="87" t="s">
+        <v>103</v>
+      </c>
+      <c r="V31" s="87"/>
+      <c r="W31" s="87"/>
+      <c r="X31" s="87"/>
+      <c r="Y31" s="87"/>
     </row>
     <row r="32" spans="1:26" ht="64.5" thickBot="1">
-      <c r="A32" s="92" t="s">
+      <c r="A32" s="89" t="s">
+        <v>104</v>
+      </c>
+      <c r="B32" s="90">
+        <v>3820</v>
+      </c>
+      <c r="C32" s="90">
+        <v>0</v>
+      </c>
+      <c r="D32" s="90">
+        <v>0</v>
+      </c>
+      <c r="E32" s="91">
+        <v>10</v>
+      </c>
+      <c r="F32" s="91">
+        <v>302</v>
+      </c>
+      <c r="G32" s="91">
+        <v>57</v>
+      </c>
+      <c r="H32" s="91">
+        <v>61</v>
+      </c>
+      <c r="I32" s="91">
+        <v>603</v>
+      </c>
+      <c r="J32" s="91">
+        <v>512</v>
+      </c>
+      <c r="K32" s="91">
+        <v>11</v>
+      </c>
+      <c r="L32" s="91">
+        <v>10</v>
+      </c>
+      <c r="M32" s="91">
+        <v>0</v>
+      </c>
+      <c r="N32" s="91">
+        <v>1</v>
+      </c>
+      <c r="O32" s="91">
+        <v>2</v>
+      </c>
+      <c r="P32" s="91">
+        <v>1</v>
+      </c>
+      <c r="Q32" s="92">
+        <v>0</v>
+      </c>
+      <c r="R32" s="93">
+        <v>0</v>
+      </c>
+      <c r="S32" s="94">
+        <v>0</v>
+      </c>
+      <c r="T32" s="91" t="s">
+        <v>45</v>
+      </c>
+      <c r="U32" s="91" t="s">
+        <v>98</v>
+      </c>
+      <c r="V32" s="95"/>
+      <c r="W32" s="95"/>
+      <c r="X32" s="95"/>
+      <c r="Y32" s="95"/>
+    </row>
+    <row r="33" spans="1:1025" ht="51.75" thickBot="1">
+      <c r="A33" s="89" t="s">
+        <v>105</v>
+      </c>
+      <c r="B33" s="96">
+        <v>0</v>
+      </c>
+      <c r="C33" s="96">
+        <v>4.7E-2</v>
+      </c>
+      <c r="D33" s="96">
+        <v>1.47E-2</v>
+      </c>
+      <c r="E33" s="91">
+        <v>0</v>
+      </c>
+      <c r="F33" s="96">
+        <v>3.44E-2</v>
+      </c>
+      <c r="G33" s="96">
+        <v>-0.15709999999999999</v>
+      </c>
+      <c r="H33" s="96">
+        <v>3.2399999999999998E-2</v>
+      </c>
+      <c r="I33" s="96">
+        <v>2.7000000000000001E-3</v>
+      </c>
+      <c r="J33" s="96">
+        <v>-4.0000000000000002E-4</v>
+      </c>
+      <c r="K33" s="91">
+        <v>0</v>
+      </c>
+      <c r="L33" s="91">
+        <v>0</v>
+      </c>
+      <c r="M33" s="91">
+        <v>0</v>
+      </c>
+      <c r="N33" s="91">
+        <v>3</v>
+      </c>
+      <c r="O33" s="91">
+        <v>1</v>
+      </c>
+      <c r="P33" s="91">
+        <v>3</v>
+      </c>
+      <c r="Q33" s="97"/>
+      <c r="R33" s="97"/>
+      <c r="S33" s="97"/>
+      <c r="T33" s="91" t="s">
+        <v>45</v>
+      </c>
+      <c r="U33" s="91" t="s">
+        <v>98</v>
+      </c>
+      <c r="V33" s="95"/>
+      <c r="W33" s="95"/>
+      <c r="X33" s="95"/>
+      <c r="Y33" s="95"/>
+    </row>
+    <row r="34" spans="1:1025" ht="64.5" thickBot="1">
+      <c r="A34" s="89" t="s">
+        <v>106</v>
+      </c>
+      <c r="B34" s="90">
+        <v>7374</v>
+      </c>
+      <c r="C34" s="90">
+        <v>0</v>
+      </c>
+      <c r="D34" s="90">
+        <v>0</v>
+      </c>
+      <c r="E34" s="91">
+        <v>428</v>
+      </c>
+      <c r="F34" s="90">
+        <v>10124</v>
+      </c>
+      <c r="G34" s="90">
+        <v>33739</v>
+      </c>
+      <c r="H34" s="91">
+        <v>297</v>
+      </c>
+      <c r="I34" s="90">
+        <v>6637</v>
+      </c>
+      <c r="J34" s="90">
+        <v>2086</v>
+      </c>
+      <c r="K34" s="90">
+        <v>1015</v>
+      </c>
+      <c r="L34" s="91">
+        <v>21</v>
+      </c>
+      <c r="M34" s="91">
+        <v>4</v>
+      </c>
+      <c r="N34" s="91">
+        <v>3</v>
+      </c>
+      <c r="O34" s="91">
+        <v>5</v>
+      </c>
+      <c r="P34" s="91">
+        <v>4</v>
+      </c>
+      <c r="Q34" s="92">
+        <v>0</v>
+      </c>
+      <c r="R34" s="93">
+        <v>0</v>
+      </c>
+      <c r="S34" s="94">
+        <v>0</v>
+      </c>
+      <c r="T34" s="91" t="s">
+        <v>45</v>
+      </c>
+      <c r="U34" s="91" t="s">
+        <v>98</v>
+      </c>
+      <c r="V34" s="95"/>
+      <c r="W34" s="95"/>
+      <c r="X34" s="95"/>
+      <c r="Y34" s="95"/>
+    </row>
+    <row r="35" spans="1:1025" ht="51.75" thickBot="1">
+      <c r="A35" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="B35" s="98">
+        <v>4.8500000000000001E-2</v>
+      </c>
+      <c r="C35" s="98">
+        <v>0</v>
+      </c>
+      <c r="D35" s="98">
+        <v>0</v>
+      </c>
+      <c r="E35" s="98">
+        <v>1.6199999999999999E-2</v>
+      </c>
+      <c r="F35" s="98">
+        <v>2.2800000000000001E-2</v>
+      </c>
+      <c r="G35" s="98">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="H35" s="98">
+        <v>1.1900000000000001E-2</v>
+      </c>
+      <c r="I35" s="98">
+        <v>1.77E-2</v>
+      </c>
+      <c r="J35" s="98">
+        <v>-4.7000000000000002E-3</v>
+      </c>
+      <c r="K35" s="98">
+        <v>1E-3</v>
+      </c>
+      <c r="L35" s="98">
+        <v>0.2457</v>
+      </c>
+      <c r="M35" s="98">
+        <v>5.9200000000000003E-2</v>
+      </c>
+      <c r="N35" s="99">
+        <v>3</v>
+      </c>
+      <c r="O35" s="99">
+        <v>5</v>
+      </c>
+      <c r="P35" s="99">
+        <v>3</v>
+      </c>
+      <c r="Q35" s="100"/>
+      <c r="R35" s="100"/>
+      <c r="S35" s="100"/>
+      <c r="T35" s="99" t="s">
+        <v>45</v>
+      </c>
+      <c r="U35" s="99" t="s">
+        <v>98</v>
+      </c>
+      <c r="V35" s="100"/>
+      <c r="W35" s="100"/>
+      <c r="X35" s="100"/>
+      <c r="Y35" s="100"/>
+    </row>
+    <row r="36" spans="1:1025" ht="77.25" thickBot="1">
+      <c r="A36" s="101" t="s">
+        <v>107</v>
+      </c>
+      <c r="B36" s="102">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="C36" s="102">
+        <v>0</v>
+      </c>
+      <c r="D36" s="102">
+        <v>0</v>
+      </c>
+      <c r="E36" s="102">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="F36" s="102">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="G36" s="102">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="H36" s="102">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="I36" s="102">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="J36" s="102">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="K36" s="102">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="L36" s="102">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="M36" s="102">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="N36" s="103">
+        <v>4</v>
+      </c>
+      <c r="O36" s="103">
+        <v>2</v>
+      </c>
+      <c r="P36" s="103">
+        <v>11</v>
+      </c>
+      <c r="Q36" s="104">
+        <v>0</v>
+      </c>
+      <c r="R36" s="105">
+        <v>0</v>
+      </c>
+      <c r="S36" s="106">
+        <v>0</v>
+      </c>
+      <c r="T36" s="103" t="s">
+        <v>108</v>
+      </c>
+      <c r="U36" s="107" t="s">
+        <v>109</v>
+      </c>
+      <c r="V36" s="108"/>
+      <c r="W36" s="108"/>
+      <c r="X36" s="108"/>
+      <c r="Y36" s="108"/>
+    </row>
+    <row r="37" spans="1:1025" ht="102.75" thickBot="1">
+      <c r="A37" s="101" t="s">
+        <v>110</v>
+      </c>
+      <c r="B37" s="102">
+        <v>3.6799999999999999E-2</v>
+      </c>
+      <c r="C37" s="102">
+        <v>0</v>
+      </c>
+      <c r="D37" s="102">
+        <v>0</v>
+      </c>
+      <c r="E37" s="102">
+        <v>2.4299999999999999E-2</v>
+      </c>
+      <c r="F37" s="102">
+        <v>6.7000000000000002E-3</v>
+      </c>
+      <c r="G37" s="102">
+        <v>2.01E-2</v>
+      </c>
+      <c r="H37" s="102">
+        <v>4.0899999999999999E-2</v>
+      </c>
+      <c r="I37" s="102">
+        <v>1.8100000000000002E-2</v>
+      </c>
+      <c r="J37" s="102">
+        <v>2.63E-2</v>
+      </c>
+      <c r="K37" s="102">
+        <v>1.61E-2</v>
+      </c>
+      <c r="L37" s="102">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="M37" s="102">
+        <v>3.0800000000000001E-2</v>
+      </c>
+      <c r="N37" s="103">
+        <v>2</v>
+      </c>
+      <c r="O37" s="103">
+        <v>2</v>
+      </c>
+      <c r="P37" s="103">
+        <v>11</v>
+      </c>
+      <c r="Q37" s="108"/>
+      <c r="R37" s="108"/>
+      <c r="S37" s="108"/>
+      <c r="T37" s="103" t="s">
+        <v>108</v>
+      </c>
+      <c r="U37" s="107" t="s">
+        <v>109</v>
+      </c>
+      <c r="V37" s="108"/>
+      <c r="W37" s="108"/>
+      <c r="X37" s="108"/>
+      <c r="Y37" s="108"/>
+    </row>
+    <row r="38" spans="1:1025" ht="90" thickBot="1">
+      <c r="A38" s="101" t="s">
+        <v>111</v>
+      </c>
+      <c r="B38" s="102">
+        <v>3.0099999999999998E-2</v>
+      </c>
+      <c r="C38" s="102">
+        <v>0</v>
+      </c>
+      <c r="D38" s="102">
+        <v>0</v>
+      </c>
+      <c r="E38" s="102">
+        <v>1.83E-2</v>
+      </c>
+      <c r="F38" s="102">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="G38" s="102">
+        <v>2.2599999999999999E-2</v>
+      </c>
+      <c r="H38" s="102">
+        <v>2.4799999999999999E-2</v>
+      </c>
+      <c r="I38" s="102">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="J38" s="102">
+        <v>8.8000000000000005E-3</v>
+      </c>
+      <c r="K38" s="102">
+        <v>1.09E-2</v>
+      </c>
+      <c r="L38" s="102">
+        <v>1.04E-2</v>
+      </c>
+      <c r="M38" s="102">
+        <v>0.02</v>
+      </c>
+      <c r="N38" s="103">
+        <v>1</v>
+      </c>
+      <c r="O38" s="103">
+        <v>1</v>
+      </c>
+      <c r="P38" s="103">
+        <v>11</v>
+      </c>
+      <c r="Q38" s="108"/>
+      <c r="R38" s="108"/>
+      <c r="S38" s="108"/>
+      <c r="T38" s="103" t="s">
+        <v>45</v>
+      </c>
+      <c r="U38" s="103" t="s">
+        <v>36</v>
+      </c>
+      <c r="V38" s="108"/>
+      <c r="W38" s="108"/>
+      <c r="X38" s="108"/>
+      <c r="Y38" s="108"/>
+    </row>
+    <row r="39" spans="1:1025" ht="77.25" thickBot="1">
+      <c r="A39" s="109" t="s">
+        <v>115</v>
+      </c>
+      <c r="B39" s="110">
+        <v>0</v>
+      </c>
+      <c r="C39" s="110">
+        <v>10.7</v>
+      </c>
+      <c r="D39" s="110">
+        <v>0</v>
+      </c>
+      <c r="E39" s="110">
+        <v>11.1</v>
+      </c>
+      <c r="F39" s="110">
+        <v>11.8</v>
+      </c>
+      <c r="G39" s="110">
+        <v>10.5</v>
+      </c>
+      <c r="H39" s="110">
+        <v>11.1</v>
+      </c>
+      <c r="I39" s="110">
+        <v>11.1</v>
+      </c>
+      <c r="J39" s="110">
+        <v>13.5</v>
+      </c>
+      <c r="K39" s="110">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="L39" s="110">
+        <v>0</v>
+      </c>
+      <c r="M39" s="110">
+        <v>10.4</v>
+      </c>
+      <c r="N39" s="110"/>
+      <c r="O39" s="110">
+        <v>4</v>
+      </c>
+      <c r="P39" s="110"/>
+      <c r="Q39" s="111"/>
+      <c r="R39" s="111"/>
+      <c r="S39" s="111"/>
+      <c r="T39" s="111"/>
+      <c r="U39" s="111"/>
+      <c r="V39" s="111"/>
+      <c r="W39" s="111"/>
+      <c r="X39" s="111"/>
+      <c r="Y39" s="111"/>
+    </row>
+    <row r="40" spans="1:1025" ht="90" thickBot="1">
+      <c r="A40" s="109" t="s">
+        <v>112</v>
+      </c>
+      <c r="B40" s="112">
+        <v>0.82</v>
+      </c>
+      <c r="C40" s="112">
+        <v>0</v>
+      </c>
+      <c r="D40" s="112">
+        <v>0</v>
+      </c>
+      <c r="E40" s="112">
+        <v>0.67</v>
+      </c>
+      <c r="F40" s="110">
+        <v>0</v>
+      </c>
+      <c r="G40" s="112">
+        <v>0.78</v>
+      </c>
+      <c r="H40" s="112">
+        <v>0.74</v>
+      </c>
+      <c r="I40" s="112">
+        <v>0.76</v>
+      </c>
+      <c r="J40" s="112">
+        <v>0.54</v>
+      </c>
+      <c r="K40" s="112">
+        <v>0.71</v>
+      </c>
+      <c r="L40" s="112">
+        <v>0.63</v>
+      </c>
+      <c r="M40" s="112">
+        <v>0.75</v>
+      </c>
+      <c r="N40" s="110"/>
+      <c r="O40" s="110">
+        <v>2</v>
+      </c>
+      <c r="P40" s="110">
+        <v>1</v>
+      </c>
+      <c r="Q40" s="111"/>
+      <c r="R40" s="111"/>
+      <c r="S40" s="111"/>
+      <c r="T40" s="111"/>
+      <c r="U40" s="111"/>
+      <c r="V40" s="111"/>
+      <c r="W40" s="111"/>
+      <c r="X40" s="111"/>
+      <c r="Y40" s="111"/>
+    </row>
+    <row r="41" spans="1:1025" ht="114.75" customHeight="1">
+      <c r="A41" s="116" t="s">
         <v>116</v>
       </c>
-      <c r="B32" s="93">
-        <v>3820</v>
-      </c>
-      <c r="C32" s="93">
-        <v>1043</v>
-      </c>
-      <c r="D32" s="93">
-        <v>2777</v>
-      </c>
-      <c r="E32" s="94">
-        <v>10</v>
-      </c>
-      <c r="F32" s="94">
-        <v>302</v>
-      </c>
-      <c r="G32" s="94">
-        <v>57</v>
-      </c>
-      <c r="H32" s="94">
-        <v>61</v>
-      </c>
-      <c r="I32" s="94">
-        <v>603</v>
-      </c>
-      <c r="J32" s="94">
-        <v>512</v>
-      </c>
-      <c r="K32" s="94">
-        <v>11</v>
-      </c>
-      <c r="L32" s="94">
-        <v>10</v>
-      </c>
-      <c r="M32" s="94">
-        <v>0</v>
-      </c>
-      <c r="N32" s="94">
+      <c r="B41" s="117">
+        <v>4.6199999999999998E-2</v>
+      </c>
+      <c r="C41" s="117">
+        <v>0</v>
+      </c>
+      <c r="D41" s="117">
+        <v>0</v>
+      </c>
+      <c r="E41" s="117">
+        <v>3.7400000000000003E-2</v>
+      </c>
+      <c r="F41" s="117">
+        <v>2.9100000000000001E-2</v>
+      </c>
+      <c r="G41" s="117">
+        <v>3.8199999999999998E-2</v>
+      </c>
+      <c r="H41" s="117">
+        <v>3.4700000000000002E-2</v>
+      </c>
+      <c r="I41" s="117">
+        <v>4.1399999999999999E-2</v>
+      </c>
+      <c r="J41" s="117">
+        <v>2.7300000000000001E-2</v>
+      </c>
+      <c r="K41" s="117">
+        <v>3.09E-2</v>
+      </c>
+      <c r="L41" s="117">
+        <v>2.6800000000000001E-2</v>
+      </c>
+      <c r="M41" s="117">
+        <v>4.1399999999999999E-2</v>
+      </c>
+      <c r="N41" s="118">
         <v>1</v>
       </c>
-      <c r="O32" s="94">
+      <c r="O41" s="118">
+        <v>1</v>
+      </c>
+      <c r="P41" s="118">
         <v>2</v>
       </c>
-      <c r="P32" s="94">
-        <v>1</v>
-      </c>
-      <c r="Q32" s="95">
-        <v>0</v>
-      </c>
-      <c r="R32" s="96">
-        <v>0</v>
-      </c>
-      <c r="S32" s="97">
-        <v>0</v>
-      </c>
-      <c r="T32" s="94" t="s">
+      <c r="Q41" s="120"/>
+      <c r="R41" s="121"/>
+      <c r="S41" s="121"/>
+      <c r="T41" s="119" t="s">
         <v>45</v>
       </c>
-      <c r="U32" s="94" t="s">
-        <v>110</v>
-      </c>
-      <c r="V32" s="98"/>
-      <c r="W32" s="98"/>
-      <c r="X32" s="98"/>
-      <c r="Y32" s="98"/>
+      <c r="U41" s="119" t="s">
+        <v>90</v>
+      </c>
+      <c r="AMH41" s="15"/>
+      <c r="AMI41" s="15"/>
+      <c r="AMJ41" s="15"/>
+      <c r="AMK41" s="15"/>
     </row>
-    <row r="33" spans="1:25" ht="51.75" thickBot="1">
-      <c r="A33" s="92" t="s">
-        <v>117</v>
-      </c>
-      <c r="B33" s="99">
-        <v>2.3E-2</v>
-      </c>
-      <c r="C33" s="99">
-        <v>4.7E-2</v>
-      </c>
-      <c r="D33" s="99">
-        <v>1.47E-2</v>
-      </c>
-      <c r="E33" s="94">
-        <v>0</v>
-      </c>
-      <c r="F33" s="99">
-        <v>3.44E-2</v>
-      </c>
-      <c r="G33" s="99">
-        <v>-0.15709999999999999</v>
-      </c>
-      <c r="H33" s="99">
-        <v>3.2399999999999998E-2</v>
-      </c>
-      <c r="I33" s="99">
-        <v>2.7000000000000001E-3</v>
-      </c>
-      <c r="J33" s="99">
-        <v>-4.0000000000000002E-4</v>
-      </c>
-      <c r="K33" s="94">
-        <v>0</v>
-      </c>
-      <c r="L33" s="94">
-        <v>0</v>
-      </c>
-      <c r="M33" s="94">
-        <v>0</v>
-      </c>
-      <c r="N33" s="94">
-        <v>3</v>
-      </c>
-      <c r="O33" s="94">
-        <v>1</v>
-      </c>
-      <c r="P33" s="94">
-        <v>3</v>
-      </c>
-      <c r="Q33" s="100"/>
-      <c r="R33" s="100"/>
-      <c r="S33" s="100"/>
-      <c r="T33" s="94" t="s">
-        <v>45</v>
-      </c>
-      <c r="U33" s="94" t="s">
-        <v>110</v>
-      </c>
-      <c r="V33" s="98"/>
-      <c r="W33" s="98"/>
-      <c r="X33" s="98"/>
-      <c r="Y33" s="98"/>
+    <row r="42" spans="1:1025">
+      <c r="AMH42" s="15"/>
+      <c r="AMI42" s="15"/>
+      <c r="AMJ42" s="15"/>
+      <c r="AMK42" s="15"/>
     </row>
-    <row r="34" spans="1:25" ht="64.5" thickBot="1">
-      <c r="A34" s="92" t="s">
-        <v>118</v>
-      </c>
-      <c r="B34" s="93">
-        <v>7374</v>
-      </c>
-      <c r="C34" s="93">
-        <v>2665</v>
-      </c>
-      <c r="D34" s="93">
-        <v>4709</v>
-      </c>
-      <c r="E34" s="94">
-        <v>428</v>
-      </c>
-      <c r="F34" s="93">
-        <v>10124</v>
-      </c>
-      <c r="G34" s="93">
-        <v>33739</v>
-      </c>
-      <c r="H34" s="94">
-        <v>297</v>
-      </c>
-      <c r="I34" s="93">
-        <v>6637</v>
-      </c>
-      <c r="J34" s="93">
-        <v>2086</v>
-      </c>
-      <c r="K34" s="93">
-        <v>1015</v>
-      </c>
-      <c r="L34" s="94">
-        <v>21</v>
-      </c>
-      <c r="M34" s="94">
-        <v>4</v>
-      </c>
-      <c r="N34" s="94">
-        <v>3</v>
-      </c>
-      <c r="O34" s="94">
-        <v>5</v>
-      </c>
-      <c r="P34" s="94">
-        <v>4</v>
-      </c>
-      <c r="Q34" s="95">
-        <v>0</v>
-      </c>
-      <c r="R34" s="96">
-        <v>0</v>
-      </c>
-      <c r="S34" s="97">
-        <v>0</v>
-      </c>
-      <c r="T34" s="94" t="s">
-        <v>45</v>
-      </c>
-      <c r="U34" s="94" t="s">
-        <v>110</v>
-      </c>
-      <c r="V34" s="98"/>
-      <c r="W34" s="98"/>
-      <c r="X34" s="98"/>
-      <c r="Y34" s="98"/>
+    <row r="43" spans="1:1025">
+      <c r="AMH43" s="15"/>
+      <c r="AMI43" s="15"/>
+      <c r="AMJ43" s="15"/>
+      <c r="AMK43" s="15"/>
     </row>
-    <row r="35" spans="1:25" ht="51.75" thickBot="1">
-      <c r="A35" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="B35" s="101">
-        <v>4.8500000000000001E-2</v>
-      </c>
-      <c r="C35" s="101">
-        <v>3.2199999999999999E-2</v>
-      </c>
-      <c r="D35" s="101">
-        <v>5.8400000000000001E-2</v>
-      </c>
-      <c r="E35" s="101">
-        <v>1.6199999999999999E-2</v>
-      </c>
-      <c r="F35" s="101">
-        <v>2.2800000000000001E-2</v>
-      </c>
-      <c r="G35" s="101">
-        <v>3.7999999999999999E-2</v>
-      </c>
-      <c r="H35" s="101">
-        <v>1.1900000000000001E-2</v>
-      </c>
-      <c r="I35" s="101">
-        <v>1.77E-2</v>
-      </c>
-      <c r="J35" s="101">
-        <v>-4.7000000000000002E-3</v>
-      </c>
-      <c r="K35" s="101">
-        <v>1E-3</v>
-      </c>
-      <c r="L35" s="101">
-        <v>0.2457</v>
-      </c>
-      <c r="M35" s="101">
-        <v>5.9200000000000003E-2</v>
-      </c>
-      <c r="N35" s="102">
-        <v>3</v>
-      </c>
-      <c r="O35" s="102">
-        <v>5</v>
-      </c>
-      <c r="P35" s="102">
-        <v>3</v>
-      </c>
-      <c r="Q35" s="103"/>
-      <c r="R35" s="103"/>
-      <c r="S35" s="103"/>
-      <c r="T35" s="102" t="s">
-        <v>45</v>
-      </c>
-      <c r="U35" s="102" t="s">
-        <v>110</v>
-      </c>
-      <c r="V35" s="103"/>
-      <c r="W35" s="103"/>
-      <c r="X35" s="103"/>
-      <c r="Y35" s="103"/>
-    </row>
-    <row r="36" spans="1:25" ht="77.25" thickBot="1">
-      <c r="A36" s="104" t="s">
-        <v>119</v>
-      </c>
-      <c r="B36" s="105">
-        <v>7.1999999999999995E-2</v>
-      </c>
-      <c r="C36" s="105">
-        <v>8.5000000000000006E-2</v>
-      </c>
-      <c r="D36" s="105">
-        <v>1.0999999999999999E-2</v>
-      </c>
-      <c r="E36" s="105">
-        <v>5.7000000000000002E-2</v>
-      </c>
-      <c r="F36" s="105">
-        <v>4.9000000000000002E-2</v>
-      </c>
-      <c r="G36" s="105">
-        <v>7.6999999999999999E-2</v>
-      </c>
-      <c r="H36" s="105">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="I36" s="105">
-        <v>5.8000000000000003E-2</v>
-      </c>
-      <c r="J36" s="105">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="K36" s="105">
-        <v>4.2000000000000003E-2</v>
-      </c>
-      <c r="L36" s="105">
-        <v>0.11700000000000001</v>
-      </c>
-      <c r="M36" s="105">
-        <v>8.3000000000000004E-2</v>
-      </c>
-      <c r="N36" s="106">
-        <v>4</v>
-      </c>
-      <c r="O36" s="106">
-        <v>2</v>
-      </c>
-      <c r="P36" s="106">
-        <v>11</v>
-      </c>
-      <c r="Q36" s="107">
-        <v>0</v>
-      </c>
-      <c r="R36" s="108">
-        <v>0</v>
-      </c>
-      <c r="S36" s="109">
-        <v>0</v>
-      </c>
-      <c r="T36" s="106" t="s">
-        <v>120</v>
-      </c>
-      <c r="U36" s="110" t="s">
-        <v>121</v>
-      </c>
-      <c r="V36" s="111"/>
-      <c r="W36" s="111"/>
-      <c r="X36" s="111"/>
-      <c r="Y36" s="111"/>
-    </row>
-    <row r="37" spans="1:25" ht="102.75" thickBot="1">
-      <c r="A37" s="104" t="s">
-        <v>122</v>
-      </c>
-      <c r="B37" s="105">
-        <v>3.6799999999999999E-2</v>
-      </c>
-      <c r="C37" s="105">
-        <v>3.8600000000000002E-2</v>
-      </c>
-      <c r="D37" s="105">
-        <v>-2.1399999999999999E-2</v>
-      </c>
-      <c r="E37" s="105">
-        <v>2.4299999999999999E-2</v>
-      </c>
-      <c r="F37" s="105">
-        <v>6.7000000000000002E-3</v>
-      </c>
-      <c r="G37" s="105">
-        <v>2.01E-2</v>
-      </c>
-      <c r="H37" s="105">
-        <v>4.0899999999999999E-2</v>
-      </c>
-      <c r="I37" s="105">
-        <v>1.8100000000000002E-2</v>
-      </c>
-      <c r="J37" s="105">
-        <v>2.63E-2</v>
-      </c>
-      <c r="K37" s="105">
-        <v>1.61E-2</v>
-      </c>
-      <c r="L37" s="105">
-        <v>1.1999999999999999E-3</v>
-      </c>
-      <c r="M37" s="105">
-        <v>3.0800000000000001E-2</v>
-      </c>
-      <c r="N37" s="106">
-        <v>2</v>
-      </c>
-      <c r="O37" s="106">
-        <v>2</v>
-      </c>
-      <c r="P37" s="106">
-        <v>11</v>
-      </c>
-      <c r="Q37" s="111"/>
-      <c r="R37" s="111"/>
-      <c r="S37" s="111"/>
-      <c r="T37" s="106" t="s">
-        <v>120</v>
-      </c>
-      <c r="U37" s="110" t="s">
-        <v>121</v>
-      </c>
-      <c r="V37" s="111"/>
-      <c r="W37" s="111"/>
-      <c r="X37" s="111"/>
-      <c r="Y37" s="111"/>
-    </row>
-    <row r="38" spans="1:25" ht="90" thickBot="1">
-      <c r="A38" s="104" t="s">
-        <v>123</v>
-      </c>
-      <c r="B38" s="105">
-        <v>3.0099999999999998E-2</v>
-      </c>
-      <c r="C38" s="105">
-        <v>3.2800000000000003E-2</v>
-      </c>
-      <c r="D38" s="105">
-        <v>5.7000000000000002E-3</v>
-      </c>
-      <c r="E38" s="105">
-        <v>1.83E-2</v>
-      </c>
-      <c r="F38" s="105">
-        <v>1.2500000000000001E-2</v>
-      </c>
-      <c r="G38" s="105">
-        <v>2.2599999999999999E-2</v>
-      </c>
-      <c r="H38" s="105">
-        <v>2.4799999999999999E-2</v>
-      </c>
-      <c r="I38" s="105">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="J38" s="105">
-        <v>8.8000000000000005E-3</v>
-      </c>
-      <c r="K38" s="105">
-        <v>1.09E-2</v>
-      </c>
-      <c r="L38" s="105">
-        <v>1.04E-2</v>
-      </c>
-      <c r="M38" s="105">
-        <v>0.02</v>
-      </c>
-      <c r="N38" s="106">
-        <v>1</v>
-      </c>
-      <c r="O38" s="106">
-        <v>1</v>
-      </c>
-      <c r="P38" s="106">
-        <v>11</v>
-      </c>
-      <c r="Q38" s="111"/>
-      <c r="R38" s="111"/>
-      <c r="S38" s="111"/>
-      <c r="T38" s="106" t="s">
-        <v>45</v>
-      </c>
-      <c r="U38" s="106" t="s">
-        <v>36</v>
-      </c>
-      <c r="V38" s="111"/>
-      <c r="W38" s="111"/>
-      <c r="X38" s="111"/>
-      <c r="Y38" s="111"/>
-    </row>
-    <row r="39" spans="1:25" ht="77.25" thickBot="1">
-      <c r="A39" s="112" t="s">
-        <v>30</v>
-      </c>
-      <c r="B39" s="113">
-        <v>0</v>
-      </c>
-      <c r="C39" s="113">
-        <v>10.7</v>
-      </c>
-      <c r="D39" s="113">
-        <v>0</v>
-      </c>
-      <c r="E39" s="113">
-        <v>11.1</v>
-      </c>
-      <c r="F39" s="113">
-        <v>11.8</v>
-      </c>
-      <c r="G39" s="113">
-        <v>10.5</v>
-      </c>
-      <c r="H39" s="113">
-        <v>11.1</v>
-      </c>
-      <c r="I39" s="113">
-        <v>11.1</v>
-      </c>
-      <c r="J39" s="113">
-        <v>13.5</v>
-      </c>
-      <c r="K39" s="113">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="L39" s="113">
-        <v>0</v>
-      </c>
-      <c r="M39" s="113">
-        <v>10.4</v>
-      </c>
-      <c r="N39" s="113"/>
-      <c r="O39" s="113">
-        <v>4</v>
-      </c>
-      <c r="P39" s="113"/>
-      <c r="Q39" s="114"/>
-      <c r="R39" s="114"/>
-      <c r="S39" s="114"/>
-      <c r="T39" s="114"/>
-      <c r="U39" s="114"/>
-      <c r="V39" s="114"/>
-      <c r="W39" s="114"/>
-      <c r="X39" s="114"/>
-      <c r="Y39" s="114"/>
-    </row>
-    <row r="40" spans="1:25" ht="90" thickBot="1">
-      <c r="A40" s="112" t="s">
-        <v>124</v>
-      </c>
-      <c r="B40" s="115">
-        <v>0.82</v>
-      </c>
-      <c r="C40" s="115">
-        <v>0.81</v>
-      </c>
-      <c r="D40" s="115">
-        <v>0.83</v>
-      </c>
-      <c r="E40" s="115">
-        <v>0.67</v>
-      </c>
-      <c r="F40" s="113">
-        <v>0</v>
-      </c>
-      <c r="G40" s="115">
-        <v>0.78</v>
-      </c>
-      <c r="H40" s="115">
-        <v>0.74</v>
-      </c>
-      <c r="I40" s="115">
-        <v>0.76</v>
-      </c>
-      <c r="J40" s="115">
-        <v>0.54</v>
-      </c>
-      <c r="K40" s="115">
-        <v>0.71</v>
-      </c>
-      <c r="L40" s="115">
-        <v>0.63</v>
-      </c>
-      <c r="M40" s="115">
-        <v>0.75</v>
-      </c>
-      <c r="N40" s="113"/>
-      <c r="O40" s="113">
-        <v>2</v>
-      </c>
-      <c r="P40" s="113">
-        <v>1</v>
-      </c>
-      <c r="Q40" s="114"/>
-      <c r="R40" s="114"/>
-      <c r="S40" s="114"/>
-      <c r="T40" s="114"/>
-      <c r="U40" s="114"/>
-      <c r="V40" s="114"/>
-      <c r="W40" s="114"/>
-      <c r="X40" s="114"/>
-      <c r="Y40" s="114"/>
+    <row r="44" spans="1:1025">
+      <c r="AMH44" s="15"/>
+      <c r="AMI44" s="15"/>
+      <c r="AMJ44" s="15"/>
+      <c r="AMK44" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/nantes-st-nazaire-dev/actifs.xlsx
+++ b/nantes-st-nazaire-dev/actifs.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yacouba\Desktop\HyblabDDJ2018\nantes-st-nazaire-dev\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -364,13 +369,13 @@
     <t>Loyer mensuel médian au m2 (parc privé) - 2016</t>
   </si>
   <si>
-    <t>Evolution annuelle moyenne de la part des diplômés de l’enseignement supérieur dans la population (2009-2014)</t>
+    <t>Evolution annuelle de la part des diplômés</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
@@ -1074,15 +1079,6 @@
     <xf numFmtId="9" fontId="7" fillId="14" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -1099,6 +1095,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="4" fillId="15" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1176,6 +1181,14 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1222,7 +1235,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1254,9 +1267,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1288,6 +1302,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1463,20 +1478,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1025" width="10.7109375" style="14"/>
-    <col min="1026" max="16384" width="9.140625" style="15"/>
+    <col min="1" max="1025" width="10.6640625" style="14"/>
+    <col min="1026" max="16384" width="9.109375" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="45">
+    <row r="1" spans="1:26" ht="46.8">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -1556,7 +1571,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:26" ht="38.25">
+    <row r="2" spans="1:26" ht="39.6">
       <c r="A2" s="21" t="s">
         <v>26</v>
       </c>
@@ -1636,7 +1651,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="76.5">
+    <row r="3" spans="1:26" ht="79.2">
       <c r="A3" s="21" t="s">
         <v>30</v>
       </c>
@@ -1716,7 +1731,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="153">
+    <row r="4" spans="1:26" ht="158.4">
       <c r="A4" s="21" t="s">
         <v>32</v>
       </c>
@@ -1796,7 +1811,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="38.25">
+    <row r="5" spans="1:26" ht="39.6">
       <c r="A5" s="21" t="s">
         <v>34</v>
       </c>
@@ -1876,7 +1891,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="63.75">
+    <row r="6" spans="1:26" ht="79.2">
       <c r="A6" s="21" t="s">
         <v>35</v>
       </c>
@@ -1954,7 +1969,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:26" ht="63.75">
+    <row r="7" spans="1:26" ht="66">
       <c r="A7" s="21" t="s">
         <v>38</v>
       </c>
@@ -2028,7 +2043,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="51">
+    <row r="8" spans="1:26" ht="52.8">
       <c r="A8" s="21" t="s">
         <v>41</v>
       </c>
@@ -2112,7 +2127,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:26" ht="63.75">
+    <row r="9" spans="1:26" ht="66">
       <c r="A9" s="21" t="s">
         <v>43</v>
       </c>
@@ -2196,7 +2211,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="89.25">
+    <row r="10" spans="1:26" ht="92.4">
       <c r="A10" s="21" t="s">
         <v>44</v>
       </c>
@@ -2280,7 +2295,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:26" ht="127.5">
+    <row r="11" spans="1:26" ht="132">
       <c r="A11" s="1" t="s">
         <v>47</v>
       </c>
@@ -2358,7 +2373,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:26" ht="102">
+    <row r="12" spans="1:26" ht="105.6">
       <c r="A12" s="21" t="s">
         <v>48</v>
       </c>
@@ -2442,7 +2457,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:26" ht="76.5">
+    <row r="13" spans="1:26" ht="79.2">
       <c r="A13" s="44" t="s">
         <v>51</v>
       </c>
@@ -2520,7 +2535,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:26" ht="89.25">
+    <row r="14" spans="1:26" ht="92.4">
       <c r="A14" s="21" t="s">
         <v>52</v>
       </c>
@@ -2604,7 +2619,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:26" ht="63.75">
+    <row r="15" spans="1:26" ht="66">
       <c r="A15" s="44" t="s">
         <v>54</v>
       </c>
@@ -2677,7 +2692,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:26" ht="38.25">
+    <row r="16" spans="1:26" ht="39.6">
       <c r="A16" s="21" t="s">
         <v>64</v>
       </c>
@@ -2756,7 +2771,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:26" ht="127.5">
+    <row r="17" spans="1:26" ht="132">
       <c r="A17" s="44" t="s">
         <v>67</v>
       </c>
@@ -2830,7 +2845,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:26" ht="51">
+    <row r="18" spans="1:26" ht="52.8">
       <c r="A18" s="44" t="s">
         <v>68</v>
       </c>
@@ -2977,7 +2992,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:26" ht="39" thickBot="1">
+    <row r="20" spans="1:26" ht="40.200000000000003" thickBot="1">
       <c r="A20" s="50" t="s">
         <v>86</v>
       </c>
@@ -3040,7 +3055,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="21" spans="1:26" ht="15.75" thickBot="1">
+    <row r="21" spans="1:26" ht="28.2" thickBot="1">
       <c r="A21" s="51" t="s">
         <v>89</v>
       </c>
@@ -3099,7 +3114,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="22" spans="1:26" ht="77.25" thickBot="1">
+    <row r="22" spans="1:26" ht="79.8" thickBot="1">
       <c r="A22" s="50" t="s">
         <v>114</v>
       </c>
@@ -3164,7 +3179,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:26" ht="115.5" thickBot="1">
+    <row r="23" spans="1:26" ht="132.6" thickBot="1">
       <c r="A23" s="6" t="s">
         <v>113</v>
       </c>
@@ -3209,9 +3224,9 @@
       </c>
       <c r="O23" s="60"/>
       <c r="P23" s="61"/>
-      <c r="Q23" s="113"/>
-      <c r="R23" s="114"/>
-      <c r="S23" s="115"/>
+      <c r="Q23" s="119"/>
+      <c r="R23" s="120"/>
+      <c r="S23" s="121"/>
       <c r="T23" s="62" t="s">
         <v>91</v>
       </c>
@@ -3219,7 +3234,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="24" spans="1:26" ht="128.25" thickBot="1">
+    <row r="24" spans="1:26" ht="132.6" thickBot="1">
       <c r="A24" s="6" t="s">
         <v>67</v>
       </c>
@@ -3270,7 +3285,7 @@
       <c r="T24" s="13"/>
       <c r="U24" s="13"/>
     </row>
-    <row r="25" spans="1:26" ht="39" thickBot="1">
+    <row r="25" spans="1:26" ht="42" thickBot="1">
       <c r="A25" s="63" t="s">
         <v>92</v>
       </c>
@@ -3331,7 +3346,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="26" spans="1:26" ht="64.5" thickBot="1">
+    <row r="26" spans="1:26" ht="66.599999999999994" thickBot="1">
       <c r="A26" s="64" t="s">
         <v>95</v>
       </c>
@@ -3388,7 +3403,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="27" spans="1:26" ht="115.5" thickBot="1">
+    <row r="27" spans="1:26" ht="124.8" thickBot="1">
       <c r="A27" s="66" t="s">
         <v>97</v>
       </c>
@@ -3451,7 +3466,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="28" spans="1:26" ht="90" thickBot="1">
+    <row r="28" spans="1:26" ht="97.2" thickBot="1">
       <c r="A28" s="66" t="s">
         <v>99</v>
       </c>
@@ -3510,7 +3525,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="29" spans="1:26" ht="51.75" thickBot="1">
+    <row r="29" spans="1:26" ht="55.8" thickBot="1">
       <c r="A29" s="72" t="s">
         <v>100</v>
       </c>
@@ -3579,7 +3594,7 @@
       <c r="X29" s="78"/>
       <c r="Y29" s="78"/>
     </row>
-    <row r="30" spans="1:26" ht="51.75" thickBot="1">
+    <row r="30" spans="1:26" ht="55.8" thickBot="1">
       <c r="A30" s="10" t="s">
         <v>100</v>
       </c>
@@ -3642,7 +3657,7 @@
       <c r="X30" s="84"/>
       <c r="Y30" s="84"/>
     </row>
-    <row r="31" spans="1:26" ht="51.75" thickBot="1">
+    <row r="31" spans="1:26" ht="55.8" thickBot="1">
       <c r="A31" s="85" t="s">
         <v>101</v>
       </c>
@@ -3711,7 +3726,7 @@
       <c r="X31" s="87"/>
       <c r="Y31" s="87"/>
     </row>
-    <row r="32" spans="1:26" ht="64.5" thickBot="1">
+    <row r="32" spans="1:26" ht="69.599999999999994" thickBot="1">
       <c r="A32" s="89" t="s">
         <v>104</v>
       </c>
@@ -3780,7 +3795,7 @@
       <c r="X32" s="95"/>
       <c r="Y32" s="95"/>
     </row>
-    <row r="33" spans="1:1025" ht="51.75" thickBot="1">
+    <row r="33" spans="1:1025" ht="55.8" thickBot="1">
       <c r="A33" s="89" t="s">
         <v>105</v>
       </c>
@@ -3843,7 +3858,7 @@
       <c r="X33" s="95"/>
       <c r="Y33" s="95"/>
     </row>
-    <row r="34" spans="1:1025" ht="64.5" thickBot="1">
+    <row r="34" spans="1:1025" ht="69.599999999999994" thickBot="1">
       <c r="A34" s="89" t="s">
         <v>106</v>
       </c>
@@ -3912,7 +3927,7 @@
       <c r="X34" s="95"/>
       <c r="Y34" s="95"/>
     </row>
-    <row r="35" spans="1:1025" ht="51.75" thickBot="1">
+    <row r="35" spans="1:1025" ht="55.8" thickBot="1">
       <c r="A35" s="11" t="s">
         <v>105</v>
       </c>
@@ -3975,7 +3990,7 @@
       <c r="X35" s="100"/>
       <c r="Y35" s="100"/>
     </row>
-    <row r="36" spans="1:1025" ht="77.25" thickBot="1">
+    <row r="36" spans="1:1025" ht="83.4" thickBot="1">
       <c r="A36" s="101" t="s">
         <v>107</v>
       </c>
@@ -4044,7 +4059,7 @@
       <c r="X36" s="108"/>
       <c r="Y36" s="108"/>
     </row>
-    <row r="37" spans="1:1025" ht="102.75" thickBot="1">
+    <row r="37" spans="1:1025" ht="111" thickBot="1">
       <c r="A37" s="101" t="s">
         <v>110</v>
       </c>
@@ -4107,7 +4122,7 @@
       <c r="X37" s="108"/>
       <c r="Y37" s="108"/>
     </row>
-    <row r="38" spans="1:1025" ht="90" thickBot="1">
+    <row r="38" spans="1:1025" ht="97.2" thickBot="1">
       <c r="A38" s="101" t="s">
         <v>111</v>
       </c>
@@ -4170,7 +4185,7 @@
       <c r="X38" s="108"/>
       <c r="Y38" s="108"/>
     </row>
-    <row r="39" spans="1:1025" ht="77.25" thickBot="1">
+    <row r="39" spans="1:1025" ht="79.8" thickBot="1">
       <c r="A39" s="109" t="s">
         <v>115</v>
       </c>
@@ -4225,7 +4240,7 @@
       <c r="X39" s="111"/>
       <c r="Y39" s="111"/>
     </row>
-    <row r="40" spans="1:1025" ht="90" thickBot="1">
+    <row r="40" spans="1:1025" ht="93" thickBot="1">
       <c r="A40" s="109" t="s">
         <v>112</v>
       </c>
@@ -4283,61 +4298,61 @@
       <c r="Y40" s="111"/>
     </row>
     <row r="41" spans="1:1025" ht="114.75" customHeight="1">
-      <c r="A41" s="116" t="s">
+      <c r="A41" s="113" t="s">
         <v>116</v>
       </c>
-      <c r="B41" s="117">
+      <c r="B41" s="114">
         <v>4.6199999999999998E-2</v>
       </c>
-      <c r="C41" s="117">
-        <v>0</v>
-      </c>
-      <c r="D41" s="117">
-        <v>0</v>
-      </c>
-      <c r="E41" s="117">
+      <c r="C41" s="114">
+        <v>0</v>
+      </c>
+      <c r="D41" s="114">
+        <v>0</v>
+      </c>
+      <c r="E41" s="114">
         <v>3.7400000000000003E-2</v>
       </c>
-      <c r="F41" s="117">
+      <c r="F41" s="114">
         <v>2.9100000000000001E-2</v>
       </c>
-      <c r="G41" s="117">
+      <c r="G41" s="114">
         <v>3.8199999999999998E-2</v>
       </c>
-      <c r="H41" s="117">
+      <c r="H41" s="114">
         <v>3.4700000000000002E-2</v>
       </c>
-      <c r="I41" s="117">
+      <c r="I41" s="114">
         <v>4.1399999999999999E-2</v>
       </c>
-      <c r="J41" s="117">
+      <c r="J41" s="114">
         <v>2.7300000000000001E-2</v>
       </c>
-      <c r="K41" s="117">
+      <c r="K41" s="114">
         <v>3.09E-2</v>
       </c>
-      <c r="L41" s="117">
+      <c r="L41" s="114">
         <v>2.6800000000000001E-2</v>
       </c>
-      <c r="M41" s="117">
+      <c r="M41" s="114">
         <v>4.1399999999999999E-2</v>
       </c>
-      <c r="N41" s="118">
+      <c r="N41" s="115">
         <v>1</v>
       </c>
-      <c r="O41" s="118">
+      <c r="O41" s="115">
         <v>1</v>
       </c>
-      <c r="P41" s="118">
+      <c r="P41" s="115">
         <v>2</v>
       </c>
-      <c r="Q41" s="120"/>
-      <c r="R41" s="121"/>
-      <c r="S41" s="121"/>
-      <c r="T41" s="119" t="s">
+      <c r="Q41" s="117"/>
+      <c r="R41" s="118"/>
+      <c r="S41" s="118"/>
+      <c r="T41" s="116" t="s">
         <v>45</v>
       </c>
-      <c r="U41" s="119" t="s">
+      <c r="U41" s="116" t="s">
         <v>90</v>
       </c>
       <c r="AMH41" s="15"/>
